--- a/sagehen_3lay_modsim/Ocsillations_2.xlsx
+++ b/sagehen_3lay_modsim/Ocsillations_2.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22998" windowHeight="8340" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="spatial_org (1-based iseg vals)" sheetId="2" r:id="rId2"/>
+    <sheet name="9-17-1988_Conv_Issues" sheetId="3" r:id="rId3"/>
+    <sheet name="9-17-1988_Conv_Issues_LAK_Vol" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="67">
   <si>
     <t>EXCHANGE</t>
   </si>
@@ -189,11 +191,86 @@
   <si>
     <t>[21] (Div to Muni)</t>
   </si>
+  <si>
+    <t>[21]</t>
+  </si>
+  <si>
+    <t>[19]</t>
+  </si>
+  <si>
+    <t>[18]</t>
+  </si>
+  <si>
+    <t>[17]</t>
+  </si>
+  <si>
+    <t>{double[23]}</t>
+  </si>
+  <si>
+    <t>11 -&gt; 12</t>
+  </si>
+  <si>
+    <t>10 -&gt; 11</t>
+  </si>
+  <si>
+    <t>9 -&gt; 10</t>
+  </si>
+  <si>
+    <t>8 -&gt; 9</t>
+  </si>
+  <si>
+    <t>7 -&gt; 8</t>
+  </si>
+  <si>
+    <t>6 -&gt; 7</t>
+  </si>
+  <si>
+    <t>5 -&gt; 6</t>
+  </si>
+  <si>
+    <t>4 -&gt; 5</t>
+  </si>
+  <si>
+    <t>3 -&gt; 4</t>
+  </si>
+  <si>
+    <t>2 -&gt; 3</t>
+  </si>
+  <si>
+    <t>1 -&gt; 2</t>
+  </si>
+  <si>
+    <t>Iteration 12</t>
+  </si>
+  <si>
+    <t>Iteration 11</t>
+  </si>
+  <si>
+    <t>Iteration 10</t>
+  </si>
+  <si>
+    <t>Iteration 9</t>
+  </si>
+  <si>
+    <t>Iterations</t>
+  </si>
+  <si>
+    <t>{double[2]}</t>
+  </si>
+  <si>
+    <t>MS_Reservoirs[0].mnInfo.stend</t>
+  </si>
+  <si>
+    <t>MS_Reservoirs[1].mnInfo.stend</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,12 +293,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -236,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -245,18 +328,66 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFF8955E"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -267,6 +398,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8955E"/>
         </patternFill>
       </fill>
     </dxf>
@@ -587,22 +728,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D50" sqref="D50:I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="9.140625" style="2"/>
+    <col min="1" max="1" width="19.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="9.15625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -652,7 +793,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -710,7 +851,7 @@
       </c>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -767,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -824,7 +965,7 @@
         <v>6.05029296875</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -881,7 +1022,7 @@
         <v>1.904296875E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -938,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -995,7 +1136,7 @@
         <v>-0.17749023436999778</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1052,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1109,7 +1250,7 @@
         <v>3.283691405999889E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1166,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1223,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1280,7 +1421,7 @@
         <v>-0.1669921875</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1337,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1394,7 +1535,7 @@
         <v>-2.0771484375</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1451,7 +1592,7 @@
         <v>1.2451171880002221E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1508,7 +1649,7 @@
         <v>-0.87890625</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1565,7 +1706,7 @@
         <v>0.7099609375</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1622,7 +1763,7 @@
         <v>2.44140625E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1679,7 +1820,7 @@
         <v>-0.11087036132801131</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1736,7 +1877,7 @@
         <v>14.17041015625</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1793,7 +1934,7 @@
         <v>31.14892578125</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1850,7 +1991,7 @@
         <v>-15.132751464842954</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1907,7 +2048,7 @@
         <v>0.630859375</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1964,7 +2105,7 @@
         <v>-20.94189453125</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -2005,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2062,7 +2203,7 @@
         <v>9.9609375E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -2119,7 +2260,7 @@
         <v>-0.35107421875</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2176,7 +2317,7 @@
         <v>-12.5</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -2233,7 +2374,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -2274,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -2331,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -2388,7 +2529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -2445,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2502,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2559,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -2616,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -2673,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2730,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -2787,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2844,7 +2985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -2901,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -2958,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -3015,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -3072,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -3129,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -3186,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -3243,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -3300,7 +3441,7 @@
         <v>12.599999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -3357,7 +3498,7 @@
         <v>-2393.6000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>41</v>
       </c>
@@ -3414,7 +3555,7 @@
         <v>-2362.8999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -3471,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -3528,7 +3669,7 @@
         <v>0.70000000000027285</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -3587,11 +3728,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:R53">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
-      <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3611,22 +3752,22 @@
       <selection activeCell="BY37" sqref="BY37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="76" width="3.28515625" customWidth="1"/>
+    <col min="1" max="76" width="3.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="18" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="BJ18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="19" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="BK19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="20" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="BL20">
         <v>1</v>
       </c>
@@ -3634,7 +3775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="21" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="BL21">
         <v>1</v>
       </c>
@@ -3642,22 +3783,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="22" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="BM22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="23" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="BM23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="24" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="BN24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="25" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="AW25">
         <v>4</v>
       </c>
@@ -3665,7 +3806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="26" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="AX26">
         <v>4</v>
       </c>
@@ -3673,7 +3814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="27" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="AY27">
         <v>4</v>
       </c>
@@ -3681,7 +3822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="28" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="AY28">
         <v>4</v>
       </c>
@@ -3689,7 +3830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="29" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="AZ29">
         <v>4</v>
       </c>
@@ -3697,7 +3838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="30" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="AZ30">
         <v>4</v>
       </c>
@@ -3705,7 +3846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="31" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="AZ31">
         <v>4</v>
       </c>
@@ -3713,7 +3854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="32" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="AN32">
         <v>5</v>
       </c>
@@ -3733,7 +3874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="33" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="AM33">
         <v>5</v>
       </c>
@@ -3747,7 +3888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="34" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="AL34">
         <v>5</v>
       </c>
@@ -3770,7 +3911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="35" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="AI35">
         <v>7</v>
       </c>
@@ -3799,7 +3940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="36" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="AC36">
         <v>9</v>
       </c>
@@ -3840,7 +3981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="37" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="Z37">
         <v>9</v>
       </c>
@@ -3878,7 +4019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="38" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="AF38">
         <v>12</v>
       </c>
@@ -3919,7 +4060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="39" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="AE39">
         <v>12</v>
       </c>
@@ -3963,7 +4104,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="40" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="AD40">
         <v>12</v>
       </c>
@@ -3995,7 +4136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="41" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="AC41">
         <v>12</v>
       </c>
@@ -4015,7 +4156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="42" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="X42">
         <v>12</v>
       </c>
@@ -4047,7 +4188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="43" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="W43">
         <v>12</v>
       </c>
@@ -4067,7 +4208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="44" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="V44">
         <v>12</v>
       </c>
@@ -4084,7 +4225,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="45" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="U45">
         <v>12</v>
       </c>
@@ -4101,7 +4242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="46" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="Q46">
         <v>12</v>
       </c>
@@ -4127,7 +4268,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="47" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="O47">
         <v>12</v>
       </c>
@@ -4144,7 +4285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="48" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="M48">
         <v>12</v>
       </c>
@@ -4161,7 +4302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="11:73" x14ac:dyDescent="0.25">
+    <row r="49" spans="11:73" x14ac:dyDescent="0.55000000000000004">
       <c r="L49">
         <v>12</v>
       </c>
@@ -4175,7 +4316,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="11:73" x14ac:dyDescent="0.25">
+    <row r="50" spans="11:73" x14ac:dyDescent="0.55000000000000004">
       <c r="L50">
         <v>12</v>
       </c>
@@ -4189,7 +4330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="11:73" x14ac:dyDescent="0.25">
+    <row r="51" spans="11:73" x14ac:dyDescent="0.55000000000000004">
       <c r="K51">
         <v>12</v>
       </c>
@@ -4203,7 +4344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="11:73" x14ac:dyDescent="0.25">
+    <row r="52" spans="11:73" x14ac:dyDescent="0.55000000000000004">
       <c r="AL52">
         <v>10</v>
       </c>
@@ -4214,7 +4355,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="11:73" x14ac:dyDescent="0.25">
+    <row r="53" spans="11:73" x14ac:dyDescent="0.55000000000000004">
       <c r="AL53">
         <v>10</v>
       </c>
@@ -4222,7 +4363,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="11:73" x14ac:dyDescent="0.25">
+    <row r="54" spans="11:73" x14ac:dyDescent="0.55000000000000004">
       <c r="AL54">
         <v>10</v>
       </c>
@@ -4230,7 +4371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="11:73" x14ac:dyDescent="0.25">
+    <row r="55" spans="11:73" x14ac:dyDescent="0.55000000000000004">
       <c r="AL55">
         <v>10</v>
       </c>
@@ -4238,17 +4379,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="11:73" x14ac:dyDescent="0.25">
+    <row r="56" spans="11:73" x14ac:dyDescent="0.55000000000000004">
       <c r="AL56">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="11:73" x14ac:dyDescent="0.25">
+    <row r="57" spans="11:73" x14ac:dyDescent="0.55000000000000004">
       <c r="AK57">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="11:73" x14ac:dyDescent="0.25">
+    <row r="58" spans="11:73" x14ac:dyDescent="0.55000000000000004">
       <c r="AK58">
         <v>10</v>
       </c>
@@ -4256,4 +4397,8440 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="14.1015625" customWidth="1"/>
+    <col min="3" max="10" width="12.26171875" customWidth="1"/>
+    <col min="11" max="11" width="11.1015625" customWidth="1"/>
+    <col min="12" max="13" width="12.26171875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>245.21218872070301</v>
+      </c>
+      <c r="C4" s="1">
+        <v>245.21151733398401</v>
+      </c>
+      <c r="D4" s="1">
+        <v>245.211502075195</v>
+      </c>
+      <c r="E4" s="1">
+        <v>245.211502075195</v>
+      </c>
+      <c r="F4" s="1">
+        <v>245.211502075195</v>
+      </c>
+      <c r="G4" s="1">
+        <v>245.211502075195</v>
+      </c>
+      <c r="H4" s="1">
+        <v>245.211502075195</v>
+      </c>
+      <c r="I4" s="1">
+        <v>245.211502075195</v>
+      </c>
+      <c r="J4" s="1">
+        <v>245.211502075195</v>
+      </c>
+      <c r="K4" s="1">
+        <v>245.211502075195</v>
+      </c>
+      <c r="L4" s="1">
+        <v>245.211502075195</v>
+      </c>
+      <c r="M4" s="1">
+        <v>245.211502075195</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" ref="O4:O26" si="0">C4-B4</f>
+        <v>-6.7138671900579538E-4</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" ref="P4:P26" si="1">D4-C4</f>
+        <v>-1.5258789005656581E-5</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" ref="Q4:Q26" si="2">E4-D4</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" ref="R4:R26" si="3">F4-E4</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" ref="S4:S26" si="4">G4-F4</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" ref="T4:T26" si="5">H4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" ref="U4:U26" si="6">I4-H4</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <f t="shared" ref="V4:V26" si="7">J4-I4</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <f t="shared" ref="W4:W26" si="8">K4-J4</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <f t="shared" ref="X4:X26" si="9">L4-K4</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <f t="shared" ref="Y4:Y26" si="10">M4-L4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>56.3726997375488</v>
+      </c>
+      <c r="C5" s="1">
+        <v>56.372692108154297</v>
+      </c>
+      <c r="D5" s="1">
+        <v>56.372688293457003</v>
+      </c>
+      <c r="E5" s="1">
+        <v>56.372688293457003</v>
+      </c>
+      <c r="F5" s="1">
+        <v>56.372688293457003</v>
+      </c>
+      <c r="G5" s="1">
+        <v>56.372688293457003</v>
+      </c>
+      <c r="H5" s="1">
+        <v>56.372688293457003</v>
+      </c>
+      <c r="I5" s="1">
+        <v>56.372688293457003</v>
+      </c>
+      <c r="J5" s="1">
+        <v>56.372688293457003</v>
+      </c>
+      <c r="K5" s="1">
+        <v>56.372688293457003</v>
+      </c>
+      <c r="L5" s="1">
+        <v>56.372688293457003</v>
+      </c>
+      <c r="M5" s="1">
+        <v>56.372688293457003</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.6293945028282906E-6</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="1"/>
+        <v>-3.8146972940467094E-6</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-60.0306396484375</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-59.999969482421797</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-60.042282104492102</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-60.0547485351562</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-60.056716918945298</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-60.056793212890597</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-60.0595092773437</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-60.061630249023402</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-60.061370849609297</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-60.061965942382798</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-60.0619506835937</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-60.061233520507798</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="0"/>
+        <v>3.067016601570316E-2</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="1"/>
+        <v>-4.2312622070305395E-2</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.2466430664098027E-2</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.9683837890980271E-3</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="4"/>
+        <v>-7.6293945298289145E-5</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.7160644531036837E-3</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="6"/>
+        <v>-2.1209716797017109E-3</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" si="7"/>
+        <v>2.5939941410513256E-4</v>
+      </c>
+      <c r="W6" s="1">
+        <f t="shared" si="8"/>
+        <v>-5.9509277350144885E-4</v>
+      </c>
+      <c r="X6" s="1">
+        <f t="shared" si="9"/>
+        <v>1.5258789098027137E-5</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="10"/>
+        <v>7.1716308590197286E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>384.604400634765</v>
+      </c>
+      <c r="C7" s="1">
+        <v>384.60092163085898</v>
+      </c>
+      <c r="D7" s="1">
+        <v>384.50689697265602</v>
+      </c>
+      <c r="E7" s="1">
+        <v>384.50338745117102</v>
+      </c>
+      <c r="F7" s="1">
+        <v>384.502838134765</v>
+      </c>
+      <c r="G7" s="1">
+        <v>384.50286865234301</v>
+      </c>
+      <c r="H7" s="1">
+        <v>384.49624633789</v>
+      </c>
+      <c r="I7" s="1">
+        <v>384.49865722656199</v>
+      </c>
+      <c r="J7" s="1">
+        <v>384.49862670898398</v>
+      </c>
+      <c r="K7" s="1">
+        <v>384.49658203125</v>
+      </c>
+      <c r="L7" s="1">
+        <v>384.49899291992102</v>
+      </c>
+      <c r="M7" s="1">
+        <v>384.49859619140602</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.4790039060226263E-3</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="1"/>
+        <v>-9.402465820295447E-2</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="2"/>
+        <v>-3.5095214850002776E-3</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="3"/>
+        <v>-5.4931640602262632E-4</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0517578011313162E-5</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="5"/>
+        <v>-6.6223144530113132E-3</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="6"/>
+        <v>2.4108886719886868E-3</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="7"/>
+        <v>-3.0517578011313162E-5</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" si="8"/>
+        <v>-2.0446777339770961E-3</v>
+      </c>
+      <c r="X7" s="1">
+        <f t="shared" si="9"/>
+        <v>2.4108886710223487E-3</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="10"/>
+        <v>-3.9672851499972239E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6.6650390625E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6.640625E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6.6650390625E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6.6650390625E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6.6650390625E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6.6650390625E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6.6650390625E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>6.6650390625E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>6.6650390625E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>6.6650390625E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>6.6650390625E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>6.6650390625E-2</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.44140625E-4</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="1"/>
+        <v>2.44140625E-4</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>914.7421875</v>
+      </c>
+      <c r="C9" s="1">
+        <v>914.66015625</v>
+      </c>
+      <c r="D9" s="1">
+        <v>915.150390625</v>
+      </c>
+      <c r="E9" s="1">
+        <v>915.046875</v>
+      </c>
+      <c r="F9" s="1">
+        <v>915.033203125</v>
+      </c>
+      <c r="G9" s="1">
+        <v>915.232421875</v>
+      </c>
+      <c r="H9" s="1">
+        <v>914.986328125</v>
+      </c>
+      <c r="I9" s="1">
+        <v>915.0546875</v>
+      </c>
+      <c r="J9" s="1">
+        <v>915.11328125</v>
+      </c>
+      <c r="K9" s="1">
+        <v>914.98828125</v>
+      </c>
+      <c r="L9" s="1">
+        <v>915.064453125</v>
+      </c>
+      <c r="M9" s="1">
+        <v>915.072265625</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.203125E-2</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.490234375</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.103515625</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.3671875E-2</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="4"/>
+        <v>0.19921875</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.24609375</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="6"/>
+        <v>6.8359375E-2</v>
+      </c>
+      <c r="V9" s="1">
+        <f t="shared" si="7"/>
+        <v>5.859375E-2</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.125</v>
+      </c>
+      <c r="X9" s="1">
+        <f t="shared" si="9"/>
+        <v>7.6171875E-2</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" si="10"/>
+        <v>7.8125E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>163.19891357421801</v>
+      </c>
+      <c r="C10" s="1">
+        <v>163.20068359375</v>
+      </c>
+      <c r="D10" s="1">
+        <v>163.20062255859301</v>
+      </c>
+      <c r="E10" s="1">
+        <v>163.20062255859301</v>
+      </c>
+      <c r="F10" s="1">
+        <v>163.20062255859301</v>
+      </c>
+      <c r="G10" s="1">
+        <v>163.20062255859301</v>
+      </c>
+      <c r="H10" s="1">
+        <v>163.20062255859301</v>
+      </c>
+      <c r="I10" s="1">
+        <v>163.20062255859301</v>
+      </c>
+      <c r="J10" s="1">
+        <v>163.20062255859301</v>
+      </c>
+      <c r="K10" s="1">
+        <v>163.20062255859301</v>
+      </c>
+      <c r="L10" s="1">
+        <v>163.20062255859301</v>
+      </c>
+      <c r="M10" s="1">
+        <v>163.20062255859301</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7700195319889644E-3</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="1"/>
+        <v>-6.1035156988964445E-5</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>69.403060913085895</v>
+      </c>
+      <c r="C11" s="1">
+        <v>69.403182983398395</v>
+      </c>
+      <c r="D11" s="1">
+        <v>69.309890747070298</v>
+      </c>
+      <c r="E11" s="1">
+        <v>69.308204650878906</v>
+      </c>
+      <c r="F11" s="1">
+        <v>69.308006286621094</v>
+      </c>
+      <c r="G11" s="1">
+        <v>69.304420471191406</v>
+      </c>
+      <c r="H11" s="1">
+        <v>69.302818298339801</v>
+      </c>
+      <c r="I11" s="1">
+        <v>69.303947448730398</v>
+      </c>
+      <c r="J11" s="1">
+        <v>69.302787780761705</v>
+      </c>
+      <c r="K11" s="1">
+        <v>69.303184509277301</v>
+      </c>
+      <c r="L11" s="1">
+        <v>69.304061889648395</v>
+      </c>
+      <c r="M11" s="1">
+        <v>69.303474426269503</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.220703125E-4</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="1"/>
+        <v>-9.3292236328096578E-2</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.6860961913920391E-3</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.983642578125E-4</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="4"/>
+        <v>-3.5858154296875E-3</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.6021728516051326E-3</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1291503905965783E-3</v>
+      </c>
+      <c r="V11" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.1596679686931566E-3</v>
+      </c>
+      <c r="W11" s="1">
+        <f t="shared" si="8"/>
+        <v>3.9672851559657829E-4</v>
+      </c>
+      <c r="X11" s="1">
+        <f t="shared" si="9"/>
+        <v>8.7738037109375E-4</v>
+      </c>
+      <c r="Y11" s="1">
+        <f t="shared" si="10"/>
+        <v>-5.8746337889203915E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>633.57867431640602</v>
+      </c>
+      <c r="C12" s="1">
+        <v>633.57855224609295</v>
+      </c>
+      <c r="D12" s="1">
+        <v>633.57855224609295</v>
+      </c>
+      <c r="E12" s="1">
+        <v>633.57855224609295</v>
+      </c>
+      <c r="F12" s="1">
+        <v>633.57855224609295</v>
+      </c>
+      <c r="G12" s="1">
+        <v>633.57855224609295</v>
+      </c>
+      <c r="H12" s="1">
+        <v>633.57855224609295</v>
+      </c>
+      <c r="I12" s="1">
+        <v>633.57855224609295</v>
+      </c>
+      <c r="J12" s="1">
+        <v>633.57855224609295</v>
+      </c>
+      <c r="K12" s="1">
+        <v>633.57855224609295</v>
+      </c>
+      <c r="L12" s="1">
+        <v>633.57855224609295</v>
+      </c>
+      <c r="M12" s="1">
+        <v>633.57855224609295</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.2207031306843419E-4</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2008.6318359375</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2008.63159179687</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2008.63159179687</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2008.63159179687</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2008.63159179687</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2008.63159179687</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2008.63159179687</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2008.63159179687</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2008.63159179687</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2008.63159179687</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2008.63159179687</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2008.63159179687</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.4414063000222086E-4</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <v>580.30078125</v>
+      </c>
+      <c r="C14" s="1">
+        <v>580.197265625</v>
+      </c>
+      <c r="D14" s="1">
+        <v>580.587890625</v>
+      </c>
+      <c r="E14" s="1">
+        <v>580.490234375</v>
+      </c>
+      <c r="F14" s="1">
+        <v>580.478515625</v>
+      </c>
+      <c r="G14" s="1">
+        <v>580.66796875</v>
+      </c>
+      <c r="H14" s="1">
+        <v>580.431640625</v>
+      </c>
+      <c r="I14" s="1">
+        <v>580.486328125</v>
+      </c>
+      <c r="J14" s="1">
+        <v>580.546875</v>
+      </c>
+      <c r="K14" s="1">
+        <v>580.431640625</v>
+      </c>
+      <c r="L14" s="1">
+        <v>580.49609375</v>
+      </c>
+      <c r="M14" s="1">
+        <v>580.509765625</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.103515625</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.390625</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="2"/>
+        <v>-9.765625E-2</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.171875E-2</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="4"/>
+        <v>0.189453125</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.236328125</v>
+      </c>
+      <c r="U14" s="1">
+        <f t="shared" si="6"/>
+        <v>5.46875E-2</v>
+      </c>
+      <c r="V14" s="1">
+        <f t="shared" si="7"/>
+        <v>6.0546875E-2</v>
+      </c>
+      <c r="W14" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.115234375</v>
+      </c>
+      <c r="X14" s="1">
+        <f t="shared" si="9"/>
+        <v>6.4453125E-2</v>
+      </c>
+      <c r="Y14" s="1">
+        <f t="shared" si="10"/>
+        <v>1.3671875E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <v>52.073013305663999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>52.073196411132798</v>
+      </c>
+      <c r="D15" s="1">
+        <v>52.073196411132798</v>
+      </c>
+      <c r="E15" s="1">
+        <v>52.073196411132798</v>
+      </c>
+      <c r="F15" s="1">
+        <v>52.073196411132798</v>
+      </c>
+      <c r="G15" s="1">
+        <v>52.073196411132798</v>
+      </c>
+      <c r="H15" s="1">
+        <v>52.073196411132798</v>
+      </c>
+      <c r="I15" s="1">
+        <v>52.073196411132798</v>
+      </c>
+      <c r="J15" s="1">
+        <v>52.073196411132798</v>
+      </c>
+      <c r="K15" s="1">
+        <v>52.073196411132798</v>
+      </c>
+      <c r="L15" s="1">
+        <v>52.073196411132798</v>
+      </c>
+      <c r="M15" s="1">
+        <v>52.073196411132798</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8310546879973799E-4</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-69.6875</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-70.33203125</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-67.625</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-68.48046875</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-68.568359375</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-67.0703125</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-68.740234375</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-68.552734375</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-68.0234375</v>
+      </c>
+      <c r="K16" s="1">
+        <v>-68.90234375</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-68.4921875</v>
+      </c>
+      <c r="M16" s="1">
+        <v>-68.306640625</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.64453125</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="1"/>
+        <v>2.70703125</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.85546875</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="3"/>
+        <v>-8.7890625E-2</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="4"/>
+        <v>1.498046875</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.669921875</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" si="6"/>
+        <v>0.1875</v>
+      </c>
+      <c r="V16" s="1">
+        <f t="shared" si="7"/>
+        <v>0.529296875</v>
+      </c>
+      <c r="W16" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.87890625</v>
+      </c>
+      <c r="X16" s="1">
+        <f t="shared" si="9"/>
+        <v>0.41015625</v>
+      </c>
+      <c r="Y16" s="1">
+        <f t="shared" si="10"/>
+        <v>0.185546875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <v>231.359451293945</v>
+      </c>
+      <c r="C17" s="1">
+        <v>231.351303100585</v>
+      </c>
+      <c r="D17" s="1">
+        <v>231.14703369140599</v>
+      </c>
+      <c r="E17" s="1">
+        <v>231.13835144042901</v>
+      </c>
+      <c r="F17" s="1">
+        <v>231.13835144042901</v>
+      </c>
+      <c r="G17" s="1">
+        <v>231.138259887695</v>
+      </c>
+      <c r="H17" s="1">
+        <v>231.12541198730401</v>
+      </c>
+      <c r="I17" s="1">
+        <v>231.12921142578099</v>
+      </c>
+      <c r="J17" s="1">
+        <v>231.12945556640599</v>
+      </c>
+      <c r="K17" s="1">
+        <v>231.12551879882801</v>
+      </c>
+      <c r="L17" s="1">
+        <v>231.12983703613199</v>
+      </c>
+      <c r="M17" s="1">
+        <v>231.129470825195</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.1481933600002776E-3</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.20426940917900538</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="2"/>
+        <v>-8.6822509769888256E-3</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="4"/>
+        <v>-9.1552734005517777E-5</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.2847900390994482E-2</v>
+      </c>
+      <c r="U17" s="1">
+        <f t="shared" si="6"/>
+        <v>3.7994384769888256E-3</v>
+      </c>
+      <c r="V17" s="1">
+        <f t="shared" si="7"/>
+        <v>2.44140625E-4</v>
+      </c>
+      <c r="W17" s="1">
+        <f t="shared" si="8"/>
+        <v>-3.9367675779828915E-3</v>
+      </c>
+      <c r="X17" s="1">
+        <f t="shared" si="9"/>
+        <v>4.3182373039769573E-3</v>
+      </c>
+      <c r="Y17" s="1">
+        <f t="shared" si="10"/>
+        <v>-3.6621093698840923E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
+        <v>6.759765625</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6.703125</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6.767578125</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6.765625</v>
+      </c>
+      <c r="F18" s="1">
+        <v>6.763671875</v>
+      </c>
+      <c r="G18" s="1">
+        <v>6.763671875</v>
+      </c>
+      <c r="H18" s="1">
+        <v>6.765625</v>
+      </c>
+      <c r="I18" s="1">
+        <v>6.763671875</v>
+      </c>
+      <c r="J18" s="1">
+        <v>6.763671875</v>
+      </c>
+      <c r="K18" s="1">
+        <v>6.767578125</v>
+      </c>
+      <c r="L18" s="1">
+        <v>6.765625</v>
+      </c>
+      <c r="M18" s="1">
+        <v>6.765625</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.6640625E-2</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="1"/>
+        <v>6.4453125E-2</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="5"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="V18" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <f t="shared" si="8"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="X18" s="1">
+        <f t="shared" si="9"/>
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="Y18" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43.890625</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43.94921875</v>
+      </c>
+      <c r="D19" s="1">
+        <v>43.951171875</v>
+      </c>
+      <c r="E19" s="1">
+        <v>43.9541015625</v>
+      </c>
+      <c r="F19" s="1">
+        <v>43.947265625</v>
+      </c>
+      <c r="G19" s="1">
+        <v>43.947265625</v>
+      </c>
+      <c r="H19" s="1">
+        <v>43.9462890625</v>
+      </c>
+      <c r="I19" s="1">
+        <v>43.951171875</v>
+      </c>
+      <c r="J19" s="1">
+        <v>43.9501953125</v>
+      </c>
+      <c r="K19" s="1">
+        <v>43.94921875</v>
+      </c>
+      <c r="L19" s="1">
+        <v>43.951171875</v>
+      </c>
+      <c r="M19" s="1">
+        <v>43.94921875</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="0"/>
+        <v>5.859375E-2</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="1"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9296875E-3</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="3"/>
+        <v>-6.8359375E-3</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="5"/>
+        <v>-9.765625E-4</v>
+      </c>
+      <c r="U19" s="1">
+        <f t="shared" si="6"/>
+        <v>4.8828125E-3</v>
+      </c>
+      <c r="V19" s="1">
+        <f t="shared" si="7"/>
+        <v>-9.765625E-4</v>
+      </c>
+      <c r="W19" s="1">
+        <f t="shared" si="8"/>
+        <v>-9.765625E-4</v>
+      </c>
+      <c r="X19" s="1">
+        <f t="shared" si="9"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Y19" s="1">
+        <f t="shared" si="10"/>
+        <v>-1.953125E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
+        <v>247.334548950195</v>
+      </c>
+      <c r="C20" s="1">
+        <v>247.33106994628901</v>
+      </c>
+      <c r="D20" s="1">
+        <v>247.33078002929599</v>
+      </c>
+      <c r="E20" s="1">
+        <v>247.33078002929599</v>
+      </c>
+      <c r="F20" s="1">
+        <v>247.33074951171801</v>
+      </c>
+      <c r="G20" s="1">
+        <v>247.33074951171801</v>
+      </c>
+      <c r="H20" s="1">
+        <v>247.33074951171801</v>
+      </c>
+      <c r="I20" s="1">
+        <v>247.33074951171801</v>
+      </c>
+      <c r="J20" s="1">
+        <v>247.33074951171801</v>
+      </c>
+      <c r="K20" s="1">
+        <v>247.33074951171801</v>
+      </c>
+      <c r="L20" s="1">
+        <v>247.33074951171801</v>
+      </c>
+      <c r="M20" s="1">
+        <v>247.33074951171801</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.4790039059942046E-3</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.8991699301172957E-4</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="3"/>
+        <v>-3.0517577982891453E-5</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1">
+        <v>179.873046875</v>
+      </c>
+      <c r="C21" s="1">
+        <v>180.650390625</v>
+      </c>
+      <c r="D21" s="1">
+        <v>180.115234375</v>
+      </c>
+      <c r="E21" s="1">
+        <v>180.115234375</v>
+      </c>
+      <c r="F21" s="1">
+        <v>180.166015625</v>
+      </c>
+      <c r="G21" s="1">
+        <v>180.115234375</v>
+      </c>
+      <c r="H21" s="1">
+        <v>180.125</v>
+      </c>
+      <c r="I21" s="1">
+        <v>180.142578125</v>
+      </c>
+      <c r="J21" s="1">
+        <v>180.11328125</v>
+      </c>
+      <c r="K21" s="1">
+        <v>180.126953125</v>
+      </c>
+      <c r="L21" s="1">
+        <v>180.130859375</v>
+      </c>
+      <c r="M21" s="1">
+        <v>180.119140625</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77734375</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.53515625</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="3"/>
+        <v>5.078125E-2</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="4"/>
+        <v>-5.078125E-2</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="5"/>
+        <v>9.765625E-3</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="6"/>
+        <v>1.7578125E-2</v>
+      </c>
+      <c r="V21" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.9296875E-2</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="8"/>
+        <v>1.3671875E-2</v>
+      </c>
+      <c r="X21" s="1">
+        <f t="shared" si="9"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="Y21" s="1">
+        <f t="shared" si="10"/>
+        <v>-1.171875E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1">
+        <v>716.97200693359605</v>
+      </c>
+      <c r="C22" s="1">
+        <v>717.09059824219003</v>
+      </c>
+      <c r="D22" s="1">
+        <v>717.18544687500196</v>
+      </c>
+      <c r="E22" s="1">
+        <v>717.12306894531503</v>
+      </c>
+      <c r="F22" s="1">
+        <v>717.09700693359605</v>
+      </c>
+      <c r="G22" s="1">
+        <v>717.09432138672105</v>
+      </c>
+      <c r="H22" s="1">
+        <v>717.09407724609605</v>
+      </c>
+      <c r="I22" s="1">
+        <v>717.08992685547105</v>
+      </c>
+      <c r="J22" s="1">
+        <v>717.08669199219003</v>
+      </c>
+      <c r="K22" s="1">
+        <v>717.08699716797105</v>
+      </c>
+      <c r="L22" s="1">
+        <v>717.08608164062696</v>
+      </c>
+      <c r="M22" s="1">
+        <v>717.08620371094003</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11859130859397737</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="1"/>
+        <v>9.4848632811931566E-2</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="2"/>
+        <v>-6.2377929686931566E-2</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.6062011718977374E-2</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.685546875E-3</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.44140625E-4</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" si="6"/>
+        <v>-4.150390625E-3</v>
+      </c>
+      <c r="V22" s="1">
+        <f t="shared" si="7"/>
+        <v>-3.2348632810226263E-3</v>
+      </c>
+      <c r="W22" s="1">
+        <f t="shared" si="8"/>
+        <v>3.0517578102262632E-4</v>
+      </c>
+      <c r="X22" s="1">
+        <f t="shared" si="9"/>
+        <v>-9.1552734409106051E-4</v>
+      </c>
+      <c r="Y22" s="1">
+        <f t="shared" si="10"/>
+        <v>1.2207031306843419E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1">
+        <v>-487.80561828613202</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-482.24689483642499</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-481.53584289550702</v>
+      </c>
+      <c r="E23" s="1">
+        <v>-481.39220046997002</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-481.47832870483398</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-481.47529602050702</v>
+      </c>
+      <c r="H23" s="1">
+        <v>-481.475444793701</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-481.47549057006802</v>
+      </c>
+      <c r="J23" s="1">
+        <v>-481.47548675537098</v>
+      </c>
+      <c r="K23" s="1">
+        <v>-481.47550964355401</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-481.47549057006802</v>
+      </c>
+      <c r="M23" s="1">
+        <v>-481.47546005249001</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5587234497070313</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.71105194091796875</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14364242553699569</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="3"/>
+        <v>-8.6128234863963371E-2</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0326843269676829E-3</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.4877319398465261E-4</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="6"/>
+        <v>-4.5776367016969743E-5</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" si="7"/>
+        <v>3.8146970382513246E-6</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" si="8"/>
+        <v>-2.2888183025315811E-5</v>
+      </c>
+      <c r="X23" s="1">
+        <f t="shared" si="9"/>
+        <v>1.9073485987064487E-5</v>
+      </c>
+      <c r="Y23" s="1">
+        <f t="shared" si="10"/>
+        <v>3.0517578011313162E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1">
+        <v>506.08984375</v>
+      </c>
+      <c r="C24" s="1">
+        <v>505.953125</v>
+      </c>
+      <c r="D24" s="1">
+        <v>506.087890625</v>
+      </c>
+      <c r="E24" s="1">
+        <v>506.029296875</v>
+      </c>
+      <c r="F24" s="1">
+        <v>506.02734375</v>
+      </c>
+      <c r="G24" s="1">
+        <v>506.095703125</v>
+      </c>
+      <c r="H24" s="1">
+        <v>506.037109375</v>
+      </c>
+      <c r="I24" s="1">
+        <v>506.029296875</v>
+      </c>
+      <c r="J24" s="1">
+        <v>506.0546875</v>
+      </c>
+      <c r="K24" s="1">
+        <v>506.0234375</v>
+      </c>
+      <c r="L24" s="1">
+        <v>506.03125</v>
+      </c>
+      <c r="M24" s="1">
+        <v>506.044921875</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.13671875</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.134765625</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="2"/>
+        <v>-5.859375E-2</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="4"/>
+        <v>6.8359375E-2</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="5"/>
+        <v>-5.859375E-2</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="6"/>
+        <v>-7.8125E-3</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" si="7"/>
+        <v>2.5390625E-2</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" si="8"/>
+        <v>-3.125E-2</v>
+      </c>
+      <c r="X24" s="1">
+        <f t="shared" si="9"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="Y24" s="1">
+        <f t="shared" si="10"/>
+        <v>1.3671875E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1">
+        <v>-217.7353515625</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-217.7314453125</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-217.7275390625</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-217.73046875</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-217.7314453125</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-217.7314453125</v>
+      </c>
+      <c r="H25" s="1">
+        <v>-217.7314453125</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-217.7314453125</v>
+      </c>
+      <c r="J25" s="1">
+        <v>-217.7314453125</v>
+      </c>
+      <c r="K25" s="1">
+        <v>-217.7314453125</v>
+      </c>
+      <c r="L25" s="1">
+        <v>-217.7314453125</v>
+      </c>
+      <c r="M25" s="1">
+        <v>-217.7314453125</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="0"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="1"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="2"/>
+        <v>-2.9296875E-3</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="3"/>
+        <v>-9.765625E-4</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1">
+        <v>808.623046875</v>
+      </c>
+      <c r="C26" s="1">
+        <v>807.08203125</v>
+      </c>
+      <c r="D26" s="1">
+        <v>809.6552734375</v>
+      </c>
+      <c r="E26" s="1">
+        <v>809.318359375</v>
+      </c>
+      <c r="F26" s="1">
+        <v>809.22265625</v>
+      </c>
+      <c r="G26" s="1">
+        <v>809.22265625</v>
+      </c>
+      <c r="H26" s="1">
+        <v>809.3193359375</v>
+      </c>
+      <c r="I26" s="1">
+        <v>809.2373046875</v>
+      </c>
+      <c r="J26" s="1">
+        <v>809.2255859375</v>
+      </c>
+      <c r="K26" s="1">
+        <v>809.2607421875</v>
+      </c>
+      <c r="L26" s="1">
+        <v>809.2119140625</v>
+      </c>
+      <c r="M26" s="1">
+        <v>809.2255859375</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.541015625</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5732421875</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.3369140625</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="3"/>
+        <v>-9.5703125E-2</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="5"/>
+        <v>9.66796875E-2</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" si="6"/>
+        <v>-8.203125E-2</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.171875E-2</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" si="8"/>
+        <v>3.515625E-2</v>
+      </c>
+      <c r="X26" s="1">
+        <f t="shared" si="9"/>
+        <v>-4.8828125E-2</v>
+      </c>
+      <c r="Y26" s="1">
+        <f t="shared" si="10"/>
+        <v>1.3671875E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1">
+        <f t="shared" ref="X27:X55" si="11">L27-K27</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1">
+        <f t="shared" ref="Y27:Y55" si="12">M27-L27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1408.1301652490999</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1408.0657121240999</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1408.0403214990999</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1408.0129777490999</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1408.0383683740999</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1408.0344621240999</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1408.0266496240999</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1408.0383683740999</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1408.0344621240999</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1408.0286027490999</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1408.0344621240999</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1408.0305558740999</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" ref="O28:W31" si="13">C28-B28</f>
+        <v>-6.4453125E-2</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="13"/>
+        <v>-2.5390625E-2</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="13"/>
+        <v>-2.734375E-2</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="13"/>
+        <v>2.5390625E-2</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="13"/>
+        <v>-3.90625E-3</v>
+      </c>
+      <c r="T28" s="1">
+        <f t="shared" si="13"/>
+        <v>-7.8125E-3</v>
+      </c>
+      <c r="U28" s="1">
+        <f t="shared" si="13"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="V28" s="1">
+        <f t="shared" si="13"/>
+        <v>-3.90625E-3</v>
+      </c>
+      <c r="W28" s="1">
+        <f t="shared" si="13"/>
+        <v>-5.859375E-3</v>
+      </c>
+      <c r="X28" s="1">
+        <f t="shared" si="11"/>
+        <v>5.859375E-3</v>
+      </c>
+      <c r="Y28" s="1">
+        <f t="shared" si="12"/>
+        <v>-3.90625E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1">
+        <v>-300.20054233074097</v>
+      </c>
+      <c r="C29" s="1">
+        <v>-300.20579135417898</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-300.06650912761597</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-300.160167574882</v>
+      </c>
+      <c r="F29" s="1">
+        <v>-300.07401645183501</v>
+      </c>
+      <c r="G29" s="1">
+        <v>-300.07706820964802</v>
+      </c>
+      <c r="H29" s="1">
+        <v>-300.076915621757</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-300.07685458660097</v>
+      </c>
+      <c r="J29" s="1">
+        <v>-300.07685458660097</v>
+      </c>
+      <c r="K29" s="1">
+        <v>-300.07682406902302</v>
+      </c>
+      <c r="L29" s="1">
+        <v>-300.07685458660097</v>
+      </c>
+      <c r="M29" s="1">
+        <v>-300.07688510417898</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="13"/>
+        <v>-5.2490234380115908E-3</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="13"/>
+        <v>0.13928222656301159</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="13"/>
+        <v>-9.3658447266022904E-2</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="13"/>
+        <v>8.6151123046988687E-2</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="13"/>
+        <v>-3.0517578130115908E-3</v>
+      </c>
+      <c r="T29" s="1">
+        <f t="shared" si="13"/>
+        <v>1.5258789102290393E-4</v>
+      </c>
+      <c r="U29" s="1">
+        <f t="shared" si="13"/>
+        <v>6.1035156022626325E-5</v>
+      </c>
+      <c r="V29" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="1">
+        <f t="shared" si="13"/>
+        <v>3.0517577954469743E-5</v>
+      </c>
+      <c r="X29" s="1">
+        <f t="shared" si="11"/>
+        <v>-3.0517577954469743E-5</v>
+      </c>
+      <c r="Y29" s="1">
+        <f t="shared" si="12"/>
+        <v>-3.0517578011313162E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1">
+        <v>125991.71875</v>
+      </c>
+      <c r="C30" s="1">
+        <v>126083.7265625</v>
+      </c>
+      <c r="D30" s="1">
+        <v>126087.765625</v>
+      </c>
+      <c r="E30" s="1">
+        <v>126093.8828125</v>
+      </c>
+      <c r="F30" s="1">
+        <v>126092.0234375</v>
+      </c>
+      <c r="G30" s="1">
+        <v>126091.921875</v>
+      </c>
+      <c r="H30" s="1">
+        <v>126093.796875</v>
+      </c>
+      <c r="I30" s="1">
+        <v>126091.7265625</v>
+      </c>
+      <c r="J30" s="1">
+        <v>126091.921875</v>
+      </c>
+      <c r="K30" s="1">
+        <v>126092.609375</v>
+      </c>
+      <c r="L30" s="1">
+        <v>126091.5234375</v>
+      </c>
+      <c r="M30" s="1">
+        <v>126092.015625</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="13"/>
+        <v>92.0078125</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="13"/>
+        <v>4.0390625</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="13"/>
+        <v>6.1171875</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="13"/>
+        <v>-1.859375</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="13"/>
+        <v>-0.1015625</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" si="13"/>
+        <v>1.875</v>
+      </c>
+      <c r="U30" s="1">
+        <f t="shared" si="13"/>
+        <v>-2.0703125</v>
+      </c>
+      <c r="V30" s="1">
+        <f t="shared" si="13"/>
+        <v>0.1953125</v>
+      </c>
+      <c r="W30" s="1">
+        <f t="shared" si="13"/>
+        <v>0.6875</v>
+      </c>
+      <c r="X30" s="1">
+        <f t="shared" si="11"/>
+        <v>-1.0859375</v>
+      </c>
+      <c r="Y30" s="1">
+        <f t="shared" si="12"/>
+        <v>0.4921875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3519091.25</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3519005.5</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3519000.75</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3519000</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3519000</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3519000</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3519000</v>
+      </c>
+      <c r="I31" s="1">
+        <v>3519000</v>
+      </c>
+      <c r="J31" s="1">
+        <v>3519000</v>
+      </c>
+      <c r="K31" s="1">
+        <v>3519000</v>
+      </c>
+      <c r="L31" s="1">
+        <v>3519000</v>
+      </c>
+      <c r="M31" s="1">
+        <v>3519000</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="13"/>
+        <v>-85.75</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="13"/>
+        <v>-4.75</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="13"/>
+        <v>-0.75</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X31" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" ref="O33:O55" si="14">C33-B33</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" ref="P33:P55" si="15">D33-C33</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" ref="Q33:Q55" si="16">E33-D33</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" ref="R33:R55" si="17">F33-E33</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" ref="S33:S55" si="18">G33-F33</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <f t="shared" ref="T33:T55" si="19">H33-G33</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="1">
+        <f t="shared" ref="U33:U55" si="20">I33-H33</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <f t="shared" ref="V33:V55" si="21">J33-I33</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="1">
+        <f t="shared" ref="W33:W55" si="22">K33-J33</f>
+        <v>0</v>
+      </c>
+      <c r="X33" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X34" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X36" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X37" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X39" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X40" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X41" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W42" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X42" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W43" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X43" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V44" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W44" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X44" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W45" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X45" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V46" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W46" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X46" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V47" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W47" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X47" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y47" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V48" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W48" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X48" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V49" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W49" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X49" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="1">
+        <v>20280.5</v>
+      </c>
+      <c r="C50" s="1">
+        <v>20187.7</v>
+      </c>
+      <c r="D50" s="1">
+        <v>20183.599999999999</v>
+      </c>
+      <c r="E50" s="1">
+        <v>20177.3999999999</v>
+      </c>
+      <c r="F50" s="1">
+        <v>20179.3</v>
+      </c>
+      <c r="G50" s="1">
+        <v>20179.400000000001</v>
+      </c>
+      <c r="H50" s="1">
+        <v>20177.5</v>
+      </c>
+      <c r="I50" s="1">
+        <v>20179.599999999999</v>
+      </c>
+      <c r="J50" s="1">
+        <v>20179.400000000001</v>
+      </c>
+      <c r="K50" s="1">
+        <v>20178.7</v>
+      </c>
+      <c r="L50" s="1">
+        <v>20179.8</v>
+      </c>
+      <c r="M50" s="1">
+        <v>20179.3</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="14"/>
+        <v>-92.799999999999272</v>
+      </c>
+      <c r="P50" s="1">
+        <f t="shared" si="15"/>
+        <v>-4.1000000000021828</v>
+      </c>
+      <c r="Q50" s="1">
+        <f t="shared" si="16"/>
+        <v>-6.200000000098953</v>
+      </c>
+      <c r="R50" s="1">
+        <f t="shared" si="17"/>
+        <v>1.9000000000996806</v>
+      </c>
+      <c r="S50" s="1">
+        <f t="shared" si="18"/>
+        <v>0.10000000000218279</v>
+      </c>
+      <c r="T50" s="1">
+        <f t="shared" si="19"/>
+        <v>-1.9000000000014552</v>
+      </c>
+      <c r="U50" s="1">
+        <f t="shared" si="20"/>
+        <v>2.0999999999985448</v>
+      </c>
+      <c r="V50" s="1">
+        <f t="shared" si="21"/>
+        <v>-0.19999999999708962</v>
+      </c>
+      <c r="W50" s="1">
+        <f t="shared" si="22"/>
+        <v>-0.7000000000007276</v>
+      </c>
+      <c r="X50" s="1">
+        <f t="shared" si="11"/>
+        <v>1.0999999999985448</v>
+      </c>
+      <c r="Y50" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="C51" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="H51" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="I51" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="J51" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="K51" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L51" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="M51" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U51" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V51" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W51" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X51" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="1">
+        <v>632</v>
+      </c>
+      <c r="C52" s="1">
+        <v>540.69999999999902</v>
+      </c>
+      <c r="D52" s="1">
+        <v>535.1</v>
+      </c>
+      <c r="E52" s="1">
+        <v>534.29999999999995</v>
+      </c>
+      <c r="F52" s="1">
+        <v>534.29999999999995</v>
+      </c>
+      <c r="G52" s="1">
+        <v>534.29999999999995</v>
+      </c>
+      <c r="H52" s="1">
+        <v>534.29999999999995</v>
+      </c>
+      <c r="I52" s="1">
+        <v>534.29999999999995</v>
+      </c>
+      <c r="J52" s="1">
+        <v>534.29999999999995</v>
+      </c>
+      <c r="K52" s="1">
+        <v>534.29999999999995</v>
+      </c>
+      <c r="L52" s="1">
+        <v>534.29999999999995</v>
+      </c>
+      <c r="M52" s="1">
+        <v>534.29999999999995</v>
+      </c>
+      <c r="O52" s="1">
+        <f t="shared" si="14"/>
+        <v>-91.300000000000978</v>
+      </c>
+      <c r="P52" s="1">
+        <f t="shared" si="15"/>
+        <v>-5.5999999999989996</v>
+      </c>
+      <c r="Q52" s="1">
+        <f t="shared" si="16"/>
+        <v>-0.80000000000006821</v>
+      </c>
+      <c r="R52" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U52" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V52" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W52" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X52" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S53" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T53" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V53" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W53" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X53" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="1">
+        <v>12217.7</v>
+      </c>
+      <c r="C54" s="1">
+        <v>12217.7</v>
+      </c>
+      <c r="D54" s="1">
+        <v>12217.7</v>
+      </c>
+      <c r="E54" s="1">
+        <v>12217.7</v>
+      </c>
+      <c r="F54" s="1">
+        <v>12217.7</v>
+      </c>
+      <c r="G54" s="1">
+        <v>12217.7</v>
+      </c>
+      <c r="H54" s="1">
+        <v>12217.7</v>
+      </c>
+      <c r="I54" s="1">
+        <v>12217.7</v>
+      </c>
+      <c r="J54" s="1">
+        <v>12217.7</v>
+      </c>
+      <c r="K54" s="1">
+        <v>12217.7</v>
+      </c>
+      <c r="L54" s="1">
+        <v>12217.7</v>
+      </c>
+      <c r="M54" s="1">
+        <v>12217.7</v>
+      </c>
+      <c r="O54" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U54" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V54" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W54" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X54" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y54" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S55" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T55" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U55" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V55" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W55" s="1">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X55" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y55" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:K1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="O4:Y55">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="25.68359375" customWidth="1"/>
+    <col min="2" max="11" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.20703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>245.211502075195</v>
+      </c>
+      <c r="C4" s="1">
+        <v>245.211502075195</v>
+      </c>
+      <c r="D4" s="1">
+        <v>245.211502075195</v>
+      </c>
+      <c r="E4" s="1">
+        <v>245.211502075195</v>
+      </c>
+      <c r="F4" s="1">
+        <v>245.211502075195</v>
+      </c>
+      <c r="G4" s="1">
+        <v>245.211502075195</v>
+      </c>
+      <c r="H4" s="1">
+        <v>245.211502075195</v>
+      </c>
+      <c r="I4" s="1">
+        <v>245.211502075195</v>
+      </c>
+      <c r="J4" s="1">
+        <v>245.211502075195</v>
+      </c>
+      <c r="K4" s="1">
+        <v>245.211502075195</v>
+      </c>
+      <c r="M4" s="1">
+        <f>B4-C4</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <f>C4-D4</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <f>D4-E4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <f>E4-F4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>F4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <f>G4-H4</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <f>H4-I4</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <f>I4-J4</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <f>J4-K4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>56.372688293457003</v>
+      </c>
+      <c r="C5" s="1">
+        <v>56.372688293457003</v>
+      </c>
+      <c r="D5" s="1">
+        <v>56.372688293457003</v>
+      </c>
+      <c r="E5" s="1">
+        <v>56.372688293457003</v>
+      </c>
+      <c r="F5" s="1">
+        <v>56.372688293457003</v>
+      </c>
+      <c r="G5" s="1">
+        <v>56.372688293457003</v>
+      </c>
+      <c r="H5" s="1">
+        <v>56.372688293457003</v>
+      </c>
+      <c r="I5" s="1">
+        <v>56.372688293457003</v>
+      </c>
+      <c r="J5" s="1">
+        <v>56.372688293457003</v>
+      </c>
+      <c r="K5" s="1">
+        <v>56.372688293457003</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" ref="M5:M58" si="0">B5-C5</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <f>C5-D5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <f>D5-E5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <f>E5-F5</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>F5-G5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <f>G5-H5</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <f>H5-I5</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <f>I5-J5</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <f>J5-K5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-60.474594116210902</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-60.484420776367102</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-60.486740112304602</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-60.471694946288999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-60.454498291015597</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-60.450469970703097</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-60.450393676757798</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-60.450393676757798</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-60.450347900390597</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-60.450332641601499</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="0"/>
+        <v>9.826660156200262E-3</v>
+      </c>
+      <c r="N6" s="1">
+        <f>C6-D6</f>
+        <v>2.3193359375E-3</v>
+      </c>
+      <c r="O6" s="1">
+        <f>D6-E6</f>
+        <v>-1.5045166015603684E-2</v>
+      </c>
+      <c r="P6" s="1">
+        <f>E6-F6</f>
+        <v>-1.7196655273401973E-2</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>F6-G6</f>
+        <v>-4.0283203125E-3</v>
+      </c>
+      <c r="R6" s="1">
+        <f>G6-H6</f>
+        <v>-7.6293945298289145E-5</v>
+      </c>
+      <c r="S6" s="1">
+        <f>H6-I6</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <f>I6-J6</f>
+        <v>-4.5776367201710855E-5</v>
+      </c>
+      <c r="U6" s="1">
+        <f>J6-K6</f>
+        <v>-1.5258789098027137E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>383.51696777343699</v>
+      </c>
+      <c r="C7" s="1">
+        <v>383.51681518554602</v>
+      </c>
+      <c r="D7" s="1">
+        <v>383.51678466796801</v>
+      </c>
+      <c r="E7" s="1">
+        <v>383.55593872070301</v>
+      </c>
+      <c r="F7" s="1">
+        <v>383.55407714843699</v>
+      </c>
+      <c r="G7" s="1">
+        <v>383.55377197265602</v>
+      </c>
+      <c r="H7" s="1">
+        <v>383.55377197265602</v>
+      </c>
+      <c r="I7" s="1">
+        <v>383.55389404296801</v>
+      </c>
+      <c r="J7" s="1">
+        <v>383.55389404296801</v>
+      </c>
+      <c r="K7" s="1">
+        <v>383.55389404296801</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5258789096606051E-4</v>
+      </c>
+      <c r="N7" s="1">
+        <f>C7-D7</f>
+        <v>3.0517578011313162E-5</v>
+      </c>
+      <c r="O7" s="1">
+        <f>D7-E7</f>
+        <v>-3.9154052735000278E-2</v>
+      </c>
+      <c r="P7" s="1">
+        <f>E7-F7</f>
+        <v>1.8615722660229039E-3</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>F7-G7</f>
+        <v>3.0517578096578291E-4</v>
+      </c>
+      <c r="R7" s="1">
+        <f>G7-H7</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <f>H7-I7</f>
+        <v>-1.2207031198840923E-4</v>
+      </c>
+      <c r="T7" s="1">
+        <f>I7-J7</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <f>J7-K7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6.6650390625E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6.6650390625E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6.6650390625E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6.6650390625E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6.6650390625E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6.6650390625E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6.6650390625E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>6.6650390625E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>6.6650390625E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>6.6650390625E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <f>C8-D8</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <f>D8-E8</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <f>E8-F8</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>F8-G8</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <f>G8-H8</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <f>H8-I8</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <f>I8-J8</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <f>J8-K8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>918.83984375</v>
+      </c>
+      <c r="C9" s="1">
+        <v>918.837890625</v>
+      </c>
+      <c r="D9" s="1">
+        <v>918.8359375</v>
+      </c>
+      <c r="E9" s="1">
+        <v>918.767578125</v>
+      </c>
+      <c r="F9" s="1">
+        <v>918.703125</v>
+      </c>
+      <c r="G9" s="1">
+        <v>918.69140625</v>
+      </c>
+      <c r="H9" s="1">
+        <v>918.69140625</v>
+      </c>
+      <c r="I9" s="1">
+        <v>918.69140625</v>
+      </c>
+      <c r="J9" s="1">
+        <v>918.69140625</v>
+      </c>
+      <c r="K9" s="1">
+        <v>918.69140625</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="N9" s="1">
+        <f>C9-D9</f>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O9" s="1">
+        <f>D9-E9</f>
+        <v>6.8359375E-2</v>
+      </c>
+      <c r="P9" s="1">
+        <f>E9-F9</f>
+        <v>6.4453125E-2</v>
+      </c>
+      <c r="Q9" s="1">
+        <f>F9-G9</f>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="R9" s="1">
+        <f>G9-H9</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <f>H9-I9</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <f>I9-J9</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <f>J9-K9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>163.20062255859301</v>
+      </c>
+      <c r="C10" s="1">
+        <v>163.20062255859301</v>
+      </c>
+      <c r="D10" s="1">
+        <v>163.20062255859301</v>
+      </c>
+      <c r="E10" s="1">
+        <v>163.20062255859301</v>
+      </c>
+      <c r="F10" s="1">
+        <v>163.20062255859301</v>
+      </c>
+      <c r="G10" s="1">
+        <v>163.20062255859301</v>
+      </c>
+      <c r="H10" s="1">
+        <v>163.20062255859301</v>
+      </c>
+      <c r="I10" s="1">
+        <v>163.20062255859301</v>
+      </c>
+      <c r="J10" s="1">
+        <v>163.20062255859301</v>
+      </c>
+      <c r="K10" s="1">
+        <v>163.20062255859301</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <f>C10-D10</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <f>D10-E10</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <f>E10-F10</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>F10-G10</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <f>G10-H10</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <f>H10-I10</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <f>I10-J10</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <f>J10-K10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>68.350807189941406</v>
+      </c>
+      <c r="C11" s="1">
+        <v>68.350807189941406</v>
+      </c>
+      <c r="D11" s="1">
+        <v>68.350799560546804</v>
+      </c>
+      <c r="E11" s="1">
+        <v>68.388168334960895</v>
+      </c>
+      <c r="F11" s="1">
+        <v>68.386856079101506</v>
+      </c>
+      <c r="G11" s="1">
+        <v>68.386756896972599</v>
+      </c>
+      <c r="H11" s="1">
+        <v>68.386825561523395</v>
+      </c>
+      <c r="I11" s="1">
+        <v>68.386871337890597</v>
+      </c>
+      <c r="J11" s="1">
+        <v>68.386863708496094</v>
+      </c>
+      <c r="K11" s="1">
+        <v>68.386863708496094</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <f>C11-D11</f>
+        <v>7.6293946023042736E-6</v>
+      </c>
+      <c r="O11" s="1">
+        <f>D11-E11</f>
+        <v>-3.7368774414090922E-2</v>
+      </c>
+      <c r="P11" s="1">
+        <f>E11-F11</f>
+        <v>1.3122558593892109E-3</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>F11-G11</f>
+        <v>9.918212890625E-5</v>
+      </c>
+      <c r="R11" s="1">
+        <f>G11-H11</f>
+        <v>-6.8664550795460855E-5</v>
+      </c>
+      <c r="S11" s="1">
+        <f>H11-I11</f>
+        <v>-4.5776367201710855E-5</v>
+      </c>
+      <c r="T11" s="1">
+        <f>I11-J11</f>
+        <v>7.6293945028282906E-6</v>
+      </c>
+      <c r="U11" s="1">
+        <f>J11-K11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>633.57855224609295</v>
+      </c>
+      <c r="C12" s="1">
+        <v>633.57855224609295</v>
+      </c>
+      <c r="D12" s="1">
+        <v>633.57855224609295</v>
+      </c>
+      <c r="E12" s="1">
+        <v>633.57855224609295</v>
+      </c>
+      <c r="F12" s="1">
+        <v>633.57855224609295</v>
+      </c>
+      <c r="G12" s="1">
+        <v>633.57855224609295</v>
+      </c>
+      <c r="H12" s="1">
+        <v>633.57855224609295</v>
+      </c>
+      <c r="I12" s="1">
+        <v>633.57855224609295</v>
+      </c>
+      <c r="J12" s="1">
+        <v>633.57855224609295</v>
+      </c>
+      <c r="K12" s="1">
+        <v>633.57855224609295</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <f>C12-D12</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <f>D12-E12</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <f>E12-F12</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <f>F12-G12</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <f>G12-H12</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <f>H12-I12</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <f>I12-J12</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <f>J12-K12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2008.63159179687</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2008.63159179687</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2008.63159179687</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2008.63159179687</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2008.63159179687</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2008.63159179687</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2008.63159179687</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2008.63159179687</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2008.63159179687</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2008.63159179687</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <f>C13-D13</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <f>D13-E13</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <f>E13-F13</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <f>F13-G13</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <f>G13-H13</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <f>H13-I13</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <f>I13-J13</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <f>J13-K13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <v>583.251953125</v>
+      </c>
+      <c r="C14" s="1">
+        <v>583.2421875</v>
+      </c>
+      <c r="D14" s="1">
+        <v>583.240234375</v>
+      </c>
+      <c r="E14" s="1">
+        <v>583.171875</v>
+      </c>
+      <c r="F14" s="1">
+        <v>583.146484375</v>
+      </c>
+      <c r="G14" s="1">
+        <v>583.13671875</v>
+      </c>
+      <c r="H14" s="1">
+        <v>583.134765625</v>
+      </c>
+      <c r="I14" s="1">
+        <v>583.13671875</v>
+      </c>
+      <c r="J14" s="1">
+        <v>583.13671875</v>
+      </c>
+      <c r="K14" s="1">
+        <v>583.13671875</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="0"/>
+        <v>9.765625E-3</v>
+      </c>
+      <c r="N14" s="1">
+        <f>C14-D14</f>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O14" s="1">
+        <f>D14-E14</f>
+        <v>6.8359375E-2</v>
+      </c>
+      <c r="P14" s="1">
+        <f>E14-F14</f>
+        <v>2.5390625E-2</v>
+      </c>
+      <c r="Q14" s="1">
+        <f>F14-G14</f>
+        <v>9.765625E-3</v>
+      </c>
+      <c r="R14" s="1">
+        <f>G14-H14</f>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S14" s="1">
+        <f>H14-I14</f>
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="T14" s="1">
+        <f>I14-J14</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <f>J14-K14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <v>52.073192596435497</v>
+      </c>
+      <c r="C15" s="1">
+        <v>52.073192596435497</v>
+      </c>
+      <c r="D15" s="1">
+        <v>52.073192596435497</v>
+      </c>
+      <c r="E15" s="1">
+        <v>52.073196411132798</v>
+      </c>
+      <c r="F15" s="1">
+        <v>52.073196411132798</v>
+      </c>
+      <c r="G15" s="1">
+        <v>52.073196411132798</v>
+      </c>
+      <c r="H15" s="1">
+        <v>52.073196411132798</v>
+      </c>
+      <c r="I15" s="1">
+        <v>52.073196411132798</v>
+      </c>
+      <c r="J15" s="1">
+        <v>52.073196411132798</v>
+      </c>
+      <c r="K15" s="1">
+        <v>52.073196411132798</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <f>C15-D15</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <f>D15-E15</f>
+        <v>-3.8146973011521368E-6</v>
+      </c>
+      <c r="P15" s="1">
+        <f>E15-F15</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>F15-G15</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <f>G15-H15</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <f>H15-I15</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <f>I15-J15</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <f>J15-K15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-50.80859375</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-51.376953125</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-51.509765625</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-53.42578125</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-52.3671875</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-52.40234375</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-52.435546875</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-52.4140625</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-52.412109375</v>
+      </c>
+      <c r="K16" s="1">
+        <v>-52.412109375</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.568359375</v>
+      </c>
+      <c r="N16" s="1">
+        <f>C16-D16</f>
+        <v>0.1328125</v>
+      </c>
+      <c r="O16" s="1">
+        <f>D16-E16</f>
+        <v>1.916015625</v>
+      </c>
+      <c r="P16" s="1">
+        <f>E16-F16</f>
+        <v>-1.05859375</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>F16-G16</f>
+        <v>3.515625E-2</v>
+      </c>
+      <c r="R16" s="1">
+        <f>G16-H16</f>
+        <v>3.3203125E-2</v>
+      </c>
+      <c r="S16" s="1">
+        <f>H16-I16</f>
+        <v>-2.1484375E-2</v>
+      </c>
+      <c r="T16" s="1">
+        <f>I16-J16</f>
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="U16" s="1">
+        <f>J16-K16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <v>228.99052429199199</v>
+      </c>
+      <c r="C17" s="1">
+        <v>228.98866271972599</v>
+      </c>
+      <c r="D17" s="1">
+        <v>228.98829650878901</v>
+      </c>
+      <c r="E17" s="1">
+        <v>229.06291198730401</v>
+      </c>
+      <c r="F17" s="1">
+        <v>229.06434631347599</v>
+      </c>
+      <c r="G17" s="1">
+        <v>229.063873291015</v>
+      </c>
+      <c r="H17" s="1">
+        <v>229.06384277343699</v>
+      </c>
+      <c r="I17" s="1">
+        <v>229.06405639648401</v>
+      </c>
+      <c r="J17" s="1">
+        <v>229.064041137695</v>
+      </c>
+      <c r="K17" s="1">
+        <v>229.06405639648401</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8615722659944822E-3</v>
+      </c>
+      <c r="N17" s="1">
+        <f>C17-D17</f>
+        <v>3.6621093698840923E-4</v>
+      </c>
+      <c r="O17" s="1">
+        <f>D17-E17</f>
+        <v>-7.4615478514999722E-2</v>
+      </c>
+      <c r="P17" s="1">
+        <f>E17-F17</f>
+        <v>-1.4343261719886868E-3</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>F17-G17</f>
+        <v>4.7302246099434342E-4</v>
+      </c>
+      <c r="R17" s="1">
+        <f>G17-H17</f>
+        <v>3.0517578011313162E-5</v>
+      </c>
+      <c r="S17" s="1">
+        <f>H17-I17</f>
+        <v>-2.1362304701710855E-4</v>
+      </c>
+      <c r="T17" s="1">
+        <f>I17-J17</f>
+        <v>1.5258789005656581E-5</v>
+      </c>
+      <c r="U17" s="1">
+        <f>J17-K17</f>
+        <v>-1.5258789005656581E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
+        <v>6.931640625</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6.927734375</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6.927734375</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6.91015625</v>
+      </c>
+      <c r="F18" s="1">
+        <v>6.912109375</v>
+      </c>
+      <c r="G18" s="1">
+        <v>6.9140625</v>
+      </c>
+      <c r="H18" s="1">
+        <v>6.912109375</v>
+      </c>
+      <c r="I18" s="1">
+        <v>6.912109375</v>
+      </c>
+      <c r="J18" s="1">
+        <v>6.912109375</v>
+      </c>
+      <c r="K18" s="1">
+        <v>6.912109375</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="0"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="N18" s="1">
+        <f>C18-D18</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <f>D18-E18</f>
+        <v>1.7578125E-2</v>
+      </c>
+      <c r="P18" s="1">
+        <f>E18-F18</f>
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="Q18" s="1">
+        <f>F18-G18</f>
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="R18" s="1">
+        <f>G18-H18</f>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S18" s="1">
+        <f>H18-I18</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <f>I18-J18</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <f>J18-K18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44.658203125</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44.6298828125</v>
+      </c>
+      <c r="D19" s="1">
+        <v>44.619140625</v>
+      </c>
+      <c r="E19" s="1">
+        <v>44.5771484375</v>
+      </c>
+      <c r="F19" s="1">
+        <v>44.55078125</v>
+      </c>
+      <c r="G19" s="1">
+        <v>44.5517578125</v>
+      </c>
+      <c r="H19" s="1">
+        <v>44.5556640625</v>
+      </c>
+      <c r="I19" s="1">
+        <v>44.5556640625</v>
+      </c>
+      <c r="J19" s="1">
+        <v>44.5556640625</v>
+      </c>
+      <c r="K19" s="1">
+        <v>44.5546875</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="0"/>
+        <v>2.83203125E-2</v>
+      </c>
+      <c r="N19" s="1">
+        <f>C19-D19</f>
+        <v>1.07421875E-2</v>
+      </c>
+      <c r="O19" s="1">
+        <f>D19-E19</f>
+        <v>4.19921875E-2</v>
+      </c>
+      <c r="P19" s="1">
+        <f>E19-F19</f>
+        <v>2.63671875E-2</v>
+      </c>
+      <c r="Q19" s="1">
+        <f>F19-G19</f>
+        <v>-9.765625E-4</v>
+      </c>
+      <c r="R19" s="1">
+        <f>G19-H19</f>
+        <v>-3.90625E-3</v>
+      </c>
+      <c r="S19" s="1">
+        <f>H19-I19</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <f>I19-J19</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <f>J19-K19</f>
+        <v>9.765625E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
+        <v>247.31144714355401</v>
+      </c>
+      <c r="C20" s="1">
+        <v>247.31144714355401</v>
+      </c>
+      <c r="D20" s="1">
+        <v>247.31388854980401</v>
+      </c>
+      <c r="E20" s="1">
+        <v>247.313705444335</v>
+      </c>
+      <c r="F20" s="1">
+        <v>247.31369018554599</v>
+      </c>
+      <c r="G20" s="1">
+        <v>247.31356811523401</v>
+      </c>
+      <c r="H20" s="1">
+        <v>247.31362915039</v>
+      </c>
+      <c r="I20" s="1">
+        <v>247.31362915039</v>
+      </c>
+      <c r="J20" s="1">
+        <v>247.31362915039</v>
+      </c>
+      <c r="K20" s="1">
+        <v>247.31362915039</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" ref="N20:N58" si="1">C20-D20</f>
+        <v>-2.44140625E-3</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" ref="O20:O58" si="2">D20-E20</f>
+        <v>1.8310546900579538E-4</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" ref="P20:P58" si="3">E20-F20</f>
+        <v>1.5258789005656581E-5</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" ref="Q20:Q58" si="4">F20-G20</f>
+        <v>1.2207031198840923E-4</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" ref="R20:R58" si="5">G20-H20</f>
+        <v>-6.1035155994204615E-5</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" ref="S20:S58" si="6">H20-I20</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" ref="T20:T58" si="7">I20-J20</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" ref="U20:U58" si="8">J20-K20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1">
+        <v>182.556640625</v>
+      </c>
+      <c r="C21" s="1">
+        <v>182.556640625</v>
+      </c>
+      <c r="D21" s="1">
+        <v>182.251953125</v>
+      </c>
+      <c r="E21" s="1">
+        <v>182.46875</v>
+      </c>
+      <c r="F21" s="1">
+        <v>182.466796875</v>
+      </c>
+      <c r="G21" s="1">
+        <v>182.46484375</v>
+      </c>
+      <c r="H21" s="1">
+        <v>182.466796875</v>
+      </c>
+      <c r="I21" s="1">
+        <v>182.466796875</v>
+      </c>
+      <c r="J21" s="1">
+        <v>182.466796875</v>
+      </c>
+      <c r="K21" s="1">
+        <v>182.466796875</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3046875</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.216796875</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="3"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="4"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1">
+        <v>711.45819091796795</v>
+      </c>
+      <c r="C22" s="1">
+        <v>711.37420654296795</v>
+      </c>
+      <c r="D22" s="1">
+        <v>712.77740478515602</v>
+      </c>
+      <c r="E22" s="1">
+        <v>711.946533203125</v>
+      </c>
+      <c r="F22" s="1">
+        <v>711.96032714843705</v>
+      </c>
+      <c r="G22" s="1">
+        <v>711.90805053710903</v>
+      </c>
+      <c r="H22" s="1">
+        <v>711.99111938476506</v>
+      </c>
+      <c r="I22" s="1">
+        <v>711.97674560546795</v>
+      </c>
+      <c r="J22" s="1">
+        <v>711.97747802734295</v>
+      </c>
+      <c r="K22" s="1">
+        <v>711.97613525390602</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="0"/>
+        <v>8.3984375E-2</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.4031982421880684</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="2"/>
+        <v>0.83087158203102263</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.3793945312045253E-2</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="4"/>
+        <v>5.2276611328011313E-2</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="5"/>
+        <v>-8.3068847656022626E-2</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4373779297102374E-2</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="7"/>
+        <v>-7.32421875E-4</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" si="8"/>
+        <v>1.3427734369315658E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1">
+        <v>503.58203125</v>
+      </c>
+      <c r="C24" s="1">
+        <v>503.537109375</v>
+      </c>
+      <c r="D24" s="1">
+        <v>503.529296875</v>
+      </c>
+      <c r="E24" s="1">
+        <v>503.353515625</v>
+      </c>
+      <c r="F24" s="1">
+        <v>503.458984375</v>
+      </c>
+      <c r="G24" s="1">
+        <v>503.46484375</v>
+      </c>
+      <c r="H24" s="1">
+        <v>503.462890625</v>
+      </c>
+      <c r="I24" s="1">
+        <v>503.46484375</v>
+      </c>
+      <c r="J24" s="1">
+        <v>503.46484375</v>
+      </c>
+      <c r="K24" s="1">
+        <v>503.46484375</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="0"/>
+        <v>4.4921875E-2</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="1"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17578125</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.10546875</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="4"/>
+        <v>-5.859375E-3</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="5"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1">
+        <v>-217.7666015625</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-217.7744140625</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-217.771484375</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-217.7724609375</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-217.7705078125</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-217.7685546875</v>
+      </c>
+      <c r="H25" s="1">
+        <v>-217.7685546875</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-217.7685546875</v>
+      </c>
+      <c r="J25" s="1">
+        <v>-217.7685546875</v>
+      </c>
+      <c r="K25" s="1">
+        <v>-217.7685546875</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="0"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.9296875E-3</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="2"/>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1">
+        <v>812.0830078125</v>
+      </c>
+      <c r="C26" s="1">
+        <v>811.7880859375</v>
+      </c>
+      <c r="D26" s="1">
+        <v>811.7041015625</v>
+      </c>
+      <c r="E26" s="1">
+        <v>810.9619140625</v>
+      </c>
+      <c r="F26" s="1">
+        <v>811.2138671875</v>
+      </c>
+      <c r="G26" s="1">
+        <v>811.431640625</v>
+      </c>
+      <c r="H26" s="1">
+        <v>811.447265625</v>
+      </c>
+      <c r="I26" s="1">
+        <v>811.4423828125</v>
+      </c>
+      <c r="J26" s="1">
+        <v>811.44140625</v>
+      </c>
+      <c r="K26" s="1">
+        <v>811.44140625</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.294921875</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="1"/>
+        <v>8.3984375E-2</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.7421875</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.251953125</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.2177734375</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.5625E-2</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="6"/>
+        <v>4.8828125E-3</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="7"/>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1407.0246964990999</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1407.1614152490999</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1407.0481339990999</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1407.0598527490999</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1407.0559464990999</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1407.0559464990999</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1407.0559464990999</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1407.0559464990999</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1407.0559464990999</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1407.0559464990999</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.13671875</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11328125</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.171875E-2</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="3"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1">
+        <v>-300.28313815593702</v>
+      </c>
+      <c r="C29" s="1">
+        <v>-300.53313815593702</v>
+      </c>
+      <c r="D29" s="1">
+        <v>-300.28557956218702</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-300.23540866374901</v>
+      </c>
+      <c r="F29" s="1">
+        <v>-300.38538730144501</v>
+      </c>
+      <c r="G29" s="1">
+        <v>-300.33527743816302</v>
+      </c>
+      <c r="H29" s="1">
+        <v>-300.43534457683501</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-300.28532016277302</v>
+      </c>
+      <c r="J29" s="1">
+        <v>-300.28532016277302</v>
+      </c>
+      <c r="K29" s="1">
+        <v>-300.28532016277302</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.24755859375</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="2"/>
+        <v>-5.0170898438011591E-2</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14997863769599462</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="4"/>
+        <v>-5.0109863281988964E-2</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="5"/>
+        <v>0.10006713867198869</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.15002441406198841</v>
+      </c>
+      <c r="T29" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1">
+        <v>127042.8828125</v>
+      </c>
+      <c r="C30" s="1">
+        <v>127007.4375</v>
+      </c>
+      <c r="D30" s="1">
+        <v>127007.125</v>
+      </c>
+      <c r="E30" s="1">
+        <v>127007.3359375</v>
+      </c>
+      <c r="F30" s="1">
+        <v>127007.234375</v>
+      </c>
+      <c r="G30" s="1">
+        <v>127007.234375</v>
+      </c>
+      <c r="H30" s="1">
+        <v>127007.234375</v>
+      </c>
+      <c r="I30" s="1">
+        <v>127007.234375</v>
+      </c>
+      <c r="J30" s="1">
+        <v>127007.234375</v>
+      </c>
+      <c r="K30" s="1">
+        <v>127007.234375</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="0"/>
+        <v>35.4453125</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3125</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.2109375</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="3"/>
+        <v>0.1015625</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3518518.75</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3518575</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3518574.25</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3518575</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3518571.75</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3518573</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3518573</v>
+      </c>
+      <c r="I31" s="1">
+        <v>3518573.25</v>
+      </c>
+      <c r="J31" s="1">
+        <v>3518573.25</v>
+      </c>
+      <c r="K31" s="1">
+        <v>3518573.25</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="0"/>
+        <v>-56.25</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.75</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="3"/>
+        <v>3.25</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.25</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.25</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U49" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="1">
+        <v>19220.3</v>
+      </c>
+      <c r="C50" s="1">
+        <v>19256.099999999999</v>
+      </c>
+      <c r="D50" s="1">
+        <v>19256.3</v>
+      </c>
+      <c r="E50" s="1">
+        <v>19256.099999999999</v>
+      </c>
+      <c r="F50" s="1">
+        <v>19256.2</v>
+      </c>
+      <c r="G50" s="1">
+        <v>19256.2</v>
+      </c>
+      <c r="H50" s="1">
+        <v>19256.2</v>
+      </c>
+      <c r="I50" s="1">
+        <v>19256.2</v>
+      </c>
+      <c r="J50" s="1">
+        <v>19256.2</v>
+      </c>
+      <c r="K50" s="1">
+        <v>19256.2</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" si="0"/>
+        <v>-35.799999999999272</v>
+      </c>
+      <c r="N50" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.2000000000007276</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2000000000007276</v>
+      </c>
+      <c r="P50" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.10000000000218279</v>
+      </c>
+      <c r="Q50" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U50" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="1">
+        <v>428.2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>371.7</v>
+      </c>
+      <c r="D51" s="1">
+        <v>372.7</v>
+      </c>
+      <c r="E51" s="1">
+        <v>372</v>
+      </c>
+      <c r="F51" s="1">
+        <v>375.099999999999</v>
+      </c>
+      <c r="G51" s="1">
+        <v>373.9</v>
+      </c>
+      <c r="H51" s="1">
+        <v>373.8</v>
+      </c>
+      <c r="I51" s="1">
+        <v>373.7</v>
+      </c>
+      <c r="J51" s="1">
+        <v>373.7</v>
+      </c>
+      <c r="K51" s="1">
+        <v>373.7</v>
+      </c>
+      <c r="M51" s="1">
+        <f t="shared" si="0"/>
+        <v>56.5</v>
+      </c>
+      <c r="N51" s="1">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" si="2"/>
+        <v>0.69999999999998863</v>
+      </c>
+      <c r="P51" s="1">
+        <f t="shared" si="3"/>
+        <v>-3.0999999999989996</v>
+      </c>
+      <c r="Q51" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1999999999990223</v>
+      </c>
+      <c r="R51" s="1">
+        <f t="shared" si="5"/>
+        <v>9.9999999999965894E-2</v>
+      </c>
+      <c r="S51" s="1">
+        <f t="shared" si="6"/>
+        <v>0.10000000000002274</v>
+      </c>
+      <c r="T51" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U51" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U52" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S53" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T53" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="1">
+        <v>12217.7</v>
+      </c>
+      <c r="C54" s="1">
+        <v>12217.8</v>
+      </c>
+      <c r="D54" s="1">
+        <v>12217.8</v>
+      </c>
+      <c r="E54" s="1">
+        <v>12217.8</v>
+      </c>
+      <c r="F54" s="1">
+        <v>12217.8</v>
+      </c>
+      <c r="G54" s="1">
+        <v>12217.8</v>
+      </c>
+      <c r="H54" s="1">
+        <v>12217.8</v>
+      </c>
+      <c r="I54" s="1">
+        <v>12217.8</v>
+      </c>
+      <c r="J54" s="1">
+        <v>12217.8</v>
+      </c>
+      <c r="K54" s="1">
+        <v>12217.8</v>
+      </c>
+      <c r="M54" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.9999999998544808E-2</v>
+      </c>
+      <c r="N54" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U54" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="M55" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S55" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T55" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U55" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="J56" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="K56" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U56" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="1">
+        <v>35185753</v>
+      </c>
+      <c r="D57" s="1">
+        <v>35185741</v>
+      </c>
+      <c r="E57" s="1">
+        <v>35185750</v>
+      </c>
+      <c r="F57" s="1">
+        <v>35185720</v>
+      </c>
+      <c r="G57" s="1">
+        <v>35185730</v>
+      </c>
+      <c r="H57" s="1">
+        <v>35185732</v>
+      </c>
+      <c r="I57" s="1">
+        <v>35185732</v>
+      </c>
+      <c r="J57" s="1">
+        <v>35185733</v>
+      </c>
+      <c r="K57" s="1">
+        <v>35185733</v>
+      </c>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="O57" s="1">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
+      <c r="P57" s="1">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="Q57" s="1">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
+      <c r="R57" s="1">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="S57" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T57" s="1">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="U57" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="M58" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T58" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U58" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:K1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="M4:U58">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/sagehen_3lay_modsim/Ocsillations_2.xlsx
+++ b/sagehen_3lay_modsim/Ocsillations_2.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22998" windowHeight="8340" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22998" windowHeight="8340" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="spatial_org (1-based iseg vals)" sheetId="2" r:id="rId2"/>
     <sheet name="9-17-1988_Conv_Issues" sheetId="3" r:id="rId3"/>
     <sheet name="9-17-1988_Conv_Issues_LAK_Vol" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="67">
   <si>
     <t>EXCHANGE</t>
   </si>
@@ -332,15 +333,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -358,16 +359,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3728,10 +3719,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:R53">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4417,18 +4408,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
@@ -8865,10 +8856,10 @@
     <mergeCell ref="B1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="O4:Y55">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8881,31 +8872,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="25.68359375" customWidth="1"/>
     <col min="2" max="11" width="12.26171875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.20703125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="3.20703125" style="6" customWidth="1"/>
     <col min="13" max="13" width="12.734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="5" t="s">
@@ -9036,39 +9027,39 @@
         <v>245.211502075195</v>
       </c>
       <c r="M4" s="1">
-        <f>B4-C4</f>
+        <f t="shared" ref="M4:U4" si="0">B4-C4</f>
         <v>0</v>
       </c>
       <c r="N4" s="1">
-        <f>C4-D4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O4" s="1">
-        <f>D4-E4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P4" s="1">
-        <f>E4-F4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <f>F4-G4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R4" s="1">
-        <f>G4-H4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S4" s="1">
-        <f>H4-I4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T4" s="1">
-        <f>I4-J4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U4" s="1">
-        <f>J4-K4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9107,39 +9098,39 @@
         <v>56.372688293457003</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" ref="M5:M58" si="0">B5-C5</f>
+        <f t="shared" ref="M5:M58" si="1">B5-C5</f>
         <v>0</v>
       </c>
       <c r="N5" s="1">
-        <f>C5-D5</f>
+        <f t="shared" ref="N5:N19" si="2">C5-D5</f>
         <v>0</v>
       </c>
       <c r="O5" s="1">
-        <f>D5-E5</f>
+        <f t="shared" ref="O5:O19" si="3">D5-E5</f>
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <f>E5-F5</f>
+        <f t="shared" ref="P5:P19" si="4">E5-F5</f>
         <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <f>F5-G5</f>
+        <f t="shared" ref="Q5:Q19" si="5">F5-G5</f>
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <f>G5-H5</f>
+        <f t="shared" ref="R5:R19" si="6">G5-H5</f>
         <v>0</v>
       </c>
       <c r="S5" s="1">
-        <f>H5-I5</f>
+        <f t="shared" ref="S5:S19" si="7">H5-I5</f>
         <v>0</v>
       </c>
       <c r="T5" s="1">
-        <f>I5-J5</f>
+        <f t="shared" ref="T5:T19" si="8">I5-J5</f>
         <v>0</v>
       </c>
       <c r="U5" s="1">
-        <f>J5-K5</f>
+        <f t="shared" ref="U5:U19" si="9">J5-K5</f>
         <v>0</v>
       </c>
     </row>
@@ -9178,39 +9169,39 @@
         <v>-60.450332641601499</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.826660156200262E-3</v>
       </c>
       <c r="N6" s="1">
-        <f>C6-D6</f>
+        <f t="shared" si="2"/>
         <v>2.3193359375E-3</v>
       </c>
       <c r="O6" s="1">
-        <f>D6-E6</f>
+        <f t="shared" si="3"/>
         <v>-1.5045166015603684E-2</v>
       </c>
       <c r="P6" s="1">
-        <f>E6-F6</f>
+        <f t="shared" si="4"/>
         <v>-1.7196655273401973E-2</v>
       </c>
       <c r="Q6" s="1">
-        <f>F6-G6</f>
+        <f t="shared" si="5"/>
         <v>-4.0283203125E-3</v>
       </c>
       <c r="R6" s="1">
-        <f>G6-H6</f>
+        <f t="shared" si="6"/>
         <v>-7.6293945298289145E-5</v>
       </c>
       <c r="S6" s="1">
-        <f>H6-I6</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T6" s="1">
-        <f>I6-J6</f>
+        <f t="shared" si="8"/>
         <v>-4.5776367201710855E-5</v>
       </c>
       <c r="U6" s="1">
-        <f>J6-K6</f>
+        <f t="shared" si="9"/>
         <v>-1.5258789098027137E-5</v>
       </c>
     </row>
@@ -9249,39 +9240,39 @@
         <v>383.55389404296801</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5258789096606051E-4</v>
       </c>
       <c r="N7" s="1">
-        <f>C7-D7</f>
+        <f t="shared" si="2"/>
         <v>3.0517578011313162E-5</v>
       </c>
       <c r="O7" s="1">
-        <f>D7-E7</f>
+        <f t="shared" si="3"/>
         <v>-3.9154052735000278E-2</v>
       </c>
       <c r="P7" s="1">
-        <f>E7-F7</f>
+        <f t="shared" si="4"/>
         <v>1.8615722660229039E-3</v>
       </c>
       <c r="Q7" s="1">
-        <f>F7-G7</f>
+        <f t="shared" si="5"/>
         <v>3.0517578096578291E-4</v>
       </c>
       <c r="R7" s="1">
-        <f>G7-H7</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S7" s="1">
-        <f>H7-I7</f>
+        <f t="shared" si="7"/>
         <v>-1.2207031198840923E-4</v>
       </c>
       <c r="T7" s="1">
-        <f>I7-J7</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U7" s="1">
-        <f>J7-K7</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9320,39 +9311,39 @@
         <v>6.6650390625E-2</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N8" s="1">
-        <f>C8-D8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O8" s="1">
-        <f>D8-E8</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <f>E8-F8</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <f>F8-G8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R8" s="1">
-        <f>G8-H8</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S8" s="1">
-        <f>H8-I8</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T8" s="1">
-        <f>I8-J8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U8" s="1">
-        <f>J8-K8</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9391,39 +9382,39 @@
         <v>918.69140625</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.953125E-3</v>
       </c>
       <c r="N9" s="1">
-        <f>C9-D9</f>
+        <f t="shared" si="2"/>
         <v>1.953125E-3</v>
       </c>
       <c r="O9" s="1">
-        <f>D9-E9</f>
+        <f t="shared" si="3"/>
         <v>6.8359375E-2</v>
       </c>
       <c r="P9" s="1">
-        <f>E9-F9</f>
+        <f t="shared" si="4"/>
         <v>6.4453125E-2</v>
       </c>
       <c r="Q9" s="1">
-        <f>F9-G9</f>
+        <f t="shared" si="5"/>
         <v>1.171875E-2</v>
       </c>
       <c r="R9" s="1">
-        <f>G9-H9</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S9" s="1">
-        <f>H9-I9</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T9" s="1">
-        <f>I9-J9</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U9" s="1">
-        <f>J9-K9</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9462,39 +9453,39 @@
         <v>163.20062255859301</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N10" s="1">
-        <f>C10-D10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <f>D10-E10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P10" s="1">
-        <f>E10-F10</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <f>F10-G10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R10" s="1">
-        <f>G10-H10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S10" s="1">
-        <f>H10-I10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T10" s="1">
-        <f>I10-J10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U10" s="1">
-        <f>J10-K10</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9533,39 +9524,39 @@
         <v>68.386863708496094</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N11" s="1">
-        <f>C11-D11</f>
+        <f t="shared" si="2"/>
         <v>7.6293946023042736E-6</v>
       </c>
       <c r="O11" s="1">
-        <f>D11-E11</f>
+        <f t="shared" si="3"/>
         <v>-3.7368774414090922E-2</v>
       </c>
       <c r="P11" s="1">
-        <f>E11-F11</f>
+        <f t="shared" si="4"/>
         <v>1.3122558593892109E-3</v>
       </c>
       <c r="Q11" s="1">
-        <f>F11-G11</f>
+        <f t="shared" si="5"/>
         <v>9.918212890625E-5</v>
       </c>
       <c r="R11" s="1">
-        <f>G11-H11</f>
+        <f t="shared" si="6"/>
         <v>-6.8664550795460855E-5</v>
       </c>
       <c r="S11" s="1">
-        <f>H11-I11</f>
+        <f t="shared" si="7"/>
         <v>-4.5776367201710855E-5</v>
       </c>
       <c r="T11" s="1">
-        <f>I11-J11</f>
+        <f t="shared" si="8"/>
         <v>7.6293945028282906E-6</v>
       </c>
       <c r="U11" s="1">
-        <f>J11-K11</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9604,39 +9595,39 @@
         <v>633.57855224609295</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N12" s="1">
-        <f>C12-D12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O12" s="1">
-        <f>D12-E12</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P12" s="1">
-        <f>E12-F12</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <f>F12-G12</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R12" s="1">
-        <f>G12-H12</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S12" s="1">
-        <f>H12-I12</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T12" s="1">
-        <f>I12-J12</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U12" s="1">
-        <f>J12-K12</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9675,39 +9666,39 @@
         <v>2008.63159179687</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N13" s="1">
-        <f>C13-D13</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O13" s="1">
-        <f>D13-E13</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P13" s="1">
-        <f>E13-F13</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <f>F13-G13</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R13" s="1">
-        <f>G13-H13</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S13" s="1">
-        <f>H13-I13</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T13" s="1">
-        <f>I13-J13</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U13" s="1">
-        <f>J13-K13</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9746,39 +9737,39 @@
         <v>583.13671875</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.765625E-3</v>
       </c>
       <c r="N14" s="1">
-        <f>C14-D14</f>
+        <f t="shared" si="2"/>
         <v>1.953125E-3</v>
       </c>
       <c r="O14" s="1">
-        <f>D14-E14</f>
+        <f t="shared" si="3"/>
         <v>6.8359375E-2</v>
       </c>
       <c r="P14" s="1">
-        <f>E14-F14</f>
+        <f t="shared" si="4"/>
         <v>2.5390625E-2</v>
       </c>
       <c r="Q14" s="1">
-        <f>F14-G14</f>
+        <f t="shared" si="5"/>
         <v>9.765625E-3</v>
       </c>
       <c r="R14" s="1">
-        <f>G14-H14</f>
+        <f t="shared" si="6"/>
         <v>1.953125E-3</v>
       </c>
       <c r="S14" s="1">
-        <f>H14-I14</f>
+        <f t="shared" si="7"/>
         <v>-1.953125E-3</v>
       </c>
       <c r="T14" s="1">
-        <f>I14-J14</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U14" s="1">
-        <f>J14-K14</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9817,39 +9808,39 @@
         <v>52.073196411132798</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N15" s="1">
-        <f>C15-D15</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O15" s="1">
-        <f>D15-E15</f>
+        <f t="shared" si="3"/>
         <v>-3.8146973011521368E-6</v>
       </c>
       <c r="P15" s="1">
-        <f>E15-F15</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <f>F15-G15</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R15" s="1">
-        <f>G15-H15</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S15" s="1">
-        <f>H15-I15</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T15" s="1">
-        <f>I15-J15</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U15" s="1">
-        <f>J15-K15</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9888,39 +9879,39 @@
         <v>-52.412109375</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.568359375</v>
       </c>
       <c r="N16" s="1">
-        <f>C16-D16</f>
+        <f t="shared" si="2"/>
         <v>0.1328125</v>
       </c>
       <c r="O16" s="1">
-        <f>D16-E16</f>
+        <f t="shared" si="3"/>
         <v>1.916015625</v>
       </c>
       <c r="P16" s="1">
-        <f>E16-F16</f>
+        <f t="shared" si="4"/>
         <v>-1.05859375</v>
       </c>
       <c r="Q16" s="1">
-        <f>F16-G16</f>
+        <f t="shared" si="5"/>
         <v>3.515625E-2</v>
       </c>
       <c r="R16" s="1">
-        <f>G16-H16</f>
+        <f t="shared" si="6"/>
         <v>3.3203125E-2</v>
       </c>
       <c r="S16" s="1">
-        <f>H16-I16</f>
+        <f t="shared" si="7"/>
         <v>-2.1484375E-2</v>
       </c>
       <c r="T16" s="1">
-        <f>I16-J16</f>
+        <f t="shared" si="8"/>
         <v>-1.953125E-3</v>
       </c>
       <c r="U16" s="1">
-        <f>J16-K16</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -9959,39 +9950,39 @@
         <v>229.06405639648401</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8615722659944822E-3</v>
       </c>
       <c r="N17" s="1">
-        <f>C17-D17</f>
+        <f t="shared" si="2"/>
         <v>3.6621093698840923E-4</v>
       </c>
       <c r="O17" s="1">
-        <f>D17-E17</f>
+        <f t="shared" si="3"/>
         <v>-7.4615478514999722E-2</v>
       </c>
       <c r="P17" s="1">
-        <f>E17-F17</f>
+        <f t="shared" si="4"/>
         <v>-1.4343261719886868E-3</v>
       </c>
       <c r="Q17" s="1">
-        <f>F17-G17</f>
+        <f t="shared" si="5"/>
         <v>4.7302246099434342E-4</v>
       </c>
       <c r="R17" s="1">
-        <f>G17-H17</f>
+        <f t="shared" si="6"/>
         <v>3.0517578011313162E-5</v>
       </c>
       <c r="S17" s="1">
-        <f>H17-I17</f>
+        <f t="shared" si="7"/>
         <v>-2.1362304701710855E-4</v>
       </c>
       <c r="T17" s="1">
-        <f>I17-J17</f>
+        <f t="shared" si="8"/>
         <v>1.5258789005656581E-5</v>
       </c>
       <c r="U17" s="1">
-        <f>J17-K17</f>
+        <f t="shared" si="9"/>
         <v>-1.5258789005656581E-5</v>
       </c>
     </row>
@@ -10030,39 +10021,39 @@
         <v>6.912109375</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.90625E-3</v>
       </c>
       <c r="N18" s="1">
-        <f>C18-D18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O18" s="1">
-        <f>D18-E18</f>
+        <f t="shared" si="3"/>
         <v>1.7578125E-2</v>
       </c>
       <c r="P18" s="1">
-        <f>E18-F18</f>
+        <f t="shared" si="4"/>
         <v>-1.953125E-3</v>
       </c>
       <c r="Q18" s="1">
-        <f>F18-G18</f>
+        <f t="shared" si="5"/>
         <v>-1.953125E-3</v>
       </c>
       <c r="R18" s="1">
-        <f>G18-H18</f>
+        <f t="shared" si="6"/>
         <v>1.953125E-3</v>
       </c>
       <c r="S18" s="1">
-        <f>H18-I18</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T18" s="1">
-        <f>I18-J18</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U18" s="1">
-        <f>J18-K18</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10101,39 +10092,39 @@
         <v>44.5546875</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.83203125E-2</v>
       </c>
       <c r="N19" s="1">
-        <f>C19-D19</f>
+        <f t="shared" si="2"/>
         <v>1.07421875E-2</v>
       </c>
       <c r="O19" s="1">
-        <f>D19-E19</f>
+        <f t="shared" si="3"/>
         <v>4.19921875E-2</v>
       </c>
       <c r="P19" s="1">
-        <f>E19-F19</f>
+        <f t="shared" si="4"/>
         <v>2.63671875E-2</v>
       </c>
       <c r="Q19" s="1">
-        <f>F19-G19</f>
+        <f t="shared" si="5"/>
         <v>-9.765625E-4</v>
       </c>
       <c r="R19" s="1">
-        <f>G19-H19</f>
+        <f t="shared" si="6"/>
         <v>-3.90625E-3</v>
       </c>
       <c r="S19" s="1">
-        <f>H19-I19</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T19" s="1">
-        <f>I19-J19</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U19" s="1">
-        <f>J19-K19</f>
+        <f t="shared" si="9"/>
         <v>9.765625E-4</v>
       </c>
     </row>
@@ -10172,39 +10163,39 @@
         <v>247.31362915039</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" ref="N20:N58" si="1">C20-D20</f>
+        <f t="shared" ref="M20:N58" si="10">C20-D20</f>
         <v>-2.44140625E-3</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" ref="O20:O58" si="2">D20-E20</f>
+        <f t="shared" ref="O20:O58" si="11">D20-E20</f>
         <v>1.8310546900579538E-4</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" ref="P20:P58" si="3">E20-F20</f>
+        <f t="shared" ref="P20:P58" si="12">E20-F20</f>
         <v>1.5258789005656581E-5</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" ref="Q20:Q58" si="4">F20-G20</f>
+        <f t="shared" ref="Q20:Q58" si="13">F20-G20</f>
         <v>1.2207031198840923E-4</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" ref="R20:R58" si="5">G20-H20</f>
+        <f t="shared" ref="R20:R58" si="14">G20-H20</f>
         <v>-6.1035155994204615E-5</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" ref="S20:S58" si="6">H20-I20</f>
+        <f t="shared" ref="S20:S58" si="15">H20-I20</f>
         <v>0</v>
       </c>
       <c r="T20" s="1">
-        <f t="shared" ref="T20:T58" si="7">I20-J20</f>
+        <f t="shared" ref="T20:T58" si="16">I20-J20</f>
         <v>0</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" ref="U20:U58" si="8">J20-K20</f>
+        <f t="shared" ref="U20:U58" si="17">J20-K20</f>
         <v>0</v>
       </c>
     </row>
@@ -10243,39 +10234,39 @@
         <v>182.466796875</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.3046875</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-0.216796875</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1.953125E-3</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.953125E-3</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-1.953125E-3</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -10314,39 +10305,39 @@
         <v>711.97613525390602</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3984375E-2</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-1.4031982421880684</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.83087158203102263</v>
       </c>
       <c r="P22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-1.3793945312045253E-2</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>5.2276611328011313E-2</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-8.3068847656022626E-2</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>1.4373779297102374E-2</v>
       </c>
       <c r="T22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>-7.32421875E-4</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>1.3427734369315658E-3</v>
       </c>
     </row>
@@ -10385,39 +10376,39 @@
         <v>0</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -10456,39 +10447,39 @@
         <v>503.46484375</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4921875E-2</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>7.8125E-3</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.17578125</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-0.10546875</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>-5.859375E-3</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1.953125E-3</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>-1.953125E-3</v>
       </c>
       <c r="T24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -10527,39 +10518,39 @@
         <v>-217.7685546875</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8125E-3</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-2.9296875E-3</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>9.765625E-4</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-1.953125E-3</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>-1.953125E-3</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -10598,39 +10589,39 @@
         <v>811.44140625</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.294921875</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>8.3984375E-2</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.7421875</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-0.251953125</v>
       </c>
       <c r="Q26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>-0.2177734375</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-1.5625E-2</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>4.8828125E-3</v>
       </c>
       <c r="T26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>9.765625E-4</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -10713,39 +10704,39 @@
         <v>1407.0559464990999</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.13671875</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.11328125</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-1.171875E-2</v>
       </c>
       <c r="P28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>3.90625E-3</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -10784,39 +10775,39 @@
         <v>-300.28532016277302</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-0.24755859375</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-5.0170898438011591E-2</v>
       </c>
       <c r="P29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.14997863769599462</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>-5.0109863281988964E-2</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.10006713867198869</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>-0.15002441406198841</v>
       </c>
       <c r="T29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -10855,39 +10846,39 @@
         <v>127007.234375</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35.4453125</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.3125</v>
       </c>
       <c r="O30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-0.2109375</v>
       </c>
       <c r="P30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.1015625</v>
       </c>
       <c r="Q30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T30" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -10926,39 +10917,39 @@
         <v>3518573.25</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-56.25</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0.75</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-0.75</v>
       </c>
       <c r="P31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>3.25</v>
       </c>
       <c r="Q31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>-1.25</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>-0.25</v>
       </c>
       <c r="T31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -11041,39 +11032,39 @@
         <v>0</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -11112,39 +11103,39 @@
         <v>0</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -11183,39 +11174,39 @@
         <v>0</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -11254,39 +11245,39 @@
         <v>0</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -11325,39 +11316,39 @@
         <v>0</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -11396,39 +11387,39 @@
         <v>0</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -11467,39 +11458,39 @@
         <v>0</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q39" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R39" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S39" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T39" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U39" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -11538,39 +11529,39 @@
         <v>0</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q40" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R40" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T40" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -11609,39 +11600,39 @@
         <v>0</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q41" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S41" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T41" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U41" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -11680,39 +11671,39 @@
         <v>0</v>
       </c>
       <c r="M42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R42" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S42" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T42" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -11751,39 +11742,39 @@
         <v>0</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P43" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q43" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R43" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S43" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T43" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U43" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -11822,39 +11813,39 @@
         <v>0</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P44" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q44" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R44" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S44" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T44" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -11893,39 +11884,39 @@
         <v>0</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P45" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q45" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R45" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S45" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T45" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -11964,39 +11955,39 @@
         <v>0</v>
       </c>
       <c r="M46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P46" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q46" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R46" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S46" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T46" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -12035,39 +12026,39 @@
         <v>0</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P47" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S47" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T47" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -12106,39 +12097,39 @@
         <v>0</v>
       </c>
       <c r="M48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P48" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q48" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R48" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S48" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T48" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -12177,39 +12168,39 @@
         <v>0</v>
       </c>
       <c r="M49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P49" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T49" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -12248,39 +12239,39 @@
         <v>19256.2</v>
       </c>
       <c r="M50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-35.799999999999272</v>
       </c>
       <c r="N50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-0.2000000000007276</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.2000000000007276</v>
       </c>
       <c r="P50" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-0.10000000000218279</v>
       </c>
       <c r="Q50" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R50" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S50" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T50" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U50" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -12319,39 +12310,39 @@
         <v>373.7</v>
       </c>
       <c r="M51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>56.5</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.69999999999998863</v>
       </c>
       <c r="P51" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>-3.0999999999989996</v>
       </c>
       <c r="Q51" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.1999999999990223</v>
       </c>
       <c r="R51" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>9.9999999999965894E-2</v>
       </c>
       <c r="S51" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0.10000000000002274</v>
       </c>
       <c r="T51" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U51" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -12390,39 +12381,39 @@
         <v>0</v>
       </c>
       <c r="M52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q52" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R52" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S52" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T52" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U52" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -12461,39 +12452,39 @@
         <v>0</v>
       </c>
       <c r="M53" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P53" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R53" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S53" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T53" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -12532,39 +12523,39 @@
         <v>12217.8</v>
       </c>
       <c r="M54" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9.9999999998544808E-2</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P54" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q54" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R54" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S54" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T54" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -12603,39 +12594,39 @@
         <v>0</v>
       </c>
       <c r="M55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O55" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P55" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q55" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R55" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S55" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T55" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -12643,6 +12634,9 @@
       <c r="A56" t="s">
         <v>65</v>
       </c>
+      <c r="B56" s="1">
+        <v>1270000</v>
+      </c>
       <c r="C56" s="1">
         <v>1270000</v>
       </c>
@@ -12670,37 +12664,40 @@
       <c r="K56" s="1">
         <v>1270000</v>
       </c>
-      <c r="M56" s="1"/>
+      <c r="M56" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="N56" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P56" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q56" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R56" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T56" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -12708,6 +12705,9 @@
       <c r="A57" t="s">
         <v>66</v>
       </c>
+      <c r="B57" s="1">
+        <v>35179398</v>
+      </c>
       <c r="C57" s="1">
         <v>35185753</v>
       </c>
@@ -12735,82 +12735,84 @@
       <c r="K57" s="1">
         <v>35185733</v>
       </c>
-      <c r="M57" s="1"/>
+      <c r="M57" s="1">
+        <f t="shared" si="10"/>
+        <v>-6355</v>
+      </c>
       <c r="N57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-9</v>
       </c>
       <c r="P57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="Q57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>-10</v>
       </c>
       <c r="R57" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>-2</v>
       </c>
       <c r="S57" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T57" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>-1</v>
       </c>
       <c r="U57" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="M58" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O58" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P58" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R58" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T58" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -12823,14 +12825,120 @@
     <mergeCell ref="B1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="M4:U58">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>-1</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="11.734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1015625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="1">
+        <v>127042.8828125</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1">
+        <v>127007.4375</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1270000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1">
+        <v>127007.125</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1270000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="1">
+        <v>127007.3359375</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1270000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="1">
+        <v>127007.234375</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1270000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="1">
+        <v>127007.234375</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1270000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="1">
+        <v>127007.234375</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1270000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="1">
+        <v>127007.234375</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1270000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="1">
+        <v>127007.234375</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1270000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="1">
+        <v>127007.234375</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1270000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/sagehen_3lay_modsim/Ocsillations_2.xlsx
+++ b/sagehen_3lay_modsim/Ocsillations_2.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22998" windowHeight="8340" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22998" windowHeight="8340" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="spatial_org (1-based iseg vals)" sheetId="2" r:id="rId2"/>
     <sheet name="9-17-1988_Conv_Issues" sheetId="3" r:id="rId3"/>
     <sheet name="9-17-1988_Conv_Issues_LAK_Vol" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Follow-up; lowered  outlet elev" sheetId="5" r:id="rId5"/>
+    <sheet name="3-17-1993_NonConvergence" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="72">
   <si>
     <t>EXCHANGE</t>
   </si>
@@ -264,6 +265,21 @@
   <si>
     <t>MS_Reservoirs[1].mnInfo.stend</t>
   </si>
+  <si>
+    <t>[17] "Inline Res Release"</t>
+  </si>
+  <si>
+    <t>[18]  Offline Outflow</t>
+  </si>
+  <si>
+    <t>[17]  Inline Outflow</t>
+  </si>
+  <si>
+    <t>[19]  Diversion to offline</t>
+  </si>
+  <si>
+    <t>[21]  Diversion to Municipal</t>
+  </si>
 </sst>
 </file>
 
@@ -294,7 +310,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +320,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -334,6 +356,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -341,7 +365,87 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -399,6 +503,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFF8955E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3719,10 +3833,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:R53">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3740,7 +3854,7 @@
   <dimension ref="K18:BX58"/>
   <sheetViews>
     <sheetView topLeftCell="AF25" workbookViewId="0">
-      <selection activeCell="BY37" sqref="BY37"/>
+      <selection activeCell="AT34" sqref="AS34:AT34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4408,18 +4522,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
@@ -8856,10 +8970,10 @@
     <mergeCell ref="B1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="O4:Y55">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8872,8 +8986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="N65" sqref="N65"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8885,18 +8999,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="5" t="s">
@@ -10811,73 +10925,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
+    <row r="30" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="8">
         <v>127042.8828125</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="8">
         <v>127007.4375</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="8">
         <v>127007.125</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="8">
         <v>127007.3359375</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="8">
         <v>127007.234375</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="8">
         <v>127007.234375</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="8">
         <v>127007.234375</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="8">
         <v>127007.234375</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="8">
         <v>127007.234375</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="8">
         <v>127007.234375</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="8">
         <f t="shared" si="1"/>
         <v>35.4453125</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N30" s="8">
         <f t="shared" si="10"/>
         <v>0.3125</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="8">
         <f t="shared" si="11"/>
         <v>-0.2109375</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="8">
         <f t="shared" si="12"/>
         <v>0.1015625</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="8">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="8">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="T30" s="1">
+      <c r="T30" s="8">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U30" s="1">
+      <c r="U30" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -12206,7 +12320,7 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B50" s="1">
         <v>19220.3</v>
@@ -12630,73 +12744,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" t="s">
+    <row r="56" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="8">
         <v>1270000</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="8">
         <v>1270000</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="8">
         <v>1270000</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="8">
         <v>1270000</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="8">
         <v>1270000</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="8">
         <v>1270000</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="8">
         <v>1270000</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I56" s="8">
         <v>1270000</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J56" s="8">
         <v>1270000</v>
       </c>
-      <c r="K56" s="1">
+      <c r="K56" s="8">
         <v>1270000</v>
       </c>
-      <c r="M56" s="1">
+      <c r="M56" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N56" s="1">
+      <c r="N56" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O56" s="1">
+      <c r="O56" s="8">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="P56" s="1">
+      <c r="P56" s="8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="Q56" s="1">
+      <c r="Q56" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R56" s="1">
+      <c r="R56" s="8">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="S56" s="1">
+      <c r="S56" s="8">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="T56" s="1">
+      <c r="T56" s="8">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U56" s="1">
+      <c r="U56" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -12825,6 +12939,5037 @@
     <mergeCell ref="B1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="M4:U58">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="25.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26171875" customWidth="1"/>
+    <col min="5" max="7" width="12.26171875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>245.21145629882801</v>
+      </c>
+      <c r="C2">
+        <v>245.21145629882801</v>
+      </c>
+      <c r="D2">
+        <v>245.21145629882801</v>
+      </c>
+      <c r="E2">
+        <v>245.21145629882801</v>
+      </c>
+      <c r="F2">
+        <v>245.21145629882801</v>
+      </c>
+      <c r="G2">
+        <v>245.21145629882801</v>
+      </c>
+      <c r="H2">
+        <v>245.21145629882801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>56.372676849365199</v>
+      </c>
+      <c r="C3">
+        <v>56.372676849365199</v>
+      </c>
+      <c r="D3">
+        <v>56.372676849365199</v>
+      </c>
+      <c r="E3">
+        <v>56.372676849365199</v>
+      </c>
+      <c r="F3">
+        <v>56.372676849365199</v>
+      </c>
+      <c r="G3">
+        <v>56.372676849365199</v>
+      </c>
+      <c r="H3">
+        <v>56.372676849365199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-61.466583251953097</v>
+      </c>
+      <c r="C4">
+        <v>-61.485427856445298</v>
+      </c>
+      <c r="D4">
+        <v>-61.4899291992187</v>
+      </c>
+      <c r="E4">
+        <v>-61.475296020507798</v>
+      </c>
+      <c r="F4">
+        <v>-61.458221435546797</v>
+      </c>
+      <c r="G4">
+        <v>-61.454193115234297</v>
+      </c>
+      <c r="H4">
+        <v>-61.454116821288999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>382.17556762695301</v>
+      </c>
+      <c r="C5">
+        <v>382.17526245117102</v>
+      </c>
+      <c r="D5">
+        <v>382.17523193359301</v>
+      </c>
+      <c r="E5">
+        <v>382.21438598632801</v>
+      </c>
+      <c r="F5">
+        <v>382.21243286132801</v>
+      </c>
+      <c r="G5">
+        <v>382.21209716796801</v>
+      </c>
+      <c r="H5">
+        <v>382.21212768554602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6.640625E-2</v>
+      </c>
+      <c r="C6">
+        <v>6.640625E-2</v>
+      </c>
+      <c r="D6">
+        <v>6.640625E-2</v>
+      </c>
+      <c r="E6">
+        <v>6.640625E-2</v>
+      </c>
+      <c r="F6">
+        <v>6.640625E-2</v>
+      </c>
+      <c r="G6">
+        <v>6.640625E-2</v>
+      </c>
+      <c r="H6">
+        <v>6.6650390625E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>921.029296875</v>
+      </c>
+      <c r="C7">
+        <v>921.025390625</v>
+      </c>
+      <c r="D7">
+        <v>921.025390625</v>
+      </c>
+      <c r="E7">
+        <v>920.95703125</v>
+      </c>
+      <c r="F7">
+        <v>920.888671875</v>
+      </c>
+      <c r="G7">
+        <v>920.8828125</v>
+      </c>
+      <c r="H7">
+        <v>920.87890625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>163.16015625</v>
+      </c>
+      <c r="C8">
+        <v>163.16015625</v>
+      </c>
+      <c r="D8">
+        <v>163.16015625</v>
+      </c>
+      <c r="E8">
+        <v>163.16015625</v>
+      </c>
+      <c r="F8">
+        <v>163.16015625</v>
+      </c>
+      <c r="G8">
+        <v>163.16015625</v>
+      </c>
+      <c r="H8">
+        <v>163.16015625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>49.053565979003899</v>
+      </c>
+      <c r="C9">
+        <v>49.053573608398402</v>
+      </c>
+      <c r="D9">
+        <v>49.053565979003899</v>
+      </c>
+      <c r="E9">
+        <v>49.090068817138601</v>
+      </c>
+      <c r="F9">
+        <v>49.088733673095703</v>
+      </c>
+      <c r="G9">
+        <v>49.088634490966797</v>
+      </c>
+      <c r="H9">
+        <v>49.088699340820298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>633.578125</v>
+      </c>
+      <c r="C10">
+        <v>633.578125</v>
+      </c>
+      <c r="D10">
+        <v>633.578125</v>
+      </c>
+      <c r="E10">
+        <v>633.578125</v>
+      </c>
+      <c r="F10">
+        <v>633.57806396484295</v>
+      </c>
+      <c r="G10">
+        <v>633.57806396484295</v>
+      </c>
+      <c r="H10">
+        <v>633.57806396484295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2008.47985839843</v>
+      </c>
+      <c r="C11">
+        <v>2008.47985839843</v>
+      </c>
+      <c r="D11">
+        <v>2008.47985839843</v>
+      </c>
+      <c r="E11">
+        <v>2008.47985839843</v>
+      </c>
+      <c r="F11">
+        <v>2008.47985839843</v>
+      </c>
+      <c r="G11">
+        <v>2008.47985839843</v>
+      </c>
+      <c r="H11">
+        <v>2008.47985839843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>586.0859375</v>
+      </c>
+      <c r="C12">
+        <v>586.072265625</v>
+      </c>
+      <c r="D12">
+        <v>586.0703125</v>
+      </c>
+      <c r="E12">
+        <v>586.00390625</v>
+      </c>
+      <c r="F12">
+        <v>585.974609375</v>
+      </c>
+      <c r="G12">
+        <v>585.96875</v>
+      </c>
+      <c r="H12">
+        <v>585.962890625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>52.073040008544901</v>
+      </c>
+      <c r="C13">
+        <v>52.073040008544901</v>
+      </c>
+      <c r="D13">
+        <v>52.073040008544901</v>
+      </c>
+      <c r="E13">
+        <v>52.073040008544901</v>
+      </c>
+      <c r="F13">
+        <v>52.073040008544901</v>
+      </c>
+      <c r="G13">
+        <v>52.073040008544901</v>
+      </c>
+      <c r="H13">
+        <v>52.073040008544901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>-32.583984375</v>
+      </c>
+      <c r="C14">
+        <v>-33.712890625</v>
+      </c>
+      <c r="D14">
+        <v>-33.9765625</v>
+      </c>
+      <c r="E14">
+        <v>-35.951171875</v>
+      </c>
+      <c r="F14">
+        <v>-34.896484375</v>
+      </c>
+      <c r="G14">
+        <v>-34.935546875</v>
+      </c>
+      <c r="H14">
+        <v>-34.966796875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>226.80226135253901</v>
+      </c>
+      <c r="C15">
+        <v>226.798583984375</v>
+      </c>
+      <c r="D15">
+        <v>226.79786682128901</v>
+      </c>
+      <c r="E15">
+        <v>226.871337890625</v>
+      </c>
+      <c r="F15">
+        <v>226.87266540527301</v>
+      </c>
+      <c r="G15">
+        <v>226.872146606445</v>
+      </c>
+      <c r="H15">
+        <v>226.872146606445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7.3203125</v>
+      </c>
+      <c r="C16">
+        <v>7.3125</v>
+      </c>
+      <c r="D16">
+        <v>7.3125</v>
+      </c>
+      <c r="E16">
+        <v>7.294921875</v>
+      </c>
+      <c r="F16">
+        <v>7.296875</v>
+      </c>
+      <c r="G16">
+        <v>7.296875</v>
+      </c>
+      <c r="H16">
+        <v>7.296875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>45.7763671875</v>
+      </c>
+      <c r="C17">
+        <v>45.7216796875</v>
+      </c>
+      <c r="D17">
+        <v>45.7001953125</v>
+      </c>
+      <c r="E17">
+        <v>45.677734375</v>
+      </c>
+      <c r="F17">
+        <v>45.654296875</v>
+      </c>
+      <c r="G17">
+        <v>45.6552734375</v>
+      </c>
+      <c r="H17">
+        <v>45.6572265625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>247.27281188964801</v>
+      </c>
+      <c r="C18">
+        <v>247.27281188964801</v>
+      </c>
+      <c r="D18">
+        <v>247.27609252929599</v>
+      </c>
+      <c r="E18">
+        <v>247.275787353515</v>
+      </c>
+      <c r="F18">
+        <v>247.275787353515</v>
+      </c>
+      <c r="G18">
+        <v>247.275634765625</v>
+      </c>
+      <c r="H18">
+        <v>247.27569580078099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19">
+        <v>272.9140625</v>
+      </c>
+      <c r="C19">
+        <v>272.9140625</v>
+      </c>
+      <c r="D19">
+        <v>272.607421875</v>
+      </c>
+      <c r="E19">
+        <v>272.82421875</v>
+      </c>
+      <c r="F19">
+        <v>272.822265625</v>
+      </c>
+      <c r="G19">
+        <v>272.8203125</v>
+      </c>
+      <c r="H19">
+        <v>272.822265625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>701.6181640625</v>
+      </c>
+      <c r="C20">
+        <v>701.455810546875</v>
+      </c>
+      <c r="D20">
+        <v>702.80773925781205</v>
+      </c>
+      <c r="E20">
+        <v>701.96643066406205</v>
+      </c>
+      <c r="F20">
+        <v>701.98742675781205</v>
+      </c>
+      <c r="G20">
+        <v>701.94958496093705</v>
+      </c>
+      <c r="H20">
+        <v>702.01940917968705</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>505.380859375</v>
+      </c>
+      <c r="C22">
+        <v>505.291015625</v>
+      </c>
+      <c r="D22">
+        <v>505.26953125</v>
+      </c>
+      <c r="E22">
+        <v>505.095703125</v>
+      </c>
+      <c r="F22">
+        <v>505.197265625</v>
+      </c>
+      <c r="G22">
+        <v>505.205078125</v>
+      </c>
+      <c r="H22">
+        <v>505.205078125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23">
+        <v>-217.859375</v>
+      </c>
+      <c r="C23">
+        <v>-217.876953125</v>
+      </c>
+      <c r="D23">
+        <v>-217.8701171875</v>
+      </c>
+      <c r="E23">
+        <v>-217.8740234375</v>
+      </c>
+      <c r="F23">
+        <v>-217.869140625</v>
+      </c>
+      <c r="G23">
+        <v>-217.869140625</v>
+      </c>
+      <c r="H23">
+        <v>-217.869140625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>817.7314453125</v>
+      </c>
+      <c r="C24">
+        <v>817.1435546875</v>
+      </c>
+      <c r="D24">
+        <v>816.9775390625</v>
+      </c>
+      <c r="E24">
+        <v>816.2041015625</v>
+      </c>
+      <c r="F24">
+        <v>816.4619140625</v>
+      </c>
+      <c r="G24">
+        <v>816.681640625</v>
+      </c>
+      <c r="H24">
+        <v>816.697265625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>1351.923541978</v>
+      </c>
+      <c r="C26">
+        <v>1352.058307603</v>
+      </c>
+      <c r="D26">
+        <v>1351.946979478</v>
+      </c>
+      <c r="E26">
+        <v>1351.956745103</v>
+      </c>
+      <c r="F26">
+        <v>1351.956745103</v>
+      </c>
+      <c r="G26">
+        <v>1351.956745103</v>
+      </c>
+      <c r="H26">
+        <v>1351.956745103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>-299.53571605682299</v>
+      </c>
+      <c r="C27">
+        <v>-299.73566722869799</v>
+      </c>
+      <c r="D27">
+        <v>-299.688914299011</v>
+      </c>
+      <c r="E27">
+        <v>-299.588572502136</v>
+      </c>
+      <c r="F27">
+        <v>-299.588572502136</v>
+      </c>
+      <c r="G27">
+        <v>-299.738474845886</v>
+      </c>
+      <c r="H27">
+        <v>-299.588572502136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>127034.75</v>
+      </c>
+      <c r="C28">
+        <v>126999.984375</v>
+      </c>
+      <c r="D28">
+        <v>126999.7734375</v>
+      </c>
+      <c r="E28">
+        <v>126999.984375</v>
+      </c>
+      <c r="F28">
+        <v>126999.8828125</v>
+      </c>
+      <c r="G28">
+        <v>126999.8828125</v>
+      </c>
+      <c r="H28">
+        <v>126999.8828125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>3517554</v>
+      </c>
+      <c r="C29">
+        <v>3517629.5</v>
+      </c>
+      <c r="D29">
+        <v>3517627.75</v>
+      </c>
+      <c r="E29">
+        <v>3517628.25</v>
+      </c>
+      <c r="F29">
+        <v>3517624.75</v>
+      </c>
+      <c r="G29">
+        <v>3517626</v>
+      </c>
+      <c r="H29">
+        <v>3517626.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>18187.400000000001</v>
+      </c>
+      <c r="C48">
+        <v>18222.3</v>
+      </c>
+      <c r="D48">
+        <v>18222.400000000001</v>
+      </c>
+      <c r="E48">
+        <v>18222.2</v>
+      </c>
+      <c r="F48">
+        <v>18222.3</v>
+      </c>
+      <c r="G48">
+        <v>18222.3</v>
+      </c>
+      <c r="H48">
+        <v>18222.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49">
+        <v>1393.7</v>
+      </c>
+      <c r="C49">
+        <v>1318</v>
+      </c>
+      <c r="D49">
+        <v>1319.8</v>
+      </c>
+      <c r="E49">
+        <v>1319.3999999999901</v>
+      </c>
+      <c r="F49">
+        <v>1322.8999999999901</v>
+      </c>
+      <c r="G49">
+        <v>1321.5</v>
+      </c>
+      <c r="H49">
+        <v>1321.3999999999901</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52">
+        <v>12217.7</v>
+      </c>
+      <c r="C52">
+        <v>12217.9</v>
+      </c>
+      <c r="D52">
+        <v>12217.9</v>
+      </c>
+      <c r="E52">
+        <v>12217.9</v>
+      </c>
+      <c r="F52">
+        <v>12217.9</v>
+      </c>
+      <c r="G52">
+        <v>12217.9</v>
+      </c>
+      <c r="H52">
+        <v>12217.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54">
+        <v>1270000</v>
+      </c>
+      <c r="C54">
+        <v>1270000</v>
+      </c>
+      <c r="D54">
+        <v>1270000</v>
+      </c>
+      <c r="E54">
+        <v>1270000</v>
+      </c>
+      <c r="F54">
+        <v>1270000</v>
+      </c>
+      <c r="G54">
+        <v>1270000</v>
+      </c>
+      <c r="H54">
+        <v>1270000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55">
+        <v>35169743</v>
+      </c>
+      <c r="C55">
+        <v>35176298</v>
+      </c>
+      <c r="D55">
+        <v>35176278</v>
+      </c>
+      <c r="E55">
+        <v>35176282</v>
+      </c>
+      <c r="F55">
+        <v>35176248</v>
+      </c>
+      <c r="G55">
+        <v>35176262</v>
+      </c>
+      <c r="H55">
+        <v>35176262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="25.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="11.68359375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>313.048095703125</v>
+      </c>
+      <c r="C3" s="1">
+        <v>313.05072021484301</v>
+      </c>
+      <c r="D3" s="1">
+        <v>313.05072021484301</v>
+      </c>
+      <c r="E3" s="1">
+        <v>313.05072021484301</v>
+      </c>
+      <c r="F3" s="1">
+        <v>313.05072021484301</v>
+      </c>
+      <c r="G3" s="1">
+        <v>313.05072021484301</v>
+      </c>
+      <c r="H3" s="1">
+        <v>313.05072021484301</v>
+      </c>
+      <c r="I3" s="1">
+        <v>313.05072021484301</v>
+      </c>
+      <c r="J3" s="1">
+        <v>313.05072021484301</v>
+      </c>
+      <c r="L3" s="1">
+        <f>B3-C3</f>
+        <v>-2.6245117180110356E-3</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:S3" si="0">C3-D3</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>331.75244140625</v>
+      </c>
+      <c r="C4" s="1">
+        <v>331.752685546875</v>
+      </c>
+      <c r="D4" s="1">
+        <v>331.752685546875</v>
+      </c>
+      <c r="E4" s="1">
+        <v>331.752685546875</v>
+      </c>
+      <c r="F4" s="1">
+        <v>331.752685546875</v>
+      </c>
+      <c r="G4" s="1">
+        <v>331.752685546875</v>
+      </c>
+      <c r="H4" s="1">
+        <v>331.752685546875</v>
+      </c>
+      <c r="I4" s="1">
+        <v>331.752685546875</v>
+      </c>
+      <c r="J4" s="1">
+        <v>331.752685546875</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" ref="L4:L56" si="1">B4-C4</f>
+        <v>-2.44140625E-4</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" ref="M4:M56" si="2">C4-D4</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N56" si="3">D4-E4</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" ref="O4:O56" si="4">E4-F4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" ref="P4:P56" si="5">F4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" ref="Q4:Q56" si="6">G4-H4</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" ref="R4:R56" si="7">H4-I4</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" ref="S4:S56" si="8">I4-J4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>209.520751953125</v>
+      </c>
+      <c r="C5" s="1">
+        <v>210.10388183593699</v>
+      </c>
+      <c r="D5" s="1">
+        <v>210.09197998046801</v>
+      </c>
+      <c r="E5" s="1">
+        <v>210.08874511718699</v>
+      </c>
+      <c r="F5" s="1">
+        <v>210.08843994140599</v>
+      </c>
+      <c r="G5" s="1">
+        <v>210.088134765625</v>
+      </c>
+      <c r="H5" s="1">
+        <v>210.08782958984301</v>
+      </c>
+      <c r="I5" s="1">
+        <v>210.08770751953099</v>
+      </c>
+      <c r="J5" s="1">
+        <v>210.08770751953099</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.58312988281198841</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1901855468977374E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="3"/>
+        <v>3.2348632810226263E-3</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0517578099420462E-4</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0517578099420462E-4</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="6"/>
+        <v>3.0517578198896445E-4</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="7"/>
+        <v>1.2207031201683094E-4</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>752.88336181640602</v>
+      </c>
+      <c r="C6" s="1">
+        <v>752.80938720703102</v>
+      </c>
+      <c r="D6" s="1">
+        <v>752.80914306640602</v>
+      </c>
+      <c r="E6" s="1">
+        <v>752.80914306640602</v>
+      </c>
+      <c r="F6" s="1">
+        <v>752.80914306640602</v>
+      </c>
+      <c r="G6" s="1">
+        <v>752.80828857421795</v>
+      </c>
+      <c r="H6" s="1">
+        <v>752.80828857421795</v>
+      </c>
+      <c r="I6" s="1">
+        <v>752.80828857421795</v>
+      </c>
+      <c r="J6" s="1">
+        <v>752.80828857421795</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="1"/>
+        <v>7.3974609375E-2</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="2"/>
+        <v>2.44140625E-4</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="5"/>
+        <v>8.5449218806843419E-4</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5.015625</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.015625</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5.015625</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5.015625</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5.015625</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5.015625</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5.015625</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5.015625</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5.015625</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1362.572265625</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1362.90234375</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1362.8974609375</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1362.8974609375</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1362.923828125</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1362.8994140625</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1362.90087890625</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1362.90087890625</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1362.90087890625</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.330078125</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8828125E-3</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.63671875E-2</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="5"/>
+        <v>2.44140625E-2</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.46484375E-3</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>195.48718261718699</v>
+      </c>
+      <c r="C9" s="1">
+        <v>195.51892089843699</v>
+      </c>
+      <c r="D9" s="1">
+        <v>195.51892089843699</v>
+      </c>
+      <c r="E9" s="1">
+        <v>195.51892089843699</v>
+      </c>
+      <c r="F9" s="1">
+        <v>195.51892089843699</v>
+      </c>
+      <c r="G9" s="1">
+        <v>195.51892089843699</v>
+      </c>
+      <c r="H9" s="1">
+        <v>195.51892089843699</v>
+      </c>
+      <c r="I9" s="1">
+        <v>195.51892089843699</v>
+      </c>
+      <c r="J9" s="1">
+        <v>195.51892089843699</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="1"/>
+        <v>-3.173828125E-2</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>23.005405426025298</v>
+      </c>
+      <c r="C10" s="1">
+        <v>22.931442260742099</v>
+      </c>
+      <c r="D10" s="1">
+        <v>22.931377410888601</v>
+      </c>
+      <c r="E10" s="1">
+        <v>22.93137550354</v>
+      </c>
+      <c r="F10" s="1">
+        <v>22.930923461913999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>22.930545806884702</v>
+      </c>
+      <c r="H10" s="1">
+        <v>22.930576324462798</v>
+      </c>
+      <c r="I10" s="1">
+        <v>22.9305725097656</v>
+      </c>
+      <c r="J10" s="1">
+        <v>22.930574417114201</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="1"/>
+        <v>7.3963165283199572E-2</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="2"/>
+        <v>6.4849853497861432E-5</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9073486008380769E-6</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="4"/>
+        <v>4.520416260014315E-4</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="5"/>
+        <v>3.77655029296875E-4</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.0517578096578291E-5</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="7"/>
+        <v>3.8146971981234401E-6</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.9073486008380769E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1093.44909667968</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1093.45263671875</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1093.45263671875</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1093.45263671875</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1093.45263671875</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1093.45263671875</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1093.45263671875</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1093.45263671875</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1093.45263671875</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="1"/>
+        <v>-3.5400390700033313E-3</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2828.16772460937</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2828.19140625</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2828.19140625</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2828.19140625</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2828.19140625</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2828.19140625</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2828.19140625</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2828.19140625</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2828.19140625</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.3681640630002221E-2</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1026.82470703125</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1027.06103515625</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1027.05078125</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1027.05126953125</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1027.07373046875</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1027.05322265625</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1027.05322265625</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1027.05322265625</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1027.05322265625</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.236328125</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="2"/>
+        <v>1.025390625E-2</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="3"/>
+        <v>-4.8828125E-4</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.24609375E-2</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="5"/>
+        <v>2.05078125E-2</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>372.55795288085898</v>
+      </c>
+      <c r="C14" s="1">
+        <v>372.56805419921801</v>
+      </c>
+      <c r="D14" s="1">
+        <v>372.56805419921801</v>
+      </c>
+      <c r="E14" s="1">
+        <v>372.56805419921801</v>
+      </c>
+      <c r="F14" s="1">
+        <v>372.56805419921801</v>
+      </c>
+      <c r="G14" s="1">
+        <v>372.56805419921801</v>
+      </c>
+      <c r="H14" s="1">
+        <v>372.56805419921801</v>
+      </c>
+      <c r="I14" s="1">
+        <v>372.56805419921801</v>
+      </c>
+      <c r="J14" s="1">
+        <v>372.56805419921801</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.0101318359033939E-2</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>90.2041015625</v>
+      </c>
+      <c r="C15" s="1">
+        <v>92.9189453125</v>
+      </c>
+      <c r="D15" s="1">
+        <v>92.2880859375</v>
+      </c>
+      <c r="E15" s="1">
+        <v>92.1748046875</v>
+      </c>
+      <c r="F15" s="1">
+        <v>92.328125</v>
+      </c>
+      <c r="G15" s="1">
+        <v>92.2158203125</v>
+      </c>
+      <c r="H15" s="1">
+        <v>92.1865234375</v>
+      </c>
+      <c r="I15" s="1">
+        <v>92.18359375</v>
+      </c>
+      <c r="J15" s="1">
+        <v>92.18359375</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.71484375</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.630859375</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="3"/>
+        <v>0.11328125</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.1533203125</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="5"/>
+        <v>0.1123046875</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="6"/>
+        <v>2.9296875E-2</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="7"/>
+        <v>2.9296875E-3</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>248.70176696777301</v>
+      </c>
+      <c r="C16" s="1">
+        <v>248.56681823730401</v>
+      </c>
+      <c r="D16" s="1">
+        <v>248.56449890136699</v>
+      </c>
+      <c r="E16" s="1">
+        <v>248.564208984375</v>
+      </c>
+      <c r="F16" s="1">
+        <v>248.564193725585</v>
+      </c>
+      <c r="G16" s="1">
+        <v>248.562728881835</v>
+      </c>
+      <c r="H16" s="1">
+        <v>248.56263732910099</v>
+      </c>
+      <c r="I16" s="1">
+        <v>248.56263732910099</v>
+      </c>
+      <c r="J16" s="1">
+        <v>248.56263732910099</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1349487304690058</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="2"/>
+        <v>2.3193359370168309E-3</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="3"/>
+        <v>2.8991699198854803E-4</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5258790000416411E-5</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="5"/>
+        <v>1.46484375E-3</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="6"/>
+        <v>9.1552734005517777E-5</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.1474609375</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.1884765625</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.185546875</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.18359375</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2.1845703125</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2.1845703125</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2.1845703125</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2.1845703125</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2.18359375</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="1"/>
+        <v>-4.1015625E-2</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9296875E-3</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="3"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="4"/>
+        <v>-9.765625E-4</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="8"/>
+        <v>9.765625E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44.546875</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44.69140625</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44.693359375</v>
+      </c>
+      <c r="E18" s="1">
+        <v>44.6884765625</v>
+      </c>
+      <c r="F18" s="1">
+        <v>44.693359375</v>
+      </c>
+      <c r="G18" s="1">
+        <v>44.689453125</v>
+      </c>
+      <c r="H18" s="1">
+        <v>44.6904296875</v>
+      </c>
+      <c r="I18" s="1">
+        <v>44.69140625</v>
+      </c>
+      <c r="J18" s="1">
+        <v>44.69140625</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.14453125</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="3"/>
+        <v>4.8828125E-3</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="4"/>
+        <v>-4.8828125E-3</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="5"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="6"/>
+        <v>-9.765625E-4</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="7"/>
+        <v>-9.765625E-4</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>59.004970550537102</v>
+      </c>
+      <c r="C19" s="1">
+        <v>59.005050659179602</v>
+      </c>
+      <c r="D19" s="1">
+        <v>59.005050659179602</v>
+      </c>
+      <c r="E19" s="1">
+        <v>59.005050659179602</v>
+      </c>
+      <c r="F19" s="1">
+        <v>59.005050659179602</v>
+      </c>
+      <c r="G19" s="1">
+        <v>59.005050659179602</v>
+      </c>
+      <c r="H19" s="1">
+        <v>59.005050659179602</v>
+      </c>
+      <c r="I19" s="1">
+        <v>59.005050659179602</v>
+      </c>
+      <c r="J19" s="1">
+        <v>59.005050659179602</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="1"/>
+        <v>-8.0108642499965299E-5</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1">
+        <v>194.63818359375</v>
+      </c>
+      <c r="C20" s="1">
+        <v>194.84228515625</v>
+      </c>
+      <c r="D20" s="1">
+        <v>194.84228515625</v>
+      </c>
+      <c r="E20" s="1">
+        <v>194.84912109375</v>
+      </c>
+      <c r="F20" s="1">
+        <v>194.84423828125</v>
+      </c>
+      <c r="G20" s="1">
+        <v>194.84423828125</v>
+      </c>
+      <c r="H20" s="1">
+        <v>194.84423828125</v>
+      </c>
+      <c r="I20" s="1">
+        <v>194.84423828125</v>
+      </c>
+      <c r="J20" s="1">
+        <v>194.84423828125</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.2041015625</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="3"/>
+        <v>-6.8359375E-3</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="4"/>
+        <v>4.8828125E-3</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1">
+        <v>210.46533203125</v>
+      </c>
+      <c r="C21" s="1">
+        <v>213.72705078125</v>
+      </c>
+      <c r="D21" s="1">
+        <v>213.69140625</v>
+      </c>
+      <c r="E21" s="1">
+        <v>213.7734375</v>
+      </c>
+      <c r="F21" s="1">
+        <v>213.7060546875</v>
+      </c>
+      <c r="G21" s="1">
+        <v>213.70556640625</v>
+      </c>
+      <c r="H21" s="1">
+        <v>213.70751953125</v>
+      </c>
+      <c r="I21" s="1">
+        <v>213.70556640625</v>
+      </c>
+      <c r="J21" s="1">
+        <v>213.70654296875</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="1"/>
+        <v>-3.26171875</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="2"/>
+        <v>3.564453125E-2</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="3"/>
+        <v>-8.203125E-2</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="4"/>
+        <v>6.73828125E-2</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="5"/>
+        <v>4.8828125E-4</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="7"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="8"/>
+        <v>-9.765625E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1">
+        <v>337.4541015625</v>
+      </c>
+      <c r="C23" s="1">
+        <v>337.75</v>
+      </c>
+      <c r="D23" s="1">
+        <v>337.6884765625</v>
+      </c>
+      <c r="E23" s="1">
+        <v>337.673828125</v>
+      </c>
+      <c r="F23" s="1">
+        <v>337.6787109375</v>
+      </c>
+      <c r="G23" s="1">
+        <v>337.6767578125</v>
+      </c>
+      <c r="H23" s="1">
+        <v>337.673828125</v>
+      </c>
+      <c r="I23" s="1">
+        <v>337.673828125</v>
+      </c>
+      <c r="J23" s="1">
+        <v>337.673828125</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.2958984375</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="2"/>
+        <v>6.15234375E-2</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="3"/>
+        <v>1.46484375E-2</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="4"/>
+        <v>-4.8828125E-3</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="5"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="6"/>
+        <v>2.9296875E-3</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1">
+        <v>27.92529296875</v>
+      </c>
+      <c r="C24" s="1">
+        <v>29.2958984375</v>
+      </c>
+      <c r="D24" s="1">
+        <v>29.383056640625</v>
+      </c>
+      <c r="E24" s="1">
+        <v>29.310546875</v>
+      </c>
+      <c r="F24" s="1">
+        <v>29.3017578125</v>
+      </c>
+      <c r="G24" s="1">
+        <v>29.3076171875</v>
+      </c>
+      <c r="H24" s="1">
+        <v>29.30712890625</v>
+      </c>
+      <c r="I24" s="1">
+        <v>29.30712890625</v>
+      </c>
+      <c r="J24" s="1">
+        <v>29.30712890625</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.37060546875</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="2"/>
+        <v>-8.7158203125E-2</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="3"/>
+        <v>7.2509765625E-2</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="4"/>
+        <v>8.7890625E-3</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="5"/>
+        <v>-5.859375E-3</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="6"/>
+        <v>4.8828125E-4</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1">
+        <v>651.419921875</v>
+      </c>
+      <c r="C25" s="1">
+        <v>651.04638671875</v>
+      </c>
+      <c r="D25" s="1">
+        <v>650.7255859375</v>
+      </c>
+      <c r="E25" s="1">
+        <v>650.5986328125</v>
+      </c>
+      <c r="F25" s="1">
+        <v>650.58935546875</v>
+      </c>
+      <c r="G25" s="1">
+        <v>650.58935546875</v>
+      </c>
+      <c r="H25" s="1">
+        <v>650.58740234375</v>
+      </c>
+      <c r="I25" s="1">
+        <v>650.58447265625</v>
+      </c>
+      <c r="J25" s="1">
+        <v>650.58349609375</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.37353515625</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="2"/>
+        <v>0.32080078125</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="3"/>
+        <v>0.126953125</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="4"/>
+        <v>9.27734375E-3</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="6"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="7"/>
+        <v>2.9296875E-3</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="8"/>
+        <v>9.765625E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>511.511457636952</v>
+      </c>
+      <c r="C27" s="1">
+        <v>510.966047480702</v>
+      </c>
+      <c r="D27" s="1">
+        <v>510.958234980702</v>
+      </c>
+      <c r="E27" s="1">
+        <v>510.958234980702</v>
+      </c>
+      <c r="F27" s="1">
+        <v>510.958234980702</v>
+      </c>
+      <c r="G27" s="1">
+        <v>510.958234980702</v>
+      </c>
+      <c r="H27" s="1">
+        <v>510.958234980702</v>
+      </c>
+      <c r="I27" s="1">
+        <v>510.958234980702</v>
+      </c>
+      <c r="J27" s="1">
+        <v>510.958234980702</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="1"/>
+        <v>0.54541015625</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="2"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1359.72748852521</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1358.54535961896</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1358.51557446271</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1358.53705883771</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1358.53266430646</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1358.53266430646</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1358.53461743146</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1358.53461743146</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1358.53461743146</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="1"/>
+        <v>1.18212890625</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="2"/>
+        <v>2.978515625E-2</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.1484375E-2</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="4"/>
+        <v>4.39453125E-3</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="1">
+        <v>126951.234375</v>
+      </c>
+      <c r="C29" s="1">
+        <v>126999.5078125</v>
+      </c>
+      <c r="D29" s="1">
+        <v>127000</v>
+      </c>
+      <c r="E29" s="1">
+        <v>127000</v>
+      </c>
+      <c r="F29" s="1">
+        <v>127000</v>
+      </c>
+      <c r="G29" s="1">
+        <v>127000</v>
+      </c>
+      <c r="H29" s="1">
+        <v>127000</v>
+      </c>
+      <c r="I29" s="1">
+        <v>127000</v>
+      </c>
+      <c r="J29" s="1">
+        <v>127000</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="1"/>
+        <v>-48.2734375</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.4921875</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1">
+        <v>42031.74609375</v>
+      </c>
+      <c r="C30" s="1">
+        <v>42656.44140625</v>
+      </c>
+      <c r="D30" s="1">
+        <v>42664.375</v>
+      </c>
+      <c r="E30" s="1">
+        <v>42663.5</v>
+      </c>
+      <c r="F30" s="1">
+        <v>42663.296875</v>
+      </c>
+      <c r="G30" s="1">
+        <v>42663.296875</v>
+      </c>
+      <c r="H30" s="1">
+        <v>42663.19921875</v>
+      </c>
+      <c r="I30" s="1">
+        <v>42663.19921875</v>
+      </c>
+      <c r="J30" s="1">
+        <v>42663.19921875</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="1"/>
+        <v>-624.6953125</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="2"/>
+        <v>-7.93359375</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="3"/>
+        <v>0.875</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="4"/>
+        <v>0.203125</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="6"/>
+        <v>9.765625E-2</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="1">
+        <v>5052.5</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5006.2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>5005.7</v>
+      </c>
+      <c r="E49" s="1">
+        <v>5005.7</v>
+      </c>
+      <c r="F49" s="1">
+        <v>5005.7</v>
+      </c>
+      <c r="G49" s="1">
+        <v>5005.7</v>
+      </c>
+      <c r="H49" s="1">
+        <v>5005.7</v>
+      </c>
+      <c r="I49" s="1">
+        <v>5005.7</v>
+      </c>
+      <c r="J49" s="1">
+        <v>5005.7</v>
+      </c>
+      <c r="L49" s="1">
+        <f t="shared" si="1"/>
+        <v>46.300000000000182</v>
+      </c>
+      <c r="M49" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="N49" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="1">
+        <v>5840.9</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5211.2999999999902</v>
+      </c>
+      <c r="D50" s="1">
+        <v>5203.2999999999902</v>
+      </c>
+      <c r="E50" s="1">
+        <v>5204.2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>5204.3999999999996</v>
+      </c>
+      <c r="G50" s="1">
+        <v>5204.3999999999996</v>
+      </c>
+      <c r="H50" s="1">
+        <v>5204.5</v>
+      </c>
+      <c r="I50" s="1">
+        <v>5204.5</v>
+      </c>
+      <c r="J50" s="1">
+        <v>5204.5</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" si="1"/>
+        <v>629.60000000000946</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N50" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.90000000000964064</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.1999999999998181</v>
+      </c>
+      <c r="P50" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.1000000000003638</v>
+      </c>
+      <c r="R50" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P51" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="1">
+        <v>4101.7</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3972.1</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3970.7</v>
+      </c>
+      <c r="E53" s="1">
+        <v>3970.6</v>
+      </c>
+      <c r="F53" s="1">
+        <v>3970.7</v>
+      </c>
+      <c r="G53" s="1">
+        <v>3970.7</v>
+      </c>
+      <c r="H53" s="1">
+        <v>3970.7</v>
+      </c>
+      <c r="I53" s="1">
+        <v>3970.7</v>
+      </c>
+      <c r="J53" s="1">
+        <v>3970.7</v>
+      </c>
+      <c r="L53" s="1">
+        <f t="shared" si="1"/>
+        <v>129.59999999999991</v>
+      </c>
+      <c r="M53" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4000000000000909</v>
+      </c>
+      <c r="N53" s="1">
+        <f t="shared" si="3"/>
+        <v>9.9999999999909051E-2</v>
+      </c>
+      <c r="O53" s="1">
+        <f t="shared" si="4"/>
+        <v>-9.9999999999909051E-2</v>
+      </c>
+      <c r="P53" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S53" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="L55" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S55" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="1">
+        <v>420420</v>
+      </c>
+      <c r="C56" s="1">
+        <v>426544</v>
+      </c>
+      <c r="D56" s="1">
+        <v>426611</v>
+      </c>
+      <c r="E56" s="1">
+        <v>426602</v>
+      </c>
+      <c r="F56" s="1">
+        <v>426600</v>
+      </c>
+      <c r="G56" s="1">
+        <v>426600</v>
+      </c>
+      <c r="H56" s="1">
+        <v>426599</v>
+      </c>
+      <c r="I56" s="1">
+        <v>426599</v>
+      </c>
+      <c r="J56" s="1">
+        <v>426599</v>
+      </c>
+      <c r="L56" s="1">
+        <f t="shared" si="1"/>
+        <v>-6124</v>
+      </c>
+      <c r="M56" s="1">
+        <f t="shared" si="2"/>
+        <v>-67</v>
+      </c>
+      <c r="N56" s="1">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="O56" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P56" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R56" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="1">
+        <f>B55/10-B29</f>
+        <v>48.765625</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" ref="C58:J58" si="9">C55/10-C29</f>
+        <v>0.4921875</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="1">
+        <f>B56/10-B30</f>
+        <v>10.25390625</v>
+      </c>
+      <c r="C59" s="1">
+        <f>C56/10-C30</f>
+        <v>-2.0414062499985448</v>
+      </c>
+      <c r="D59" s="1">
+        <f>D56/10-D30</f>
+        <v>-3.2750000000014552</v>
+      </c>
+      <c r="E59" s="1">
+        <f>E56/10-E30</f>
+        <v>-3.3000000000029104</v>
+      </c>
+      <c r="F59" s="1">
+        <f>F56/10-F30</f>
+        <v>-3.296875</v>
+      </c>
+      <c r="G59" s="1">
+        <f>G56/10-G30</f>
+        <v>-3.296875</v>
+      </c>
+      <c r="H59" s="1">
+        <f>H56/10-H30</f>
+        <v>-3.2992187499985448</v>
+      </c>
+      <c r="I59" s="1">
+        <f>I56/10-I30</f>
+        <v>-3.2992187499985448</v>
+      </c>
+      <c r="J59" s="1">
+        <f>J56/10-J30</f>
+        <v>-3.2992187499985448</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:S56">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L56">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58:J59">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
@@ -12835,110 +17980,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="2" max="2" width="11.734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1015625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="1">
-        <v>127042.8828125</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="1">
-        <v>127007.4375</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1270000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="1">
-        <v>127007.125</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1270000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="1">
-        <v>127007.3359375</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1270000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="1">
-        <v>127007.234375</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1270000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="1">
-        <v>127007.234375</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1270000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="1">
-        <v>127007.234375</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1270000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="1">
-        <v>127007.234375</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1270000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="1">
-        <v>127007.234375</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1270000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="1">
-        <v>127007.234375</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1270000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/sagehen_3lay_modsim/Ocsillations_2.xlsx
+++ b/sagehen_3lay_modsim/Ocsillations_2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22998" windowHeight="8340" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="8340" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="9-17-1988_Conv_Issues_LAK_Vol" sheetId="4" r:id="rId4"/>
     <sheet name="Follow-up; lowered  outlet elev" sheetId="5" r:id="rId5"/>
     <sheet name="3-17-1993_NonConvergence" sheetId="6" r:id="rId6"/>
+    <sheet name="3-17-1993_Recheck" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="73">
   <si>
     <t>EXCHANGE</t>
   </si>
@@ -280,6 +281,9 @@
   <si>
     <t>[21]  Diversion to Municipal</t>
   </si>
+  <si>
+    <t xml:space="preserve">The reason I don't think this iteration did anything is because the minimum reservoir volume I set in the MODSIM.xy file was too small, I'm going to retry with a slightly larger value.  </t>
+  </si>
 </sst>
 </file>
 
@@ -365,7 +369,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -503,16 +527,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFF8955E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -837,18 +851,18 @@
       <selection activeCell="D50" sqref="D50:I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.68359375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.68359375" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="9.15625" style="2"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -898,7 +912,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -956,7 +970,7 @@
       </c>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1013,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1070,7 +1084,7 @@
         <v>6.05029296875</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1127,7 +1141,7 @@
         <v>1.904296875E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1184,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1241,7 +1255,7 @@
         <v>-0.17749023436999778</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1298,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1355,7 +1369,7 @@
         <v>3.283691405999889E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1412,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1469,7 +1483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1526,7 +1540,7 @@
         <v>-0.1669921875</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1583,7 +1597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1640,7 +1654,7 @@
         <v>-2.0771484375</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1697,7 +1711,7 @@
         <v>1.2451171880002221E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1754,7 +1768,7 @@
         <v>-0.87890625</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1811,7 +1825,7 @@
         <v>0.7099609375</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1868,7 +1882,7 @@
         <v>2.44140625E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1925,7 +1939,7 @@
         <v>-0.11087036132801131</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1982,7 +1996,7 @@
         <v>14.17041015625</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2039,7 +2053,7 @@
         <v>31.14892578125</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -2096,7 +2110,7 @@
         <v>-15.132751464842954</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -2153,7 +2167,7 @@
         <v>0.630859375</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2210,7 +2224,7 @@
         <v>-20.94189453125</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -2251,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2308,7 +2322,7 @@
         <v>9.9609375E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -2365,7 +2379,7 @@
         <v>-0.35107421875</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2422,7 +2436,7 @@
         <v>-12.5</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -2479,7 +2493,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -2520,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -2577,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -2634,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -2691,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2748,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2805,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -2862,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -2919,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2976,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -3033,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -3090,7 +3104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -3147,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -3204,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -3261,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -3318,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -3375,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -3432,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -3489,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -3546,7 +3560,7 @@
         <v>12.599999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -3603,7 +3617,7 @@
         <v>-2393.6000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>41</v>
       </c>
@@ -3660,7 +3674,7 @@
         <v>-2362.8999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -3717,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -3774,7 +3788,7 @@
         <v>0.70000000000027285</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -3833,10 +3847,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:R53">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3857,22 +3871,22 @@
       <selection activeCell="AT34" sqref="AS34:AT34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="76" width="3.26171875" customWidth="1"/>
+    <col min="1" max="76" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="40:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="40:70" x14ac:dyDescent="0.25">
       <c r="BJ18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="40:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="40:70" x14ac:dyDescent="0.25">
       <c r="BK19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="40:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="40:70" x14ac:dyDescent="0.25">
       <c r="BL20">
         <v>1</v>
       </c>
@@ -3880,7 +3894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="40:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="40:70" x14ac:dyDescent="0.25">
       <c r="BL21">
         <v>1</v>
       </c>
@@ -3888,22 +3902,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="40:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="40:70" x14ac:dyDescent="0.25">
       <c r="BM22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="40:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="40:70" x14ac:dyDescent="0.25">
       <c r="BM23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="40:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="40:70" x14ac:dyDescent="0.25">
       <c r="BN24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="40:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="40:70" x14ac:dyDescent="0.25">
       <c r="AW25">
         <v>4</v>
       </c>
@@ -3911,7 +3925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="40:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="40:70" x14ac:dyDescent="0.25">
       <c r="AX26">
         <v>4</v>
       </c>
@@ -3919,7 +3933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="40:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="40:70" x14ac:dyDescent="0.25">
       <c r="AY27">
         <v>4</v>
       </c>
@@ -3927,7 +3941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="40:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="40:70" x14ac:dyDescent="0.25">
       <c r="AY28">
         <v>4</v>
       </c>
@@ -3935,7 +3949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="40:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="40:70" x14ac:dyDescent="0.25">
       <c r="AZ29">
         <v>4</v>
       </c>
@@ -3943,7 +3957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="40:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="40:70" x14ac:dyDescent="0.25">
       <c r="AZ30">
         <v>4</v>
       </c>
@@ -3951,7 +3965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="40:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="40:70" x14ac:dyDescent="0.25">
       <c r="AZ31">
         <v>4</v>
       </c>
@@ -3959,7 +3973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="40:70" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="40:70" x14ac:dyDescent="0.25">
       <c r="AN32">
         <v>5</v>
       </c>
@@ -3979,7 +3993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="13:76" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="13:76" x14ac:dyDescent="0.25">
       <c r="AM33">
         <v>5</v>
       </c>
@@ -3993,7 +4007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="13:76" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="13:76" x14ac:dyDescent="0.25">
       <c r="AL34">
         <v>5</v>
       </c>
@@ -4016,7 +4030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="13:76" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="13:76" x14ac:dyDescent="0.25">
       <c r="AI35">
         <v>7</v>
       </c>
@@ -4045,7 +4059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="13:76" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="13:76" x14ac:dyDescent="0.25">
       <c r="AC36">
         <v>9</v>
       </c>
@@ -4086,7 +4100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="13:76" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="13:76" x14ac:dyDescent="0.25">
       <c r="Z37">
         <v>9</v>
       </c>
@@ -4124,7 +4138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="13:76" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="13:76" x14ac:dyDescent="0.25">
       <c r="AF38">
         <v>12</v>
       </c>
@@ -4165,7 +4179,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="13:76" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="13:76" x14ac:dyDescent="0.25">
       <c r="AE39">
         <v>12</v>
       </c>
@@ -4209,7 +4223,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="13:76" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="13:76" x14ac:dyDescent="0.25">
       <c r="AD40">
         <v>12</v>
       </c>
@@ -4241,7 +4255,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="13:76" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="13:76" x14ac:dyDescent="0.25">
       <c r="AC41">
         <v>12</v>
       </c>
@@ -4261,7 +4275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="13:76" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="13:76" x14ac:dyDescent="0.25">
       <c r="X42">
         <v>12</v>
       </c>
@@ -4293,7 +4307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="13:76" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="13:76" x14ac:dyDescent="0.25">
       <c r="W43">
         <v>12</v>
       </c>
@@ -4313,7 +4327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="13:76" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="13:76" x14ac:dyDescent="0.25">
       <c r="V44">
         <v>12</v>
       </c>
@@ -4330,7 +4344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="13:76" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="13:76" x14ac:dyDescent="0.25">
       <c r="U45">
         <v>12</v>
       </c>
@@ -4347,7 +4361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="13:76" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="13:76" x14ac:dyDescent="0.25">
       <c r="Q46">
         <v>12</v>
       </c>
@@ -4373,7 +4387,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="13:76" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="13:76" x14ac:dyDescent="0.25">
       <c r="O47">
         <v>12</v>
       </c>
@@ -4390,7 +4404,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="13:76" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="13:76" x14ac:dyDescent="0.25">
       <c r="M48">
         <v>12</v>
       </c>
@@ -4407,7 +4421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="11:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="11:73" x14ac:dyDescent="0.25">
       <c r="L49">
         <v>12</v>
       </c>
@@ -4421,7 +4435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="11:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="11:73" x14ac:dyDescent="0.25">
       <c r="L50">
         <v>12</v>
       </c>
@@ -4435,7 +4449,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="11:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="11:73" x14ac:dyDescent="0.25">
       <c r="K51">
         <v>12</v>
       </c>
@@ -4449,7 +4463,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="11:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="11:73" x14ac:dyDescent="0.25">
       <c r="AL52">
         <v>10</v>
       </c>
@@ -4460,7 +4474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="11:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="11:73" x14ac:dyDescent="0.25">
       <c r="AL53">
         <v>10</v>
       </c>
@@ -4468,7 +4482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="11:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="11:73" x14ac:dyDescent="0.25">
       <c r="AL54">
         <v>10</v>
       </c>
@@ -4476,7 +4490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="11:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="11:73" x14ac:dyDescent="0.25">
       <c r="AL55">
         <v>10</v>
       </c>
@@ -4484,17 +4498,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="11:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="11:73" x14ac:dyDescent="0.25">
       <c r="AL56">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="11:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="11:73" x14ac:dyDescent="0.25">
       <c r="AK57">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="11:73" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="11:73" x14ac:dyDescent="0.25">
       <c r="AK58">
         <v>10</v>
       </c>
@@ -4512,16 +4526,16 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="14.1015625" customWidth="1"/>
-    <col min="3" max="10" width="12.26171875" customWidth="1"/>
-    <col min="11" max="11" width="11.1015625" customWidth="1"/>
-    <col min="12" max="13" width="12.26171875" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="13" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
         <v>63</v>
       </c>
@@ -4535,7 +4549,7 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
@@ -4606,7 +4620,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4647,7 +4661,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4732,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4817,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4902,7 +4916,7 @@
         <v>7.1716308590197286E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4987,7 +5001,7 @@
         <v>-3.9672851499972239E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -5072,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -5157,7 +5171,7 @@
         <v>7.8125E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -5242,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5327,7 +5341,7 @@
         <v>-5.8746337889203915E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5412,7 +5426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5497,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5582,7 +5596,7 @@
         <v>1.3671875E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -5667,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -5752,7 +5766,7 @@
         <v>0.185546875</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -5837,7 +5851,7 @@
         <v>-3.6621093698840923E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -5922,7 +5936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -6007,7 +6021,7 @@
         <v>-1.953125E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -6092,7 +6106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -6177,7 +6191,7 @@
         <v>-1.171875E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -6262,7 +6276,7 @@
         <v>1.2207031306843419E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -6347,7 +6361,7 @@
         <v>3.0517578011313162E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -6432,7 +6446,7 @@
         <v>1.3671875E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -6517,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -6602,7 +6616,7 @@
         <v>1.3671875E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -6636,7 +6650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -6721,7 +6735,7 @@
         <v>-3.90625E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -6806,7 +6820,7 @@
         <v>-3.0517578011313162E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -6891,7 +6905,7 @@
         <v>0.4921875</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -6976,7 +6990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -7010,7 +7024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -7095,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -7180,7 +7194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -7265,7 +7279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -7350,7 +7364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -7435,7 +7449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -7520,7 +7534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -7605,7 +7619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -7690,7 +7704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -7775,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -7860,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -7945,7 +7959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -8030,7 +8044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -8115,7 +8129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -8200,7 +8214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -8285,7 +8299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -8370,7 +8384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -8455,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -8540,7 +8554,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -8625,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -8710,7 +8724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -8795,7 +8809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -8880,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -8970,10 +8984,10 @@
     <mergeCell ref="B1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="O4:Y55">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8990,15 +9004,15 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.68359375" customWidth="1"/>
-    <col min="2" max="11" width="12.26171875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.20703125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="12.734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
         <v>63</v>
       </c>
@@ -9012,7 +9026,7 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
@@ -9044,7 +9058,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -9106,7 +9120,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -9177,7 +9191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -9248,7 +9262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -9319,7 +9333,7 @@
         <v>-1.5258789098027137E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -9390,7 +9404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -9461,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -9532,7 +9546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -9603,7 +9617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -9674,7 +9688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -9745,7 +9759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -9816,7 +9830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -9887,7 +9901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -9958,7 +9972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -10029,7 +10043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -10100,7 +10114,7 @@
         <v>-1.5258789005656581E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -10171,7 +10185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -10242,7 +10256,7 @@
         <v>9.765625E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -10313,7 +10327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -10384,7 +10398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -10455,7 +10469,7 @@
         <v>1.3427734369315658E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -10526,7 +10540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -10597,7 +10611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -10668,7 +10682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -10739,7 +10753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -10783,7 +10797,7 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -10854,7 +10868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -10925,7 +10939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>21</v>
       </c>
@@ -10996,7 +11010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -11067,7 +11081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -11111,7 +11125,7 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -11182,7 +11196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -11253,7 +11267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -11324,7 +11338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -11395,7 +11409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -11466,7 +11480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -11537,7 +11551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -11608,7 +11622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -11679,7 +11693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -11750,7 +11764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -11821,7 +11835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -11892,7 +11906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -11963,7 +11977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -12034,7 +12048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -12105,7 +12119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -12176,7 +12190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -12247,7 +12261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -12318,7 +12332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -12389,7 +12403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -12460,7 +12474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -12531,7 +12545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -12602,7 +12616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -12673,7 +12687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -12744,7 +12758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>65</v>
       </c>
@@ -12815,7 +12829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -12886,7 +12900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M58" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -12924,7 +12938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="F59" s="1"/>
@@ -12939,10 +12953,10 @@
     <mergeCell ref="B1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="M4:U58">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12959,15 +12973,15 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.26171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26171875" customWidth="1"/>
-    <col min="5" max="7" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12993,7 +13007,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13019,7 +13033,7 @@
         <v>245.21145629882801</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -13045,7 +13059,7 @@
         <v>56.372676849365199</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -13071,7 +13085,7 @@
         <v>-61.454116821288999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -13097,7 +13111,7 @@
         <v>382.21212768554602</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -13123,7 +13137,7 @@
         <v>6.6650390625E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -13149,7 +13163,7 @@
         <v>920.87890625</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -13175,7 +13189,7 @@
         <v>163.16015625</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -13201,7 +13215,7 @@
         <v>49.088699340820298</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -13227,7 +13241,7 @@
         <v>633.57806396484295</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -13253,7 +13267,7 @@
         <v>2008.47985839843</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -13279,7 +13293,7 @@
         <v>585.962890625</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -13305,7 +13319,7 @@
         <v>52.073040008544901</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -13331,7 +13345,7 @@
         <v>-34.966796875</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -13357,7 +13371,7 @@
         <v>226.872146606445</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -13383,7 +13397,7 @@
         <v>7.296875</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -13409,7 +13423,7 @@
         <v>45.6572265625</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -13435,7 +13449,7 @@
         <v>247.27569580078099</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -13461,7 +13475,7 @@
         <v>272.822265625</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -13487,7 +13501,7 @@
         <v>702.01940917968705</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -13513,7 +13527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -13539,7 +13553,7 @@
         <v>505.205078125</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -13565,7 +13579,7 @@
         <v>-217.869140625</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -13591,7 +13605,7 @@
         <v>816.697265625</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -13614,7 +13628,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -13640,7 +13654,7 @@
         <v>1351.956745103</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -13666,7 +13680,7 @@
         <v>-299.588572502136</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -13692,7 +13706,7 @@
         <v>126999.8828125</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -13718,7 +13732,7 @@
         <v>3517626.25</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -13741,7 +13755,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -13767,7 +13781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -13793,7 +13807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -13819,7 +13833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -13845,7 +13859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -13871,7 +13885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -13897,7 +13911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -13923,7 +13937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -13949,7 +13963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -13975,7 +13989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -14001,7 +14015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -14027,7 +14041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -14053,7 +14067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -14079,7 +14093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -14105,7 +14119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -14131,7 +14145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -14157,7 +14171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -14183,7 +14197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -14209,7 +14223,7 @@
         <v>18222.3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -14235,7 +14249,7 @@
         <v>1321.3999999999901</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -14261,7 +14275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -14287,7 +14301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -14313,7 +14327,7 @@
         <v>12217.9</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -14339,7 +14353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -14365,7 +14379,7 @@
         <v>1270000</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -14401,17 +14415,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>24</v>
       </c>
@@ -14440,7 +14454,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -14496,7 +14510,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -14560,7 +14574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -14624,7 +14638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -14688,7 +14702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -14752,7 +14766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -14816,7 +14830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -14880,7 +14894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -14944,7 +14958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -15008,7 +15022,7 @@
         <v>-1.9073486008380769E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -15072,7 +15086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -15136,7 +15150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -15200,7 +15214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -15264,7 +15278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -15328,7 +15342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -15392,7 +15406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -15456,7 +15470,7 @@
         <v>9.765625E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -15520,7 +15534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -15584,7 +15598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -15648,7 +15662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -15712,7 +15726,7 @@
         <v>-9.765625E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -15776,7 +15790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -15840,7 +15854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -15904,7 +15918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -15968,7 +15982,7 @@
         <v>9.765625E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -15990,7 +16004,7 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -16054,7 +16068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -16118,7 +16132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -16182,7 +16196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -16246,7 +16260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -16268,7 +16282,7 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -16332,7 +16346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -16396,7 +16410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -16460,7 +16474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -16524,7 +16538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -16588,7 +16602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -16652,7 +16666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -16716,7 +16730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -16780,7 +16794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -16844,7 +16858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -16908,7 +16922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -16972,7 +16986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -17036,7 +17050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -17100,7 +17114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -17164,7 +17178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -17228,7 +17242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -17292,7 +17306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -17356,7 +17370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -17420,7 +17434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -17484,7 +17498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -17548,7 +17562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -17612,7 +17626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>71</v>
       </c>
@@ -17676,7 +17690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -17740,7 +17754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -17804,7 +17818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -17868,7 +17882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <f>B55/10-B29</f>
         <v>48.765625</v>
@@ -17906,70 +17920,1943 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <f>B56/10-B30</f>
         <v>10.25390625</v>
       </c>
       <c r="C59" s="1">
-        <f>C56/10-C30</f>
+        <f t="shared" ref="C59:J59" si="10">C56/10-C30</f>
         <v>-2.0414062499985448</v>
       </c>
       <c r="D59" s="1">
-        <f>D56/10-D30</f>
+        <f t="shared" si="10"/>
         <v>-3.2750000000014552</v>
       </c>
       <c r="E59" s="1">
-        <f>E56/10-E30</f>
+        <f t="shared" si="10"/>
         <v>-3.3000000000029104</v>
       </c>
       <c r="F59" s="1">
-        <f>F56/10-F30</f>
+        <f t="shared" si="10"/>
         <v>-3.296875</v>
       </c>
       <c r="G59" s="1">
-        <f>G56/10-G30</f>
+        <f t="shared" si="10"/>
         <v>-3.296875</v>
       </c>
       <c r="H59" s="1">
-        <f>H56/10-H30</f>
+        <f t="shared" si="10"/>
         <v>-3.2992187499985448</v>
       </c>
       <c r="I59" s="1">
-        <f>I56/10-I30</f>
+        <f t="shared" si="10"/>
         <v>-3.2992187499985448</v>
       </c>
       <c r="J59" s="1">
-        <f>J56/10-J30</f>
+        <f t="shared" si="10"/>
         <v>-3.2992187499985448</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:S56">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L56">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:J59">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M58" sqref="M58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>313.048095703125</v>
+      </c>
+      <c r="C3" s="1">
+        <v>313.05072021484301</v>
+      </c>
+      <c r="D3" s="1">
+        <v>313.05072021484301</v>
+      </c>
+      <c r="E3" s="1">
+        <v>313.05072021484301</v>
+      </c>
+      <c r="F3" s="1">
+        <v>313.05072021484301</v>
+      </c>
+      <c r="G3" s="1">
+        <v>313.05072021484301</v>
+      </c>
+      <c r="H3" s="1">
+        <v>313.05072021484301</v>
+      </c>
+      <c r="I3" s="1">
+        <v>313.05072021484301</v>
+      </c>
+      <c r="J3" s="1">
+        <v>313.05072021484301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>331.75244140625</v>
+      </c>
+      <c r="C4" s="1">
+        <v>331.752685546875</v>
+      </c>
+      <c r="D4" s="1">
+        <v>331.752685546875</v>
+      </c>
+      <c r="E4" s="1">
+        <v>331.752685546875</v>
+      </c>
+      <c r="F4" s="1">
+        <v>331.752685546875</v>
+      </c>
+      <c r="G4" s="1">
+        <v>331.752685546875</v>
+      </c>
+      <c r="H4" s="1">
+        <v>331.752685546875</v>
+      </c>
+      <c r="I4" s="1">
+        <v>331.752685546875</v>
+      </c>
+      <c r="J4" s="1">
+        <v>331.752685546875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>209.520751953125</v>
+      </c>
+      <c r="C5" s="1">
+        <v>210.10388183593699</v>
+      </c>
+      <c r="D5" s="1">
+        <v>210.09197998046801</v>
+      </c>
+      <c r="E5" s="1">
+        <v>210.08874511718699</v>
+      </c>
+      <c r="F5" s="1">
+        <v>210.08843994140599</v>
+      </c>
+      <c r="G5" s="1">
+        <v>210.088134765625</v>
+      </c>
+      <c r="H5" s="1">
+        <v>210.08782958984301</v>
+      </c>
+      <c r="I5" s="1">
+        <v>210.08770751953099</v>
+      </c>
+      <c r="J5" s="1">
+        <v>210.08770751953099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>752.88336181640602</v>
+      </c>
+      <c r="C6" s="1">
+        <v>752.80938720703102</v>
+      </c>
+      <c r="D6" s="1">
+        <v>752.80914306640602</v>
+      </c>
+      <c r="E6" s="1">
+        <v>752.80914306640602</v>
+      </c>
+      <c r="F6" s="1">
+        <v>752.80914306640602</v>
+      </c>
+      <c r="G6" s="1">
+        <v>752.80828857421795</v>
+      </c>
+      <c r="H6" s="1">
+        <v>752.80828857421795</v>
+      </c>
+      <c r="I6" s="1">
+        <v>752.80828857421795</v>
+      </c>
+      <c r="J6" s="1">
+        <v>752.80828857421795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5.015625</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.015625</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5.015625</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5.015625</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5.015625</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5.015625</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5.015625</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5.015625</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5.015625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1362.572265625</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1362.90234375</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1362.8974609375</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1362.8974609375</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1362.923828125</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1362.8994140625</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1362.90087890625</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1362.90087890625</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1362.90087890625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>195.48718261718699</v>
+      </c>
+      <c r="C9" s="1">
+        <v>195.51892089843699</v>
+      </c>
+      <c r="D9" s="1">
+        <v>195.51892089843699</v>
+      </c>
+      <c r="E9" s="1">
+        <v>195.51892089843699</v>
+      </c>
+      <c r="F9" s="1">
+        <v>195.51892089843699</v>
+      </c>
+      <c r="G9" s="1">
+        <v>195.51892089843699</v>
+      </c>
+      <c r="H9" s="1">
+        <v>195.51892089843699</v>
+      </c>
+      <c r="I9" s="1">
+        <v>195.51892089843699</v>
+      </c>
+      <c r="J9" s="1">
+        <v>195.51892089843699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>23.005405426025298</v>
+      </c>
+      <c r="C10" s="1">
+        <v>22.931442260742099</v>
+      </c>
+      <c r="D10" s="1">
+        <v>22.931377410888601</v>
+      </c>
+      <c r="E10" s="1">
+        <v>22.93137550354</v>
+      </c>
+      <c r="F10" s="1">
+        <v>22.930923461913999</v>
+      </c>
+      <c r="G10" s="1">
+        <v>22.930545806884702</v>
+      </c>
+      <c r="H10" s="1">
+        <v>22.930576324462798</v>
+      </c>
+      <c r="I10" s="1">
+        <v>22.9305725097656</v>
+      </c>
+      <c r="J10" s="1">
+        <v>22.930574417114201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1093.44909667968</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1093.45263671875</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1093.45263671875</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1093.45263671875</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1093.45263671875</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1093.45263671875</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1093.45263671875</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1093.45263671875</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1093.45263671875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2828.16772460937</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2828.19140625</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2828.19140625</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2828.19140625</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2828.19140625</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2828.19140625</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2828.19140625</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2828.19140625</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2828.19140625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1026.82470703125</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1027.06103515625</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1027.05078125</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1027.05126953125</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1027.07373046875</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1027.05322265625</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1027.05322265625</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1027.05322265625</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1027.05322265625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>372.55795288085898</v>
+      </c>
+      <c r="C14" s="1">
+        <v>372.56805419921801</v>
+      </c>
+      <c r="D14" s="1">
+        <v>372.56805419921801</v>
+      </c>
+      <c r="E14" s="1">
+        <v>372.56805419921801</v>
+      </c>
+      <c r="F14" s="1">
+        <v>372.56805419921801</v>
+      </c>
+      <c r="G14" s="1">
+        <v>372.56805419921801</v>
+      </c>
+      <c r="H14" s="1">
+        <v>372.56805419921801</v>
+      </c>
+      <c r="I14" s="1">
+        <v>372.56805419921801</v>
+      </c>
+      <c r="J14" s="1">
+        <v>372.56805419921801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>90.2041015625</v>
+      </c>
+      <c r="C15" s="1">
+        <v>92.9189453125</v>
+      </c>
+      <c r="D15" s="1">
+        <v>92.2880859375</v>
+      </c>
+      <c r="E15" s="1">
+        <v>92.1748046875</v>
+      </c>
+      <c r="F15" s="1">
+        <v>92.328125</v>
+      </c>
+      <c r="G15" s="1">
+        <v>92.2158203125</v>
+      </c>
+      <c r="H15" s="1">
+        <v>92.1865234375</v>
+      </c>
+      <c r="I15" s="1">
+        <v>92.18359375</v>
+      </c>
+      <c r="J15" s="1">
+        <v>92.18359375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>248.70176696777301</v>
+      </c>
+      <c r="C16" s="1">
+        <v>248.56681823730401</v>
+      </c>
+      <c r="D16" s="1">
+        <v>248.56449890136699</v>
+      </c>
+      <c r="E16" s="1">
+        <v>248.564208984375</v>
+      </c>
+      <c r="F16" s="1">
+        <v>248.564193725585</v>
+      </c>
+      <c r="G16" s="1">
+        <v>248.562728881835</v>
+      </c>
+      <c r="H16" s="1">
+        <v>248.56263732910099</v>
+      </c>
+      <c r="I16" s="1">
+        <v>248.56263732910099</v>
+      </c>
+      <c r="J16" s="1">
+        <v>248.56263732910099</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.1474609375</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.1884765625</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.185546875</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.18359375</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2.1845703125</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2.1845703125</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2.1845703125</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2.1845703125</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2.18359375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44.546875</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44.69140625</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44.693359375</v>
+      </c>
+      <c r="E18" s="1">
+        <v>44.6884765625</v>
+      </c>
+      <c r="F18" s="1">
+        <v>44.693359375</v>
+      </c>
+      <c r="G18" s="1">
+        <v>44.689453125</v>
+      </c>
+      <c r="H18" s="1">
+        <v>44.6904296875</v>
+      </c>
+      <c r="I18" s="1">
+        <v>44.69140625</v>
+      </c>
+      <c r="J18" s="1">
+        <v>44.69140625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>59.004970550537102</v>
+      </c>
+      <c r="C19" s="1">
+        <v>59.005050659179602</v>
+      </c>
+      <c r="D19" s="1">
+        <v>59.005050659179602</v>
+      </c>
+      <c r="E19" s="1">
+        <v>59.005050659179602</v>
+      </c>
+      <c r="F19" s="1">
+        <v>59.005050659179602</v>
+      </c>
+      <c r="G19" s="1">
+        <v>59.005050659179602</v>
+      </c>
+      <c r="H19" s="1">
+        <v>59.005050659179602</v>
+      </c>
+      <c r="I19" s="1">
+        <v>59.005050659179602</v>
+      </c>
+      <c r="J19" s="1">
+        <v>59.005050659179602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1">
+        <v>194.63818359375</v>
+      </c>
+      <c r="C20" s="1">
+        <v>194.84228515625</v>
+      </c>
+      <c r="D20" s="1">
+        <v>194.84228515625</v>
+      </c>
+      <c r="E20" s="1">
+        <v>194.84912109375</v>
+      </c>
+      <c r="F20" s="1">
+        <v>194.84423828125</v>
+      </c>
+      <c r="G20" s="1">
+        <v>194.84423828125</v>
+      </c>
+      <c r="H20" s="1">
+        <v>194.84423828125</v>
+      </c>
+      <c r="I20" s="1">
+        <v>194.84423828125</v>
+      </c>
+      <c r="J20" s="1">
+        <v>194.84423828125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1">
+        <v>210.46533203125</v>
+      </c>
+      <c r="C21" s="1">
+        <v>213.72705078125</v>
+      </c>
+      <c r="D21" s="1">
+        <v>213.69140625</v>
+      </c>
+      <c r="E21" s="1">
+        <v>213.7734375</v>
+      </c>
+      <c r="F21" s="1">
+        <v>213.7060546875</v>
+      </c>
+      <c r="G21" s="1">
+        <v>213.70556640625</v>
+      </c>
+      <c r="H21" s="1">
+        <v>213.70751953125</v>
+      </c>
+      <c r="I21" s="1">
+        <v>213.70556640625</v>
+      </c>
+      <c r="J21" s="1">
+        <v>213.70654296875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1">
+        <v>337.4541015625</v>
+      </c>
+      <c r="C23" s="1">
+        <v>337.75</v>
+      </c>
+      <c r="D23" s="1">
+        <v>337.6884765625</v>
+      </c>
+      <c r="E23" s="1">
+        <v>337.673828125</v>
+      </c>
+      <c r="F23" s="1">
+        <v>337.6787109375</v>
+      </c>
+      <c r="G23" s="1">
+        <v>337.6767578125</v>
+      </c>
+      <c r="H23" s="1">
+        <v>337.673828125</v>
+      </c>
+      <c r="I23" s="1">
+        <v>337.673828125</v>
+      </c>
+      <c r="J23" s="1">
+        <v>337.673828125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1">
+        <v>27.92529296875</v>
+      </c>
+      <c r="C24" s="1">
+        <v>29.2958984375</v>
+      </c>
+      <c r="D24" s="1">
+        <v>29.383056640625</v>
+      </c>
+      <c r="E24" s="1">
+        <v>29.310546875</v>
+      </c>
+      <c r="F24" s="1">
+        <v>29.3017578125</v>
+      </c>
+      <c r="G24" s="1">
+        <v>29.3076171875</v>
+      </c>
+      <c r="H24" s="1">
+        <v>29.30712890625</v>
+      </c>
+      <c r="I24" s="1">
+        <v>29.30712890625</v>
+      </c>
+      <c r="J24" s="1">
+        <v>29.30712890625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1">
+        <v>651.419921875</v>
+      </c>
+      <c r="C25" s="1">
+        <v>651.04638671875</v>
+      </c>
+      <c r="D25" s="1">
+        <v>650.7255859375</v>
+      </c>
+      <c r="E25" s="1">
+        <v>650.5986328125</v>
+      </c>
+      <c r="F25" s="1">
+        <v>650.58935546875</v>
+      </c>
+      <c r="G25" s="1">
+        <v>650.58935546875</v>
+      </c>
+      <c r="H25" s="1">
+        <v>650.58740234375</v>
+      </c>
+      <c r="I25" s="1">
+        <v>650.58447265625</v>
+      </c>
+      <c r="J25" s="1">
+        <v>650.58349609375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>511.511457636952</v>
+      </c>
+      <c r="C27" s="1">
+        <v>510.966047480702</v>
+      </c>
+      <c r="D27" s="1">
+        <v>510.958234980702</v>
+      </c>
+      <c r="E27" s="1">
+        <v>510.958234980702</v>
+      </c>
+      <c r="F27" s="1">
+        <v>510.958234980702</v>
+      </c>
+      <c r="G27" s="1">
+        <v>510.958234980702</v>
+      </c>
+      <c r="H27" s="1">
+        <v>510.958234980702</v>
+      </c>
+      <c r="I27" s="1">
+        <v>510.958234980702</v>
+      </c>
+      <c r="J27" s="1">
+        <v>510.958234980702</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1359.72748852521</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1358.54535961896</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1358.51557446271</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1358.53705883771</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1358.53266430646</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1358.53266430646</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1358.53461743146</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1358.53461743146</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1358.53461743146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="1">
+        <v>126951.234375</v>
+      </c>
+      <c r="C29" s="1">
+        <v>126999.5078125</v>
+      </c>
+      <c r="D29" s="1">
+        <v>127000</v>
+      </c>
+      <c r="E29" s="1">
+        <v>127000</v>
+      </c>
+      <c r="F29" s="1">
+        <v>127000</v>
+      </c>
+      <c r="G29" s="1">
+        <v>127000</v>
+      </c>
+      <c r="H29" s="1">
+        <v>127000</v>
+      </c>
+      <c r="I29" s="1">
+        <v>127000</v>
+      </c>
+      <c r="J29" s="1">
+        <v>127000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1">
+        <v>42031.74609375</v>
+      </c>
+      <c r="C30" s="1">
+        <v>42656.44140625</v>
+      </c>
+      <c r="D30" s="1">
+        <v>42664.375</v>
+      </c>
+      <c r="E30" s="1">
+        <v>42663.5</v>
+      </c>
+      <c r="F30" s="1">
+        <v>42663.296875</v>
+      </c>
+      <c r="G30" s="1">
+        <v>42663.296875</v>
+      </c>
+      <c r="H30" s="1">
+        <v>42663.19921875</v>
+      </c>
+      <c r="I30" s="1">
+        <v>42663.19921875</v>
+      </c>
+      <c r="J30" s="1">
+        <v>42663.19921875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1">
+        <v>5052.5</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5006.2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>5005.7</v>
+      </c>
+      <c r="E49" s="1">
+        <v>5005.7</v>
+      </c>
+      <c r="F49" s="1">
+        <v>5005.7</v>
+      </c>
+      <c r="G49" s="1">
+        <v>5005.7</v>
+      </c>
+      <c r="H49" s="1">
+        <v>5005.7</v>
+      </c>
+      <c r="I49" s="1">
+        <v>5005.7</v>
+      </c>
+      <c r="J49" s="1">
+        <v>5005.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="1">
+        <v>5840.9</v>
+      </c>
+      <c r="C50" s="1">
+        <v>5211.2999999999902</v>
+      </c>
+      <c r="D50" s="1">
+        <v>5203.2999999999902</v>
+      </c>
+      <c r="E50" s="1">
+        <v>5204.2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>5204.3999999999996</v>
+      </c>
+      <c r="G50" s="1">
+        <v>5204.3999999999996</v>
+      </c>
+      <c r="H50" s="1">
+        <v>5204.5</v>
+      </c>
+      <c r="I50" s="1">
+        <v>5204.5</v>
+      </c>
+      <c r="J50" s="1">
+        <v>5204.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="1">
+        <v>4101.7</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3972.1</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3970.7</v>
+      </c>
+      <c r="E53" s="1">
+        <v>3970.6</v>
+      </c>
+      <c r="F53" s="1">
+        <v>3970.7</v>
+      </c>
+      <c r="G53" s="1">
+        <v>3970.7</v>
+      </c>
+      <c r="H53" s="1">
+        <v>3970.7</v>
+      </c>
+      <c r="I53" s="1">
+        <v>3970.7</v>
+      </c>
+      <c r="J53" s="1">
+        <v>3970.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1270000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="1">
+        <v>420420</v>
+      </c>
+      <c r="C56" s="1">
+        <v>426544</v>
+      </c>
+      <c r="D56" s="1">
+        <v>426611</v>
+      </c>
+      <c r="E56" s="1">
+        <v>426602</v>
+      </c>
+      <c r="F56" s="1">
+        <v>426600</v>
+      </c>
+      <c r="G56" s="1">
+        <v>426600</v>
+      </c>
+      <c r="H56" s="1">
+        <v>426599</v>
+      </c>
+      <c r="I56" s="1">
+        <v>426599</v>
+      </c>
+      <c r="J56" s="1">
+        <v>426599</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="1">
+        <f>B55/10-B29</f>
+        <v>48.765625</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" ref="C58:J59" si="0">C55/10-C29</f>
+        <v>0.4921875</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="1">
+        <f>B56/10-B30</f>
+        <v>10.25390625</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.0414062499985448</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.2750000000014552</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.3000000000029104</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.296875</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.296875</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.2992187499985448</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.2992187499985448</v>
+      </c>
+      <c r="J59" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.2992187499985448</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B58:J60">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
@@ -17978,6 +19865,5 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sagehen_3lay_modsim/Ocsillations_2.xlsx
+++ b/sagehen_3lay_modsim/Ocsillations_2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="8340" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="8340" tabRatio="824" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Follow-up; lowered  outlet elev" sheetId="5" r:id="rId5"/>
     <sheet name="3-17-1993_NonConvergence" sheetId="6" r:id="rId6"/>
     <sheet name="3-17-1993_Recheck" sheetId="7" r:id="rId7"/>
+    <sheet name="3-17-1993_Recheck_up_min_offlin" sheetId="8" r:id="rId8"/>
+    <sheet name="3-17-1993_Recheck_up_min_more" sheetId="9" r:id="rId9"/>
+    <sheet name="9-26-17_Isolated_nonConverg_Iss" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -64,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="81">
   <si>
     <t>EXCHANGE</t>
   </si>
@@ -284,6 +287,30 @@
   <si>
     <t xml:space="preserve">The reason I don't think this iteration did anything is because the minimum reservoir volume I set in the MODSIM.xy file was too small, I'm going to retry with a slightly larger value.  </t>
   </si>
+  <si>
+    <t>Volume Difference between MODSIM and MODFLOW</t>
+  </si>
+  <si>
+    <t>Inline Res</t>
+  </si>
+  <si>
+    <t>Offline Res</t>
+  </si>
+  <si>
+    <t>[17]  Inline Reservoir Release</t>
+  </si>
+  <si>
+    <t>[18]  Offline Reservoir Release</t>
+  </si>
+  <si>
+    <t>[19]  Diversion to Offline Reservoir</t>
+  </si>
+  <si>
+    <t>[21]  Municipal diversion</t>
+  </si>
+  <si>
+    <t>[19]  Seepage</t>
+  </si>
 </sst>
 </file>
 
@@ -292,7 +319,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +339,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -346,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -365,11 +400,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -527,6 +603,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFF8955E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3847,16 +3933,4439 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:R53">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>288.43322753906199</v>
+      </c>
+      <c r="C3" s="1">
+        <v>288.43316650390602</v>
+      </c>
+      <c r="D3" s="1">
+        <v>288.43316650390602</v>
+      </c>
+      <c r="E3" s="1">
+        <v>288.43316650390602</v>
+      </c>
+      <c r="F3" s="1">
+        <v>288.43316650390602</v>
+      </c>
+      <c r="G3" s="1">
+        <v>288.43316650390602</v>
+      </c>
+      <c r="H3" s="1">
+        <v>288.43316650390602</v>
+      </c>
+      <c r="I3" s="1">
+        <v>288.43316650390602</v>
+      </c>
+      <c r="J3" s="1">
+        <v>288.43316650390602</v>
+      </c>
+      <c r="K3" s="1">
+        <v>288.43316650390602</v>
+      </c>
+      <c r="L3" s="1">
+        <v>288.43316650390602</v>
+      </c>
+      <c r="N3" s="1">
+        <f>B3-C3</f>
+        <v>6.1035155965782906E-5</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:U3" si="0">C3-D3</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <f t="shared" ref="V3" si="1">J3-K3</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <f t="shared" ref="W3" si="2">K3-L3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>67.253479003906193</v>
+      </c>
+      <c r="C4" s="1">
+        <v>67.253479003906193</v>
+      </c>
+      <c r="D4" s="1">
+        <v>67.253479003906193</v>
+      </c>
+      <c r="E4" s="1">
+        <v>67.253479003906193</v>
+      </c>
+      <c r="F4" s="1">
+        <v>67.253479003906193</v>
+      </c>
+      <c r="G4" s="1">
+        <v>67.253479003906193</v>
+      </c>
+      <c r="H4" s="1">
+        <v>67.253479003906193</v>
+      </c>
+      <c r="I4" s="1">
+        <v>67.253479003906193</v>
+      </c>
+      <c r="J4" s="1">
+        <v>67.253479003906193</v>
+      </c>
+      <c r="K4" s="1">
+        <v>67.253479003906193</v>
+      </c>
+      <c r="L4" s="1">
+        <v>67.253479003906193</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N56" si="3">B4-C4</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" ref="O4:O56" si="4">C4-D4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" ref="P4:P56" si="5">D4-E4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" ref="Q4:Q56" si="6">E4-F4</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" ref="R4:R56" si="7">F4-G4</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" ref="S4:S56" si="8">G4-H4</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" ref="T4:T56" si="9">H4-I4</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" ref="U4:U56" si="10">I4-J4</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <f t="shared" ref="V4:V56" si="11">J4-K4</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <f t="shared" ref="W4:W56" si="12">K4-L4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>134.75051879882801</v>
+      </c>
+      <c r="C5" s="1">
+        <v>140.23031616210901</v>
+      </c>
+      <c r="D5" s="1">
+        <v>140.40863037109301</v>
+      </c>
+      <c r="E5" s="1">
+        <v>140.43029785156199</v>
+      </c>
+      <c r="F5" s="1">
+        <v>140.41769409179599</v>
+      </c>
+      <c r="G5" s="1">
+        <v>140.40237426757801</v>
+      </c>
+      <c r="H5" s="1">
+        <v>140.39993286132801</v>
+      </c>
+      <c r="I5" s="1">
+        <v>140.3994140625</v>
+      </c>
+      <c r="J5" s="1">
+        <v>140.39996337890599</v>
+      </c>
+      <c r="K5" s="1">
+        <v>140.40008544921801</v>
+      </c>
+      <c r="L5" s="1">
+        <v>140.40020751953099</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="3"/>
+        <v>-5.4797973632809942</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.17831420898400552</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.1667480468977374E-2</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="6"/>
+        <v>1.2603759765994482E-2</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="7"/>
+        <v>1.5319824217982614E-2</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="8"/>
+        <v>2.44140625E-3</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="9"/>
+        <v>5.1879882801131316E-4</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="10"/>
+        <v>-5.4931640599420462E-4</v>
+      </c>
+      <c r="V5" s="1">
+        <f t="shared" si="11"/>
+        <v>-1.2207031201683094E-4</v>
+      </c>
+      <c r="W5" s="1">
+        <f t="shared" si="12"/>
+        <v>-1.2207031298316906E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>506.80810546875</v>
+      </c>
+      <c r="C6" s="1">
+        <v>512.44543457031205</v>
+      </c>
+      <c r="D6" s="1">
+        <v>512.60314941406205</v>
+      </c>
+      <c r="E6" s="1">
+        <v>512.60296630859295</v>
+      </c>
+      <c r="F6" s="1">
+        <v>512.58197021484295</v>
+      </c>
+      <c r="G6" s="1">
+        <v>512.585693359375</v>
+      </c>
+      <c r="H6" s="1">
+        <v>512.58929443359295</v>
+      </c>
+      <c r="I6" s="1">
+        <v>512.59552001953102</v>
+      </c>
+      <c r="J6" s="1">
+        <v>512.60064697265602</v>
+      </c>
+      <c r="K6" s="1">
+        <v>512.60589599609295</v>
+      </c>
+      <c r="L6" s="1">
+        <v>512.611083984375</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="3"/>
+        <v>-5.6373291015620453</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.15771484375</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="5"/>
+        <v>1.8310546909106051E-4</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="6"/>
+        <v>2.099609375E-2</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="7"/>
+        <v>-3.7231445320458079E-3</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="8"/>
+        <v>-3.6010742179541921E-3</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="9"/>
+        <v>-6.2255859380684342E-3</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="10"/>
+        <v>-5.126953125E-3</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" si="11"/>
+        <v>-5.2490234369315658E-3</v>
+      </c>
+      <c r="W6" s="1">
+        <f t="shared" si="12"/>
+        <v>-5.1879882820458079E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.62109375</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.62109375</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.62109375</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.62109375</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.62109375</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.62109375</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.62109375</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.62109375</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.62109375</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.62109375</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.62109375</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1072.4619140625</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1050.646484375</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1050.142578125</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1050.146484375</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1050.177734375</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1050.216796875</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1050.208984375</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1050.1875</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1050.1640625</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1050.1484375</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1050.125</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="3"/>
+        <v>21.8154296875</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.50390625</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="5"/>
+        <v>-3.90625E-3</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.125E-2</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="7"/>
+        <v>-3.90625E-2</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="8"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="9"/>
+        <v>2.1484375E-2</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="10"/>
+        <v>2.34375E-2</v>
+      </c>
+      <c r="V8" s="1">
+        <f t="shared" si="11"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="W8" s="1">
+        <f t="shared" si="12"/>
+        <v>2.34375E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>197.468994140625</v>
+      </c>
+      <c r="C9" s="1">
+        <v>197.470947265625</v>
+      </c>
+      <c r="D9" s="1">
+        <v>197.47119140625</v>
+      </c>
+      <c r="E9" s="1">
+        <v>197.47119140625</v>
+      </c>
+      <c r="F9" s="1">
+        <v>197.47119140625</v>
+      </c>
+      <c r="G9" s="1">
+        <v>197.47119140625</v>
+      </c>
+      <c r="H9" s="1">
+        <v>197.47119140625</v>
+      </c>
+      <c r="I9" s="1">
+        <v>197.47119140625</v>
+      </c>
+      <c r="J9" s="1">
+        <v>197.47119140625</v>
+      </c>
+      <c r="K9" s="1">
+        <v>197.47119140625</v>
+      </c>
+      <c r="L9" s="1">
+        <v>197.47119140625</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.44140625E-4</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>98.4332275390625</v>
+      </c>
+      <c r="C10" s="1">
+        <v>103.961875915527</v>
+      </c>
+      <c r="D10" s="1">
+        <v>104.115478515625</v>
+      </c>
+      <c r="E10" s="1">
+        <v>104.115585327148</v>
+      </c>
+      <c r="F10" s="1">
+        <v>104.09543609619099</v>
+      </c>
+      <c r="G10" s="1">
+        <v>104.098655700683</v>
+      </c>
+      <c r="H10" s="1">
+        <v>104.10214233398401</v>
+      </c>
+      <c r="I10" s="1">
+        <v>104.108139038085</v>
+      </c>
+      <c r="J10" s="1">
+        <v>104.11320495605401</v>
+      </c>
+      <c r="K10" s="1">
+        <v>104.118293762207</v>
+      </c>
+      <c r="L10" s="1">
+        <v>104.12338256835901</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="3"/>
+        <v>-5.5286483764645027</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.15360260009799731</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.068115229969635E-4</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="6"/>
+        <v>2.0149230957002828E-2</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="7"/>
+        <v>-3.2196044920027589E-3</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="8"/>
+        <v>-3.4866333010086237E-3</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="9"/>
+        <v>-5.9967041009940658E-3</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="10"/>
+        <v>-5.0659179690057954E-3</v>
+      </c>
+      <c r="V10" s="1">
+        <f t="shared" si="11"/>
+        <v>-5.0888061529974493E-3</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" si="12"/>
+        <v>-5.0888061520026895E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>823.95947265625</v>
+      </c>
+      <c r="C11" s="1">
+        <v>823.95965576171795</v>
+      </c>
+      <c r="D11" s="1">
+        <v>823.95965576171795</v>
+      </c>
+      <c r="E11" s="1">
+        <v>823.95965576171795</v>
+      </c>
+      <c r="F11" s="1">
+        <v>823.95965576171795</v>
+      </c>
+      <c r="G11" s="1">
+        <v>823.95965576171795</v>
+      </c>
+      <c r="H11" s="1">
+        <v>823.95965576171795</v>
+      </c>
+      <c r="I11" s="1">
+        <v>823.95965576171795</v>
+      </c>
+      <c r="J11" s="1">
+        <v>823.95965576171795</v>
+      </c>
+      <c r="K11" s="1">
+        <v>823.95965576171795</v>
+      </c>
+      <c r="L11" s="1">
+        <v>823.95965576171795</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.8310546795419214E-4</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2641.87084960937</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2641.87109375</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2641.87109375</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2641.87109375</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2641.87109375</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2641.87109375</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2641.87109375</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2641.87109375</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2641.87109375</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2641.87109375</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2641.87109375</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.4414063000222086E-4</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>659.3408203125</v>
+      </c>
+      <c r="C13" s="1">
+        <v>643.638671875</v>
+      </c>
+      <c r="D13" s="1">
+        <v>643.33203125</v>
+      </c>
+      <c r="E13" s="1">
+        <v>643.328125</v>
+      </c>
+      <c r="F13" s="1">
+        <v>643.365234375</v>
+      </c>
+      <c r="G13" s="1">
+        <v>643.376953125</v>
+      </c>
+      <c r="H13" s="1">
+        <v>643.373046875</v>
+      </c>
+      <c r="I13" s="1">
+        <v>643.357421875</v>
+      </c>
+      <c r="J13" s="1">
+        <v>643.33984375</v>
+      </c>
+      <c r="K13" s="1">
+        <v>643.328125</v>
+      </c>
+      <c r="L13" s="1">
+        <v>643.3125</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="3"/>
+        <v>15.7021484375</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="4"/>
+        <v>0.306640625</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="5"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="6"/>
+        <v>-3.7109375E-2</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.171875E-2</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="8"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="9"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="10"/>
+        <v>1.7578125E-2</v>
+      </c>
+      <c r="V13" s="1">
+        <f t="shared" si="11"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="W13" s="1">
+        <f t="shared" si="12"/>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1141.62097167968</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1141.63793945312</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1141.63806152343</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1141.63806152343</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1141.63806152343</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1141.63806152343</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1141.63806152343</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1141.63806152343</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1141.63806152343</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1141.63806152343</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1141.63806152343</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.696777344000111E-2</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.2207030999888957E-4</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>94.04296875</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-30.392578125</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-6.25390625</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-5.50390625</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-4.43359375</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-5.146484375</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-5.2578125</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-5.43359375</v>
+      </c>
+      <c r="J15" s="1">
+        <v>-5.498046875</v>
+      </c>
+      <c r="K15" s="1">
+        <v>-5.5859375</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-5.669921875</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="3"/>
+        <v>124.435546875</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="4"/>
+        <v>-24.138671875</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.75</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.0703125</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="7"/>
+        <v>0.712890625</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="8"/>
+        <v>0.111328125</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="9"/>
+        <v>0.17578125</v>
+      </c>
+      <c r="U15" s="1">
+        <f t="shared" si="10"/>
+        <v>6.4453125E-2</v>
+      </c>
+      <c r="V15" s="1">
+        <f t="shared" si="11"/>
+        <v>8.7890625E-2</v>
+      </c>
+      <c r="W15" s="1">
+        <f t="shared" si="12"/>
+        <v>8.3984375E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>221.80461120605401</v>
+      </c>
+      <c r="C16" s="1">
+        <v>233.37464904785099</v>
+      </c>
+      <c r="D16" s="1">
+        <v>234.32827758789</v>
+      </c>
+      <c r="E16" s="1">
+        <v>234.34687805175699</v>
+      </c>
+      <c r="F16" s="1">
+        <v>234.30714416503901</v>
+      </c>
+      <c r="G16" s="1">
+        <v>234.30929565429599</v>
+      </c>
+      <c r="H16" s="1">
+        <v>234.31678771972599</v>
+      </c>
+      <c r="I16" s="1">
+        <v>234.32958984375</v>
+      </c>
+      <c r="J16" s="1">
+        <v>234.34103393554599</v>
+      </c>
+      <c r="K16" s="1">
+        <v>234.35237121582</v>
+      </c>
+      <c r="L16" s="1">
+        <v>234.36372375488199</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="3"/>
+        <v>-11.570037841796989</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.95362854003900566</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.8600463866988548E-2</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="6"/>
+        <v>3.9733886717982614E-2</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.1514892569882704E-3</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="8"/>
+        <v>-7.4920654300001388E-3</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="9"/>
+        <v>-1.2802124024005934E-2</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" si="10"/>
+        <v>-1.1444091795993927E-2</v>
+      </c>
+      <c r="V16" s="1">
+        <f t="shared" si="11"/>
+        <v>-1.1337280274005934E-2</v>
+      </c>
+      <c r="W16" s="1">
+        <f t="shared" si="12"/>
+        <v>-1.1352539061988409E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>10.453125</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8.349609375</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8.27734375</v>
+      </c>
+      <c r="E17" s="1">
+        <v>8.29296875</v>
+      </c>
+      <c r="F17" s="1">
+        <v>8.3046875</v>
+      </c>
+      <c r="G17" s="1">
+        <v>8.302734375</v>
+      </c>
+      <c r="H17" s="1">
+        <v>8.3046875</v>
+      </c>
+      <c r="I17" s="1">
+        <v>8.302734375</v>
+      </c>
+      <c r="J17" s="1">
+        <v>8.3046875</v>
+      </c>
+      <c r="K17" s="1">
+        <v>8.3046875</v>
+      </c>
+      <c r="L17" s="1">
+        <v>8.3046875</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="3"/>
+        <v>2.103515625</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="4"/>
+        <v>7.2265625E-2</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.5625E-2</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="6"/>
+        <v>-1.171875E-2</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="7"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S17" s="1">
+        <f t="shared" si="8"/>
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="9"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="U17" s="1">
+        <f t="shared" si="10"/>
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="V17" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>48.759765625</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44.888671875</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44.853515625</v>
+      </c>
+      <c r="E18" s="1">
+        <v>44.8779296875</v>
+      </c>
+      <c r="F18" s="1">
+        <v>44.880859375</v>
+      </c>
+      <c r="G18" s="1">
+        <v>44.8974609375</v>
+      </c>
+      <c r="H18" s="1">
+        <v>44.8984375</v>
+      </c>
+      <c r="I18" s="1">
+        <v>44.8994140625</v>
+      </c>
+      <c r="J18" s="1">
+        <v>44.8984375</v>
+      </c>
+      <c r="K18" s="1">
+        <v>44.8984375</v>
+      </c>
+      <c r="L18" s="1">
+        <v>44.8984375</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="3"/>
+        <v>3.87109375</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="4"/>
+        <v>3.515625E-2</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="5"/>
+        <v>-2.44140625E-2</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="6"/>
+        <v>-2.9296875E-3</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="7"/>
+        <v>-1.66015625E-2</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="8"/>
+        <v>-9.765625E-4</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="9"/>
+        <v>-9.765625E-4</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" si="10"/>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="V18" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>299.83419799804602</v>
+      </c>
+      <c r="C19" s="1">
+        <v>300.02166748046801</v>
+      </c>
+      <c r="D19" s="1">
+        <v>300.02166748046801</v>
+      </c>
+      <c r="E19" s="1">
+        <v>300.02166748046801</v>
+      </c>
+      <c r="F19" s="1">
+        <v>300.02166748046801</v>
+      </c>
+      <c r="G19" s="1">
+        <v>300.02166748046801</v>
+      </c>
+      <c r="H19" s="1">
+        <v>300.02166748046801</v>
+      </c>
+      <c r="I19" s="1">
+        <v>300.02166748046801</v>
+      </c>
+      <c r="J19" s="1">
+        <v>300.02166748046801</v>
+      </c>
+      <c r="K19" s="1">
+        <v>300.02166748046801</v>
+      </c>
+      <c r="L19" s="1">
+        <v>300.02166748046801</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.18746948242198869</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1">
+        <v>430.8095703125</v>
+      </c>
+      <c r="C20" s="1">
+        <v>417.36328125</v>
+      </c>
+      <c r="D20" s="1">
+        <v>416.990234375</v>
+      </c>
+      <c r="E20" s="1">
+        <v>417.154296875</v>
+      </c>
+      <c r="F20" s="1">
+        <v>417.015625</v>
+      </c>
+      <c r="G20" s="1">
+        <v>417.001953125</v>
+      </c>
+      <c r="H20" s="1">
+        <v>416.974609375</v>
+      </c>
+      <c r="I20" s="1">
+        <v>416.966796875</v>
+      </c>
+      <c r="J20" s="1">
+        <v>416.951171875</v>
+      </c>
+      <c r="K20" s="1">
+        <v>416.94140625</v>
+      </c>
+      <c r="L20" s="1">
+        <v>416.927734375</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="3"/>
+        <v>13.4462890625</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="4"/>
+        <v>0.373046875</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.1640625</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="6"/>
+        <v>0.138671875</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="7"/>
+        <v>1.3671875E-2</v>
+      </c>
+      <c r="S20" s="1">
+        <f t="shared" si="8"/>
+        <v>2.734375E-2</v>
+      </c>
+      <c r="T20" s="1">
+        <f t="shared" si="9"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="U20" s="1">
+        <f t="shared" si="10"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" si="11"/>
+        <v>9.765625E-3</v>
+      </c>
+      <c r="W20" s="1">
+        <f t="shared" si="12"/>
+        <v>1.3671875E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1">
+        <v>694.53515625</v>
+      </c>
+      <c r="C21" s="1">
+        <v>734.79073251953298</v>
+      </c>
+      <c r="D21" s="1">
+        <v>735.19429697265798</v>
+      </c>
+      <c r="E21" s="1">
+        <v>735.35646738281503</v>
+      </c>
+      <c r="F21" s="1">
+        <v>735.34914316406503</v>
+      </c>
+      <c r="G21" s="1">
+        <v>735.31575693359605</v>
+      </c>
+      <c r="H21" s="1">
+        <v>735.30733408203298</v>
+      </c>
+      <c r="I21" s="1">
+        <v>735.30464853515798</v>
+      </c>
+      <c r="J21" s="1">
+        <v>735.30556406250196</v>
+      </c>
+      <c r="K21" s="1">
+        <v>735.30580820312696</v>
+      </c>
+      <c r="L21" s="1">
+        <v>735.30593027344003</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="3"/>
+        <v>-40.25557626953298</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.403564453125</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.16217041015704581</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="6"/>
+        <v>7.32421875E-3</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="7"/>
+        <v>3.3386230468977374E-2</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="8"/>
+        <v>8.4228515630684342E-3</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="9"/>
+        <v>2.685546875E-3</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="10"/>
+        <v>-9.1552734397737368E-4</v>
+      </c>
+      <c r="V21" s="1">
+        <f t="shared" si="11"/>
+        <v>-2.44140625E-4</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="12"/>
+        <v>-1.2207031306843419E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-1.8999999761581401</v>
+      </c>
+      <c r="D22" s="1">
+        <v>-6.8000001907348597</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-11.699999809265099</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-16.600000381469702</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-21.5</v>
+      </c>
+      <c r="H22" s="1">
+        <v>-26.399999618530199</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-31.299999237060501</v>
+      </c>
+      <c r="J22" s="1">
+        <v>-36.200000762939403</v>
+      </c>
+      <c r="K22" s="1">
+        <v>-41.099998474121001</v>
+      </c>
+      <c r="L22" s="1">
+        <v>-46</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8999999761581401</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="4"/>
+        <v>4.9000002145767194</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="5"/>
+        <v>4.8999996185302397</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="6"/>
+        <v>4.9000005722046023</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="7"/>
+        <v>4.8999996185302983</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="8"/>
+        <v>4.8999996185301988</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="9"/>
+        <v>4.8999996185303019</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" si="10"/>
+        <v>4.9000015258789027</v>
+      </c>
+      <c r="V22" s="1">
+        <f t="shared" si="11"/>
+        <v>4.899997711181598</v>
+      </c>
+      <c r="W22" s="1">
+        <f t="shared" si="12"/>
+        <v>4.9000015258789986</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1">
+        <v>508.341796875</v>
+      </c>
+      <c r="C23" s="1">
+        <v>498.75390625</v>
+      </c>
+      <c r="D23" s="1">
+        <v>498.580078125</v>
+      </c>
+      <c r="E23" s="1">
+        <v>498.736328125</v>
+      </c>
+      <c r="F23" s="1">
+        <v>498.943359375</v>
+      </c>
+      <c r="G23" s="1">
+        <v>498.9765625</v>
+      </c>
+      <c r="H23" s="1">
+        <v>499.068359375</v>
+      </c>
+      <c r="I23" s="1">
+        <v>499.1484375</v>
+      </c>
+      <c r="J23" s="1">
+        <v>499.24609375</v>
+      </c>
+      <c r="K23" s="1">
+        <v>499.33984375</v>
+      </c>
+      <c r="L23" s="1">
+        <v>499.43359375</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="3"/>
+        <v>9.587890625</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="4"/>
+        <v>0.173828125</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.15625</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.20703125</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="7"/>
+        <v>-3.3203125E-2</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="8"/>
+        <v>-9.1796875E-2</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="9"/>
+        <v>-8.0078125E-2</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="10"/>
+        <v>-9.765625E-2</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" si="11"/>
+        <v>-9.375E-2</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" si="12"/>
+        <v>-9.375E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1">
+        <v>-154.1865234375</v>
+      </c>
+      <c r="C24" s="1">
+        <v>-153.7490234375</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-153.71484375</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-153.7080078125</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-153.7080078125</v>
+      </c>
+      <c r="G24" s="1">
+        <v>-153.7119140625</v>
+      </c>
+      <c r="H24" s="1">
+        <v>-153.7119140625</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-153.7119140625</v>
+      </c>
+      <c r="J24" s="1">
+        <v>-153.7119140625</v>
+      </c>
+      <c r="K24" s="1">
+        <v>-153.7119140625</v>
+      </c>
+      <c r="L24" s="1">
+        <v>-153.7119140625</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.4375</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="4"/>
+        <v>-3.41796875E-2</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="5"/>
+        <v>-6.8359375E-3</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="7"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1">
+        <v>853.2666015625</v>
+      </c>
+      <c r="C25" s="1">
+        <v>825.6396484375</v>
+      </c>
+      <c r="D25" s="1">
+        <v>825.0185546875</v>
+      </c>
+      <c r="E25" s="1">
+        <v>826.2880859375</v>
+      </c>
+      <c r="F25" s="1">
+        <v>826.5888671875</v>
+      </c>
+      <c r="G25" s="1">
+        <v>826.3203125</v>
+      </c>
+      <c r="H25" s="1">
+        <v>826.3076171875</v>
+      </c>
+      <c r="I25" s="1">
+        <v>826.2724609375</v>
+      </c>
+      <c r="J25" s="1">
+        <v>826.28125</v>
+      </c>
+      <c r="K25" s="1">
+        <v>826.28125</v>
+      </c>
+      <c r="L25" s="1">
+        <v>826.28125</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="3"/>
+        <v>27.626953125</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="4"/>
+        <v>0.62109375</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="5"/>
+        <v>-1.26953125</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="6"/>
+        <v>-0.30078125</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="7"/>
+        <v>0.2685546875</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="8"/>
+        <v>1.26953125E-2</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="9"/>
+        <v>3.515625E-2</v>
+      </c>
+      <c r="U25" s="1">
+        <f t="shared" si="10"/>
+        <v>-8.7890625E-3</v>
+      </c>
+      <c r="V25" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="N26" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>910.50046676397301</v>
+      </c>
+      <c r="C27" s="1">
+        <v>917.10984176397301</v>
+      </c>
+      <c r="D27" s="1">
+        <v>917.30906051397301</v>
+      </c>
+      <c r="E27" s="1">
+        <v>917.30906051397301</v>
+      </c>
+      <c r="F27" s="1">
+        <v>917.29734176397301</v>
+      </c>
+      <c r="G27" s="1">
+        <v>917.32273238897301</v>
+      </c>
+      <c r="H27" s="1">
+        <v>917.30906051397301</v>
+      </c>
+      <c r="I27" s="1">
+        <v>917.30906051397301</v>
+      </c>
+      <c r="J27" s="1">
+        <v>917.30906051397301</v>
+      </c>
+      <c r="K27" s="1">
+        <v>917.30906051397301</v>
+      </c>
+      <c r="L27" s="1">
+        <v>917.30906051397301</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="3"/>
+        <v>-6.609375</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.19921875</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" si="6"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="7"/>
+        <v>-2.5390625E-2</v>
+      </c>
+      <c r="S27" s="1">
+        <f t="shared" si="8"/>
+        <v>1.3671875E-2</v>
+      </c>
+      <c r="T27" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1">
+        <v>-301.67917215824099</v>
+      </c>
+      <c r="C28" s="1">
+        <v>-304.91656839847502</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-304.91656839847502</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-304.91656839847502</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-304.91656839847502</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-304.91656839847502</v>
+      </c>
+      <c r="H28" s="1">
+        <v>-304.91656839847502</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-304.91656839847502</v>
+      </c>
+      <c r="J28" s="1">
+        <v>-304.91656839847502</v>
+      </c>
+      <c r="K28" s="1">
+        <v>-304.91656839847502</v>
+      </c>
+      <c r="L28" s="1">
+        <v>-304.91656839847502</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="3"/>
+        <v>3.2373962402340339</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="1">
+        <v>770659.4375</v>
+      </c>
+      <c r="C29" s="1">
+        <v>765567.3125</v>
+      </c>
+      <c r="D29" s="1">
+        <v>765416.8125</v>
+      </c>
+      <c r="E29" s="1">
+        <v>765435.8125</v>
+      </c>
+      <c r="F29" s="1">
+        <v>765433.5</v>
+      </c>
+      <c r="G29" s="1">
+        <v>765430.125</v>
+      </c>
+      <c r="H29" s="1">
+        <v>765424.3125</v>
+      </c>
+      <c r="I29" s="1">
+        <v>765419.3125</v>
+      </c>
+      <c r="J29" s="1">
+        <v>765414.3125</v>
+      </c>
+      <c r="K29" s="1">
+        <v>765409.3125</v>
+      </c>
+      <c r="L29" s="1">
+        <v>765404.3125</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="3"/>
+        <v>5092.125</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="4"/>
+        <v>150.5</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="5"/>
+        <v>-19</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="6"/>
+        <v>2.3125</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="7"/>
+        <v>3.375</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="8"/>
+        <v>5.8125</v>
+      </c>
+      <c r="T29" s="1">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="U29" s="1">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="V29" s="1">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="W29" s="1">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3514295.75</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3518995</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3518995</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3518995</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3518995</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3518995</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3518995</v>
+      </c>
+      <c r="I30" s="1">
+        <v>3518995</v>
+      </c>
+      <c r="J30" s="1">
+        <v>3518995</v>
+      </c>
+      <c r="K30" s="1">
+        <v>3518995</v>
+      </c>
+      <c r="L30" s="1">
+        <v>3518995</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="3"/>
+        <v>-4699.25</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="N31" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V32" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W35" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W36" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W42" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W43" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V44" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W44" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W45" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V46" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W46" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V47" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W47" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U48" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V48" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W48" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="10">
+        <v>13416.5</v>
+      </c>
+      <c r="C49" s="10">
+        <v>18515.400000000001</v>
+      </c>
+      <c r="D49" s="10">
+        <v>18666.099999999999</v>
+      </c>
+      <c r="E49" s="10">
+        <v>18647.099999999999</v>
+      </c>
+      <c r="F49" s="10">
+        <v>18649.400000000001</v>
+      </c>
+      <c r="G49" s="10">
+        <v>18652.8</v>
+      </c>
+      <c r="H49" s="10">
+        <v>18658.599999999999</v>
+      </c>
+      <c r="I49" s="10">
+        <v>18663.599999999999</v>
+      </c>
+      <c r="J49" s="10">
+        <v>18668.599999999999</v>
+      </c>
+      <c r="K49" s="10">
+        <v>18673.599999999999</v>
+      </c>
+      <c r="L49" s="10">
+        <v>18678.599999999999</v>
+      </c>
+      <c r="N49" s="1">
+        <f t="shared" si="3"/>
+        <v>-5098.9000000000015</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="4"/>
+        <v>-150.69999999999709</v>
+      </c>
+      <c r="P49" s="1">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="Q49" s="1">
+        <f t="shared" si="6"/>
+        <v>-2.3000000000029104</v>
+      </c>
+      <c r="R49" s="1">
+        <f t="shared" si="7"/>
+        <v>-3.3999999999978172</v>
+      </c>
+      <c r="S49" s="1">
+        <f t="shared" si="8"/>
+        <v>-5.7999999999992724</v>
+      </c>
+      <c r="T49" s="1">
+        <f t="shared" si="9"/>
+        <v>-5</v>
+      </c>
+      <c r="U49" s="1">
+        <f t="shared" si="10"/>
+        <v>-5</v>
+      </c>
+      <c r="V49" s="1">
+        <f t="shared" si="11"/>
+        <v>-5</v>
+      </c>
+      <c r="W49" s="1">
+        <f t="shared" si="12"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="10">
+        <v>4702.3</v>
+      </c>
+      <c r="C50" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="D50" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="E50" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="F50" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="G50" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="H50" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="I50" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="J50" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="K50" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="L50" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="N50" s="1">
+        <f t="shared" si="3"/>
+        <v>4702.2999</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U50" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W50" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="10">
+        <v>0</v>
+      </c>
+      <c r="C51" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="D51" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="E51" s="10">
+        <v>11.7</v>
+      </c>
+      <c r="F51" s="10">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G51" s="10">
+        <v>21.5</v>
+      </c>
+      <c r="H51" s="10">
+        <v>26.4</v>
+      </c>
+      <c r="I51" s="10">
+        <v>31.3</v>
+      </c>
+      <c r="J51" s="10">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="K51" s="10">
+        <v>41.099999999999902</v>
+      </c>
+      <c r="L51" s="10">
+        <v>46</v>
+      </c>
+      <c r="N51" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.9</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" si="4"/>
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="P51" s="1">
+        <f t="shared" si="5"/>
+        <v>-4.8999999999999995</v>
+      </c>
+      <c r="Q51" s="1">
+        <f t="shared" si="6"/>
+        <v>-4.9000000000000021</v>
+      </c>
+      <c r="R51" s="1">
+        <f t="shared" si="7"/>
+        <v>-4.8999999999999986</v>
+      </c>
+      <c r="S51" s="1">
+        <f t="shared" si="8"/>
+        <v>-4.8999999999999986</v>
+      </c>
+      <c r="T51" s="1">
+        <f t="shared" si="9"/>
+        <v>-4.9000000000000021</v>
+      </c>
+      <c r="U51" s="1">
+        <f t="shared" si="10"/>
+        <v>-4.9000000000000021</v>
+      </c>
+      <c r="V51" s="1">
+        <f t="shared" si="11"/>
+        <v>-4.8999999999998991</v>
+      </c>
+      <c r="W51" s="1">
+        <f t="shared" si="12"/>
+        <v>-4.9000000000000981</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+      <c r="N52" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U52" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V52" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W52" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="10">
+        <v>12131.9</v>
+      </c>
+      <c r="C53" s="10">
+        <v>12154.199999999901</v>
+      </c>
+      <c r="D53" s="10">
+        <v>12153.7</v>
+      </c>
+      <c r="E53" s="10">
+        <v>12153.7</v>
+      </c>
+      <c r="F53" s="10">
+        <v>12153.7</v>
+      </c>
+      <c r="G53" s="10">
+        <v>12153.7</v>
+      </c>
+      <c r="H53" s="10">
+        <v>12153.7</v>
+      </c>
+      <c r="I53" s="10">
+        <v>12153.7</v>
+      </c>
+      <c r="J53" s="10">
+        <v>12153.7</v>
+      </c>
+      <c r="K53" s="10">
+        <v>12153.7</v>
+      </c>
+      <c r="L53" s="10">
+        <v>12153.7</v>
+      </c>
+      <c r="N53" s="1">
+        <f t="shared" si="3"/>
+        <v>-22.299999999901047</v>
+      </c>
+      <c r="O53" s="1">
+        <f t="shared" si="4"/>
+        <v>0.49999999989995558</v>
+      </c>
+      <c r="P53" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S53" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T53" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V53" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W53" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0</v>
+      </c>
+      <c r="N54" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T54" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U54" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V54" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W54" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="1">
+        <v>7731704</v>
+      </c>
+      <c r="C55" s="1">
+        <v>7655609</v>
+      </c>
+      <c r="D55" s="1">
+        <v>7654166</v>
+      </c>
+      <c r="E55" s="1">
+        <v>7654358</v>
+      </c>
+      <c r="F55" s="1">
+        <v>7654335</v>
+      </c>
+      <c r="G55" s="1">
+        <v>7654301</v>
+      </c>
+      <c r="H55" s="1">
+        <v>7654243</v>
+      </c>
+      <c r="I55" s="1">
+        <v>7654193</v>
+      </c>
+      <c r="J55" s="1">
+        <v>7654143</v>
+      </c>
+      <c r="K55" s="1">
+        <v>7654093</v>
+      </c>
+      <c r="L55" s="1">
+        <v>7654043</v>
+      </c>
+      <c r="N55" s="1">
+        <f t="shared" si="3"/>
+        <v>76095</v>
+      </c>
+      <c r="O55" s="1">
+        <f t="shared" si="4"/>
+        <v>1443</v>
+      </c>
+      <c r="P55" s="1">
+        <f t="shared" si="5"/>
+        <v>-192</v>
+      </c>
+      <c r="Q55" s="1">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="R55" s="1">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="S55" s="1">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+      <c r="T55" s="1">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="U55" s="1">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="V55" s="1">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="W55" s="1">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="1">
+        <v>35190000</v>
+      </c>
+      <c r="C56" s="1">
+        <v>35190000</v>
+      </c>
+      <c r="D56" s="1">
+        <v>35190000</v>
+      </c>
+      <c r="E56" s="1">
+        <v>35190000</v>
+      </c>
+      <c r="F56" s="1">
+        <v>35190000</v>
+      </c>
+      <c r="G56" s="1">
+        <v>35190000</v>
+      </c>
+      <c r="H56" s="1">
+        <v>35190000</v>
+      </c>
+      <c r="I56" s="1">
+        <v>35190000</v>
+      </c>
+      <c r="J56" s="1">
+        <v>35190000</v>
+      </c>
+      <c r="K56" s="1">
+        <v>35190000</v>
+      </c>
+      <c r="L56" s="1">
+        <v>35190000</v>
+      </c>
+      <c r="N56" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U56" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W56" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B58" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="1">
+        <f>B55/10 - B29</f>
+        <v>2510.9625000000233</v>
+      </c>
+      <c r="C59" s="1">
+        <f>C55/10 - C29</f>
+        <v>-6.4124999999767169</v>
+      </c>
+      <c r="D59" s="1">
+        <f>D55/10 - D29</f>
+        <v>-0.21250000002328306</v>
+      </c>
+      <c r="E59" s="1">
+        <f>E55/10 - E29</f>
+        <v>-1.2499999953433871E-2</v>
+      </c>
+      <c r="F59" s="1">
+        <f>F55/10 - F29</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <f>G55/10 - G29</f>
+        <v>-2.5000000023283064E-2</v>
+      </c>
+      <c r="H59" s="1">
+        <f>H55/10 - H29</f>
+        <v>-1.2499999953433871E-2</v>
+      </c>
+      <c r="I59" s="1">
+        <f>I55/10 - I29</f>
+        <v>-1.2499999953433871E-2</v>
+      </c>
+      <c r="J59" s="1">
+        <f>J55/10 - J29</f>
+        <v>-1.2499999953433871E-2</v>
+      </c>
+      <c r="K59" s="1">
+        <f>K55/10 - K29</f>
+        <v>-1.2499999953433871E-2</v>
+      </c>
+      <c r="L59" s="1">
+        <f>L55/10 - L29</f>
+        <v>-1.2499999953433871E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="1">
+        <f>B56/10 - B30</f>
+        <v>4704.25</v>
+      </c>
+      <c r="C60" s="1">
+        <f>C56/10 - C30</f>
+        <v>5</v>
+      </c>
+      <c r="D60" s="1">
+        <f>D56/10 - D30</f>
+        <v>5</v>
+      </c>
+      <c r="E60" s="1">
+        <f>E56/10 - E30</f>
+        <v>5</v>
+      </c>
+      <c r="F60" s="1">
+        <f>F56/10 - F30</f>
+        <v>5</v>
+      </c>
+      <c r="G60" s="1">
+        <f>G56/10 - G30</f>
+        <v>5</v>
+      </c>
+      <c r="H60" s="1">
+        <f>H56/10 - H30</f>
+        <v>5</v>
+      </c>
+      <c r="I60" s="1">
+        <f>I56/10 - I30</f>
+        <v>5</v>
+      </c>
+      <c r="J60" s="1">
+        <f>J56/10 - J30</f>
+        <v>5</v>
+      </c>
+      <c r="K60" s="1">
+        <f>K56/10 - K30</f>
+        <v>5</v>
+      </c>
+      <c r="L60" s="1">
+        <f>L56/10 - L30</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B58:L58"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N3:W56">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59:L60">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8984,10 +13493,10 @@
     <mergeCell ref="B1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="O4:Y55">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12953,10 +17462,10 @@
     <mergeCell ref="B1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="M4:U58">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14415,8 +18924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17960,34 +22469,34 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L3">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:S56">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L56">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:J59">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18000,8 +22509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M58" sqref="M58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19857,13 +24366,2581 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B58:J60">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>313.048095703125</v>
+      </c>
+      <c r="C2">
+        <v>313.05035400390602</v>
+      </c>
+      <c r="D2">
+        <v>313.05072021484301</v>
+      </c>
+      <c r="E2">
+        <v>313.05072021484301</v>
+      </c>
+      <c r="F2">
+        <v>313.05072021484301</v>
+      </c>
+      <c r="G2">
+        <v>313.05072021484301</v>
+      </c>
+      <c r="H2">
+        <v>313.05072021484301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>331.75244140625</v>
+      </c>
+      <c r="C3">
+        <v>331.75265502929602</v>
+      </c>
+      <c r="D3">
+        <v>331.752685546875</v>
+      </c>
+      <c r="E3">
+        <v>331.752685546875</v>
+      </c>
+      <c r="F3">
+        <v>331.752685546875</v>
+      </c>
+      <c r="G3">
+        <v>331.752685546875</v>
+      </c>
+      <c r="H3">
+        <v>331.752685546875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>209.5615234375</v>
+      </c>
+      <c r="C4">
+        <v>210.123779296875</v>
+      </c>
+      <c r="D4">
+        <v>210.11480712890599</v>
+      </c>
+      <c r="E4">
+        <v>210.10388183593699</v>
+      </c>
+      <c r="F4">
+        <v>210.10198974609301</v>
+      </c>
+      <c r="G4">
+        <v>210.10192871093699</v>
+      </c>
+      <c r="H4">
+        <v>210.10186767578099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>752.88336181640602</v>
+      </c>
+      <c r="C5">
+        <v>752.88299560546795</v>
+      </c>
+      <c r="D5">
+        <v>752.808349609375</v>
+      </c>
+      <c r="E5">
+        <v>752.8076171875</v>
+      </c>
+      <c r="F5">
+        <v>752.80749511718705</v>
+      </c>
+      <c r="G5">
+        <v>752.80749511718705</v>
+      </c>
+      <c r="H5">
+        <v>752.80749511718705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5.015625</v>
+      </c>
+      <c r="C6">
+        <v>5.015625</v>
+      </c>
+      <c r="D6">
+        <v>5.015625</v>
+      </c>
+      <c r="E6">
+        <v>5.015625</v>
+      </c>
+      <c r="F6">
+        <v>5.015625</v>
+      </c>
+      <c r="G6">
+        <v>5.015625</v>
+      </c>
+      <c r="H6">
+        <v>5.015625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1362.572265625</v>
+      </c>
+      <c r="C7">
+        <v>1362.5771484375</v>
+      </c>
+      <c r="D7">
+        <v>1362.9052734375</v>
+      </c>
+      <c r="E7">
+        <v>1362.8828125</v>
+      </c>
+      <c r="F7">
+        <v>1362.87939453125</v>
+      </c>
+      <c r="G7">
+        <v>1362.87939453125</v>
+      </c>
+      <c r="H7">
+        <v>1362.87939453125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>195.48718261718699</v>
+      </c>
+      <c r="C8">
+        <v>195.51892089843699</v>
+      </c>
+      <c r="D8">
+        <v>195.51892089843699</v>
+      </c>
+      <c r="E8">
+        <v>195.51892089843699</v>
+      </c>
+      <c r="F8">
+        <v>195.51892089843699</v>
+      </c>
+      <c r="G8">
+        <v>195.51892089843699</v>
+      </c>
+      <c r="H8">
+        <v>195.51892089843699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>23.005405426025298</v>
+      </c>
+      <c r="C9">
+        <v>23.0054512023925</v>
+      </c>
+      <c r="D9">
+        <v>22.930929183959901</v>
+      </c>
+      <c r="E9">
+        <v>22.9305095672607</v>
+      </c>
+      <c r="F9">
+        <v>22.930458068847599</v>
+      </c>
+      <c r="G9">
+        <v>22.930463790893501</v>
+      </c>
+      <c r="H9">
+        <v>22.930461883544901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1093.44909667968</v>
+      </c>
+      <c r="C10">
+        <v>1093.45251464843</v>
+      </c>
+      <c r="D10">
+        <v>1093.45263671875</v>
+      </c>
+      <c r="E10">
+        <v>1093.45263671875</v>
+      </c>
+      <c r="F10">
+        <v>1093.45263671875</v>
+      </c>
+      <c r="G10">
+        <v>1093.45263671875</v>
+      </c>
+      <c r="H10">
+        <v>1093.45263671875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2828.16772460937</v>
+      </c>
+      <c r="C11">
+        <v>2828.19116210937</v>
+      </c>
+      <c r="D11">
+        <v>2828.19140625</v>
+      </c>
+      <c r="E11">
+        <v>2828.19140625</v>
+      </c>
+      <c r="F11">
+        <v>2828.19140625</v>
+      </c>
+      <c r="G11">
+        <v>2828.19140625</v>
+      </c>
+      <c r="H11">
+        <v>2828.19140625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1026.82470703125</v>
+      </c>
+      <c r="C12">
+        <v>1026.83349609375</v>
+      </c>
+      <c r="D12">
+        <v>1027.0546875</v>
+      </c>
+      <c r="E12">
+        <v>1027.037109375</v>
+      </c>
+      <c r="F12">
+        <v>1027.03515625</v>
+      </c>
+      <c r="G12">
+        <v>1027.03515625</v>
+      </c>
+      <c r="H12">
+        <v>1027.03515625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>372.55795288085898</v>
+      </c>
+      <c r="C13">
+        <v>372.56793212890602</v>
+      </c>
+      <c r="D13">
+        <v>372.56805419921801</v>
+      </c>
+      <c r="E13">
+        <v>372.56805419921801</v>
+      </c>
+      <c r="F13">
+        <v>372.56805419921801</v>
+      </c>
+      <c r="G13">
+        <v>372.56805419921801</v>
+      </c>
+      <c r="H13">
+        <v>372.56805419921801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>90.2041015625</v>
+      </c>
+      <c r="C14">
+        <v>90.6396484375</v>
+      </c>
+      <c r="D14">
+        <v>92.3515625</v>
+      </c>
+      <c r="E14">
+        <v>92.0107421875</v>
+      </c>
+      <c r="F14">
+        <v>91.96875</v>
+      </c>
+      <c r="G14">
+        <v>91.9638671875</v>
+      </c>
+      <c r="H14">
+        <v>91.962890625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>248.70176696777301</v>
+      </c>
+      <c r="C15">
+        <v>248.70837402343699</v>
+      </c>
+      <c r="D15">
+        <v>248.542709350585</v>
+      </c>
+      <c r="E15">
+        <v>248.54006958007801</v>
+      </c>
+      <c r="F15">
+        <v>248.53996276855401</v>
+      </c>
+      <c r="G15">
+        <v>248.53993225097599</v>
+      </c>
+      <c r="H15">
+        <v>248.53993225097599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2.1767578125</v>
+      </c>
+      <c r="C16">
+        <v>2.1689453125</v>
+      </c>
+      <c r="D16">
+        <v>2.1982421875</v>
+      </c>
+      <c r="E16">
+        <v>2.1962890625</v>
+      </c>
+      <c r="F16">
+        <v>2.1953125</v>
+      </c>
+      <c r="G16">
+        <v>2.1953125</v>
+      </c>
+      <c r="H16">
+        <v>2.1953125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>44.201171875</v>
+      </c>
+      <c r="C17">
+        <v>44.7255859375</v>
+      </c>
+      <c r="D17">
+        <v>44.5654296875</v>
+      </c>
+      <c r="E17">
+        <v>44.5693359375</v>
+      </c>
+      <c r="F17">
+        <v>44.5673828125</v>
+      </c>
+      <c r="G17">
+        <v>44.5654296875</v>
+      </c>
+      <c r="H17">
+        <v>44.56640625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>59.005058288574197</v>
+      </c>
+      <c r="C18">
+        <v>59.005081176757798</v>
+      </c>
+      <c r="D18">
+        <v>59.005081176757798</v>
+      </c>
+      <c r="E18">
+        <v>59.005081176757798</v>
+      </c>
+      <c r="F18">
+        <v>59.005081176757798</v>
+      </c>
+      <c r="G18">
+        <v>59.005081176757798</v>
+      </c>
+      <c r="H18">
+        <v>59.005081176757798</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19">
+        <v>194.63818359375</v>
+      </c>
+      <c r="C19">
+        <v>195.31201171875</v>
+      </c>
+      <c r="D19">
+        <v>194.84130859375</v>
+      </c>
+      <c r="E19">
+        <v>194.84130859375</v>
+      </c>
+      <c r="F19">
+        <v>194.84130859375</v>
+      </c>
+      <c r="G19">
+        <v>194.84130859375</v>
+      </c>
+      <c r="H19">
+        <v>194.84130859375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>216.65771484375</v>
+      </c>
+      <c r="C20">
+        <v>216.494140625</v>
+      </c>
+      <c r="D20">
+        <v>216.0234375</v>
+      </c>
+      <c r="E20">
+        <v>215.98876953125</v>
+      </c>
+      <c r="F20">
+        <v>215.96923828125</v>
+      </c>
+      <c r="G20">
+        <v>215.96630859375</v>
+      </c>
+      <c r="H20">
+        <v>215.966796875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>337.484375</v>
+      </c>
+      <c r="C22">
+        <v>337.55859375</v>
+      </c>
+      <c r="D22">
+        <v>337.73046875</v>
+      </c>
+      <c r="E22">
+        <v>337.6875</v>
+      </c>
+      <c r="F22">
+        <v>337.681640625</v>
+      </c>
+      <c r="G22">
+        <v>337.6806640625</v>
+      </c>
+      <c r="H22">
+        <v>337.6806640625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23">
+        <v>38.995849609375</v>
+      </c>
+      <c r="C23">
+        <v>34.704833984375</v>
+      </c>
+      <c r="D23">
+        <v>33.044921875</v>
+      </c>
+      <c r="E23">
+        <v>32.896728515625</v>
+      </c>
+      <c r="F23">
+        <v>33.069091796875</v>
+      </c>
+      <c r="G23">
+        <v>33.0283203125</v>
+      </c>
+      <c r="H23">
+        <v>33.025146484375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>645.8037109375</v>
+      </c>
+      <c r="C24">
+        <v>647.77490234375</v>
+      </c>
+      <c r="D24">
+        <v>648.92236328125</v>
+      </c>
+      <c r="E24">
+        <v>648.72412109375</v>
+      </c>
+      <c r="F24">
+        <v>648.58349609375</v>
+      </c>
+      <c r="G24">
+        <v>648.59619140625</v>
+      </c>
+      <c r="H24">
+        <v>648.5966796875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>511.511457636952</v>
+      </c>
+      <c r="C26">
+        <v>510.973371699452</v>
+      </c>
+      <c r="D26">
+        <v>510.958234980702</v>
+      </c>
+      <c r="E26">
+        <v>510.958234980702</v>
+      </c>
+      <c r="F26">
+        <v>510.958234980702</v>
+      </c>
+      <c r="G26">
+        <v>510.958234980702</v>
+      </c>
+      <c r="H26">
+        <v>510.958234980702</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>1357.93207836896</v>
+      </c>
+      <c r="C27">
+        <v>1357.89741040021</v>
+      </c>
+      <c r="D27">
+        <v>1357.89155102521</v>
+      </c>
+      <c r="E27">
+        <v>1357.89545727521</v>
+      </c>
+      <c r="F27">
+        <v>1357.89545727521</v>
+      </c>
+      <c r="G27">
+        <v>1357.89545727521</v>
+      </c>
+      <c r="H27">
+        <v>1357.89545727521</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>126951.234375</v>
+      </c>
+      <c r="C28">
+        <v>126999.4921875</v>
+      </c>
+      <c r="D28">
+        <v>127000</v>
+      </c>
+      <c r="E28">
+        <v>127000</v>
+      </c>
+      <c r="F28">
+        <v>127000</v>
+      </c>
+      <c r="G28">
+        <v>127000</v>
+      </c>
+      <c r="H28">
+        <v>127000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>42982.9296875</v>
+      </c>
+      <c r="C29">
+        <v>43001.83203125</v>
+      </c>
+      <c r="D29">
+        <v>43001.92578125</v>
+      </c>
+      <c r="E29">
+        <v>43001.9296875</v>
+      </c>
+      <c r="F29">
+        <v>43001.9296875</v>
+      </c>
+      <c r="G29">
+        <v>43001.9296875</v>
+      </c>
+      <c r="H29">
+        <v>43001.9296875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>5052.5</v>
+      </c>
+      <c r="C48">
+        <v>5006.2</v>
+      </c>
+      <c r="D48">
+        <v>5005.7</v>
+      </c>
+      <c r="E48">
+        <v>5005.7</v>
+      </c>
+      <c r="F48">
+        <v>5005.7</v>
+      </c>
+      <c r="G48">
+        <v>5005.7</v>
+      </c>
+      <c r="H48">
+        <v>5005.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49">
+        <v>4882.8999999999996</v>
+      </c>
+      <c r="C49">
+        <v>4863.8999999999996</v>
+      </c>
+      <c r="D49">
+        <v>4863.8</v>
+      </c>
+      <c r="E49">
+        <v>4863.8</v>
+      </c>
+      <c r="F49">
+        <v>4863.8</v>
+      </c>
+      <c r="G49">
+        <v>4863.8</v>
+      </c>
+      <c r="H49">
+        <v>4863.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52">
+        <v>3143.7</v>
+      </c>
+      <c r="C52">
+        <v>3625.5</v>
+      </c>
+      <c r="D52">
+        <v>3628.5</v>
+      </c>
+      <c r="E52">
+        <v>3630.7</v>
+      </c>
+      <c r="F52">
+        <v>3630</v>
+      </c>
+      <c r="G52">
+        <v>3629.9</v>
+      </c>
+      <c r="H52">
+        <v>3629.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54">
+        <v>1270000</v>
+      </c>
+      <c r="C54">
+        <v>1270000</v>
+      </c>
+      <c r="D54">
+        <v>1270000</v>
+      </c>
+      <c r="E54">
+        <v>1270000</v>
+      </c>
+      <c r="F54">
+        <v>1270000</v>
+      </c>
+      <c r="G54">
+        <v>1270000</v>
+      </c>
+      <c r="H54">
+        <v>1270000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55">
+        <v>430000</v>
+      </c>
+      <c r="C55">
+        <v>430000</v>
+      </c>
+      <c r="D55">
+        <v>430000</v>
+      </c>
+      <c r="E55">
+        <v>430000</v>
+      </c>
+      <c r="F55">
+        <v>430000</v>
+      </c>
+      <c r="G55">
+        <v>430000</v>
+      </c>
+      <c r="H55">
+        <v>430000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" activeCellId="1" sqref="F1:H1048576 J1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>313.048095703125</v>
+      </c>
+      <c r="C2">
+        <v>313.05035400390602</v>
+      </c>
+      <c r="D2">
+        <v>313.05072021484301</v>
+      </c>
+      <c r="E2">
+        <v>313.05072021484301</v>
+      </c>
+      <c r="F2">
+        <v>313.05072021484301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>331.75244140625</v>
+      </c>
+      <c r="C3">
+        <v>331.75265502929602</v>
+      </c>
+      <c r="D3">
+        <v>331.752685546875</v>
+      </c>
+      <c r="E3">
+        <v>331.752685546875</v>
+      </c>
+      <c r="F3">
+        <v>331.752685546875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>209.67517089843699</v>
+      </c>
+      <c r="C4">
+        <v>210.25640869140599</v>
+      </c>
+      <c r="D4">
+        <v>210.24621582031199</v>
+      </c>
+      <c r="E4">
+        <v>210.23553466796801</v>
+      </c>
+      <c r="F4">
+        <v>210.23376464843699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>752.88336181640602</v>
+      </c>
+      <c r="C5">
+        <v>752.88299560546795</v>
+      </c>
+      <c r="D5">
+        <v>752.808349609375</v>
+      </c>
+      <c r="E5">
+        <v>752.8076171875</v>
+      </c>
+      <c r="F5">
+        <v>752.80749511718705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5.015625</v>
+      </c>
+      <c r="C6">
+        <v>5.015625</v>
+      </c>
+      <c r="D6">
+        <v>5.015625</v>
+      </c>
+      <c r="E6">
+        <v>5.015625</v>
+      </c>
+      <c r="F6">
+        <v>5.015625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1362.572265625</v>
+      </c>
+      <c r="C7">
+        <v>1362.5771484375</v>
+      </c>
+      <c r="D7">
+        <v>1362.9052734375</v>
+      </c>
+      <c r="E7">
+        <v>1362.8828125</v>
+      </c>
+      <c r="F7">
+        <v>1362.87939453125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>195.48718261718699</v>
+      </c>
+      <c r="C8">
+        <v>195.51892089843699</v>
+      </c>
+      <c r="D8">
+        <v>195.51892089843699</v>
+      </c>
+      <c r="E8">
+        <v>195.51892089843699</v>
+      </c>
+      <c r="F8">
+        <v>195.51892089843699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>23.005405426025298</v>
+      </c>
+      <c r="C9">
+        <v>23.0054512023925</v>
+      </c>
+      <c r="D9">
+        <v>22.930929183959901</v>
+      </c>
+      <c r="E9">
+        <v>22.9305095672607</v>
+      </c>
+      <c r="F9">
+        <v>22.930458068847599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1093.44909667968</v>
+      </c>
+      <c r="C10">
+        <v>1093.45251464843</v>
+      </c>
+      <c r="D10">
+        <v>1093.45263671875</v>
+      </c>
+      <c r="E10">
+        <v>1093.45263671875</v>
+      </c>
+      <c r="F10">
+        <v>1093.45263671875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2828.16772460937</v>
+      </c>
+      <c r="C11">
+        <v>2828.19116210937</v>
+      </c>
+      <c r="D11">
+        <v>2828.19140625</v>
+      </c>
+      <c r="E11">
+        <v>2828.19140625</v>
+      </c>
+      <c r="F11">
+        <v>2828.19140625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1026.82470703125</v>
+      </c>
+      <c r="C12">
+        <v>1026.83349609375</v>
+      </c>
+      <c r="D12">
+        <v>1027.0546875</v>
+      </c>
+      <c r="E12">
+        <v>1027.037109375</v>
+      </c>
+      <c r="F12">
+        <v>1027.03515625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>372.55795288085898</v>
+      </c>
+      <c r="C13">
+        <v>372.56793212890602</v>
+      </c>
+      <c r="D13">
+        <v>372.56805419921801</v>
+      </c>
+      <c r="E13">
+        <v>372.56805419921801</v>
+      </c>
+      <c r="F13">
+        <v>372.56805419921801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>90.2041015625</v>
+      </c>
+      <c r="C14">
+        <v>90.6396484375</v>
+      </c>
+      <c r="D14">
+        <v>92.3515625</v>
+      </c>
+      <c r="E14">
+        <v>92.0107421875</v>
+      </c>
+      <c r="F14">
+        <v>91.96875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>248.70176696777301</v>
+      </c>
+      <c r="C15">
+        <v>248.70837402343699</v>
+      </c>
+      <c r="D15">
+        <v>248.542709350585</v>
+      </c>
+      <c r="E15">
+        <v>248.54006958007801</v>
+      </c>
+      <c r="F15">
+        <v>248.53996276855401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2.2587890625</v>
+      </c>
+      <c r="C16">
+        <v>2.263671875</v>
+      </c>
+      <c r="D16">
+        <v>2.2919921875</v>
+      </c>
+      <c r="E16">
+        <v>2.2900390625</v>
+      </c>
+      <c r="F16">
+        <v>2.2890625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>42.123046875</v>
+      </c>
+      <c r="C17">
+        <v>42.2578125</v>
+      </c>
+      <c r="D17">
+        <v>42.2431640625</v>
+      </c>
+      <c r="E17">
+        <v>42.25</v>
+      </c>
+      <c r="F17">
+        <v>42.2490234375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>59.005455017089801</v>
+      </c>
+      <c r="C18">
+        <v>59.005477905273402</v>
+      </c>
+      <c r="D18">
+        <v>59.005477905273402</v>
+      </c>
+      <c r="E18">
+        <v>59.005477905273402</v>
+      </c>
+      <c r="F18">
+        <v>59.005477905273402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19">
+        <v>194.63818359375</v>
+      </c>
+      <c r="C19">
+        <v>195.31201171875</v>
+      </c>
+      <c r="D19">
+        <v>194.84130859375</v>
+      </c>
+      <c r="E19">
+        <v>194.84130859375</v>
+      </c>
+      <c r="F19">
+        <v>194.84130859375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>242.687255859375</v>
+      </c>
+      <c r="C20">
+        <v>243.25573730468699</v>
+      </c>
+      <c r="D20">
+        <v>242.89599609375</v>
+      </c>
+      <c r="E20">
+        <v>242.86340332031199</v>
+      </c>
+      <c r="F20">
+        <v>242.84924316406199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>337.5703125</v>
+      </c>
+      <c r="C22">
+        <v>337.658203125</v>
+      </c>
+      <c r="D22">
+        <v>337.828125</v>
+      </c>
+      <c r="E22">
+        <v>337.78515625</v>
+      </c>
+      <c r="F22">
+        <v>337.7802734375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23">
+        <v>100.05710601806599</v>
+      </c>
+      <c r="C23">
+        <v>96.3966064453125</v>
+      </c>
+      <c r="D23">
+        <v>96.028289794921804</v>
+      </c>
+      <c r="E23">
+        <v>95.765808105468693</v>
+      </c>
+      <c r="F23">
+        <v>96.066101074218693</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>627.3447265625</v>
+      </c>
+      <c r="C24">
+        <v>628.4658203125</v>
+      </c>
+      <c r="D24">
+        <v>628.94921875</v>
+      </c>
+      <c r="E24">
+        <v>628.7607421875</v>
+      </c>
+      <c r="F24">
+        <v>628.6611328125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>511.511457636952</v>
+      </c>
+      <c r="C26">
+        <v>510.973371699452</v>
+      </c>
+      <c r="D26">
+        <v>510.958234980702</v>
+      </c>
+      <c r="E26">
+        <v>510.958234980702</v>
+      </c>
+      <c r="F26">
+        <v>510.958234980702</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>1350.08247280865</v>
+      </c>
+      <c r="C27">
+        <v>1350.03864956647</v>
+      </c>
+      <c r="D27">
+        <v>1350.03242398053</v>
+      </c>
+      <c r="E27">
+        <v>1350.03242398053</v>
+      </c>
+      <c r="F27">
+        <v>1350.03242398053</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>126951.234375</v>
+      </c>
+      <c r="C28">
+        <v>126999.4921875</v>
+      </c>
+      <c r="D28">
+        <v>127000</v>
+      </c>
+      <c r="E28">
+        <v>127000</v>
+      </c>
+      <c r="F28">
+        <v>127000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>46974.33203125</v>
+      </c>
+      <c r="C29">
+        <v>46999.98828125</v>
+      </c>
+      <c r="D29">
+        <v>47000.08203125</v>
+      </c>
+      <c r="E29">
+        <v>47000.08203125</v>
+      </c>
+      <c r="F29">
+        <v>47000.08203125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>5052.5</v>
+      </c>
+      <c r="C48">
+        <v>5006.2</v>
+      </c>
+      <c r="D48">
+        <v>5005.7</v>
+      </c>
+      <c r="E48">
+        <v>5005.7</v>
+      </c>
+      <c r="F48">
+        <v>5005.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49">
+        <v>1434.8</v>
+      </c>
+      <c r="C49">
+        <v>1409.1</v>
+      </c>
+      <c r="D49">
+        <v>1409</v>
+      </c>
+      <c r="E49">
+        <v>1409</v>
+      </c>
+      <c r="F49">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52">
+        <v>95.6</v>
+      </c>
+      <c r="C52">
+        <v>178.5</v>
+      </c>
+      <c r="D52">
+        <v>181.6</v>
+      </c>
+      <c r="E52">
+        <v>183.1</v>
+      </c>
+      <c r="F52">
+        <v>182.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54">
+        <v>1270000</v>
+      </c>
+      <c r="C54">
+        <v>1270000</v>
+      </c>
+      <c r="D54">
+        <v>1270000</v>
+      </c>
+      <c r="E54">
+        <v>1270000</v>
+      </c>
+      <c r="F54">
+        <v>1270000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55">
+        <v>470000</v>
+      </c>
+      <c r="C55">
+        <v>470000</v>
+      </c>
+      <c r="D55">
+        <v>470000</v>
+      </c>
+      <c r="E55">
+        <v>470000</v>
+      </c>
+      <c r="F55">
+        <v>470000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sagehen_3lay_modsim/Ocsillations_2.xlsx
+++ b/sagehen_3lay_modsim/Ocsillations_2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="8340" tabRatio="824" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22998" windowHeight="8340" tabRatio="824" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="3-17-1993_Recheck" sheetId="7" r:id="rId7"/>
     <sheet name="3-17-1993_Recheck_up_min_offlin" sheetId="8" r:id="rId8"/>
     <sheet name="3-17-1993_Recheck_up_min_more" sheetId="9" r:id="rId9"/>
-    <sheet name="9-26-17_Isolated_nonConverg_Iss" sheetId="10" r:id="rId10"/>
+    <sheet name="9-26-81_Isolated_nonConverg_Iss" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="82">
   <si>
     <t>EXCHANGE</t>
   </si>
@@ -311,6 +311,9 @@
   <si>
     <t>[19]  Seepage</t>
   </si>
+  <si>
+    <t>LAKEVOL[1]  (MODFLOW)</t>
+  </si>
 </sst>
 </file>
 
@@ -397,15 +400,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="20">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -603,16 +606,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFF8955E"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -937,18 +930,18 @@
       <selection activeCell="D50" sqref="D50:I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="9.140625" style="2"/>
+    <col min="1" max="1" width="19.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="9.15625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -998,7 +991,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1056,7 +1049,7 @@
       </c>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1113,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1170,7 +1163,7 @@
         <v>6.05029296875</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1227,7 +1220,7 @@
         <v>1.904296875E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1284,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1341,7 +1334,7 @@
         <v>-0.17749023436999778</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1398,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1455,7 +1448,7 @@
         <v>3.283691405999889E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1512,7 +1505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1569,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1626,7 +1619,7 @@
         <v>-0.1669921875</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1683,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1740,7 +1733,7 @@
         <v>-2.0771484375</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1797,7 +1790,7 @@
         <v>1.2451171880002221E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1854,7 +1847,7 @@
         <v>-0.87890625</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1911,7 +1904,7 @@
         <v>0.7099609375</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1968,7 +1961,7 @@
         <v>2.44140625E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2025,7 +2018,7 @@
         <v>-0.11087036132801131</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -2082,7 +2075,7 @@
         <v>14.17041015625</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2139,7 +2132,7 @@
         <v>31.14892578125</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -2196,7 +2189,7 @@
         <v>-15.132751464842954</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -2253,7 +2246,7 @@
         <v>0.630859375</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2310,7 +2303,7 @@
         <v>-20.94189453125</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -2351,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2408,7 +2401,7 @@
         <v>9.9609375E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -2465,7 +2458,7 @@
         <v>-0.35107421875</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -2522,7 +2515,7 @@
         <v>-12.5</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -2579,7 +2572,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -2620,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -2677,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -2734,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -2791,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2848,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -2905,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -2962,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -3019,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -3076,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -3133,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -3190,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -3247,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -3304,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -3361,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -3418,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -3475,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -3532,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -3589,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -3646,7 +3639,7 @@
         <v>12.599999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -3703,7 +3696,7 @@
         <v>-2393.6000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>41</v>
       </c>
@@ -3760,7 +3753,7 @@
         <v>-2362.8999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -3817,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -3874,7 +3867,7 @@
         <v>0.70000000000027285</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -3950,17 +3943,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="12.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>24</v>
       </c>
@@ -3995,7 +3988,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4063,7 +4056,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4141,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4219,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4297,7 +4290,7 @@
         <v>-1.2207031298316906E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4375,7 +4368,7 @@
         <v>-5.1879882820458079E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4453,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4531,7 +4524,7 @@
         <v>2.34375E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4609,7 +4602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4687,7 +4680,7 @@
         <v>-5.0888061520026895E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4765,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4843,7 +4836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4921,7 +4914,7 @@
         <v>1.5625E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -4999,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -5077,7 +5070,7 @@
         <v>8.3984375E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -5155,7 +5148,7 @@
         <v>-1.1352539061988409E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -5233,7 +5226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -5311,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -5389,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -5467,7 +5460,7 @@
         <v>1.3671875E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -5545,7 +5538,7 @@
         <v>-1.2207031306843419E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -5623,7 +5616,7 @@
         <v>4.9000015258789986</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -5701,7 +5694,7 @@
         <v>-9.375E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -5779,7 +5772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -5857,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -5913,7 +5906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -5991,7 +5984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -6069,7 +6062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -6147,9 +6140,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="B30" s="1">
         <v>3514295.75</v>
@@ -6225,11 +6218,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1">
+        <f>B56/10-B50</f>
+        <v>3514297.7</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -6242,7 +6238,7 @@
       <c r="L31" s="1"/>
       <c r="N31" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3514297.7</v>
       </c>
       <c r="O31" s="1">
         <f t="shared" si="4"/>
@@ -6281,7 +6277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -6359,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -6437,7 +6433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -6515,7 +6511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -6593,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -6671,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -6749,7 +6745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -6827,7 +6823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -6905,7 +6901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -6983,7 +6979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -7061,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -7139,7 +7135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -7217,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -7295,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -7373,7 +7369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -7451,7 +7447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -7529,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -7607,41 +7603,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="9">
         <v>13416.5</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="9">
         <v>18515.400000000001</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="9">
         <v>18666.099999999999</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="9">
         <v>18647.099999999999</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="9">
         <v>18649.400000000001</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="9">
         <v>18652.8</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49" s="9">
         <v>18658.599999999999</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I49" s="9">
         <v>18663.599999999999</v>
       </c>
-      <c r="J49" s="10">
+      <c r="J49" s="9">
         <v>18668.599999999999</v>
       </c>
-      <c r="K49" s="10">
+      <c r="K49" s="9">
         <v>18673.599999999999</v>
       </c>
-      <c r="L49" s="10">
+      <c r="L49" s="9">
         <v>18678.599999999999</v>
       </c>
       <c r="N49" s="1">
@@ -7685,41 +7681,41 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="9">
         <v>4702.3</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="9">
         <v>1E-4</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="9">
         <v>1E-4</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="9">
         <v>1E-4</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="9">
         <v>1E-4</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="9">
         <v>1E-4</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="9">
         <v>1E-4</v>
       </c>
-      <c r="I50" s="10">
+      <c r="I50" s="9">
         <v>1E-4</v>
       </c>
-      <c r="J50" s="10">
+      <c r="J50" s="9">
         <v>1E-4</v>
       </c>
-      <c r="K50" s="10">
+      <c r="K50" s="9">
         <v>1E-4</v>
       </c>
-      <c r="L50" s="10">
+      <c r="L50" s="9">
         <v>1E-4</v>
       </c>
       <c r="N50" s="1">
@@ -7763,41 +7759,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>78</v>
       </c>
-      <c r="B51" s="10">
-        <v>0</v>
-      </c>
-      <c r="C51" s="10">
+      <c r="B51" s="9">
+        <v>0</v>
+      </c>
+      <c r="C51" s="9">
         <v>1.9</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="9">
         <v>6.8</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="9">
         <v>11.7</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="9">
         <v>16.600000000000001</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="9">
         <v>21.5</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H51" s="9">
         <v>26.4</v>
       </c>
-      <c r="I51" s="10">
+      <c r="I51" s="9">
         <v>31.3</v>
       </c>
-      <c r="J51" s="10">
+      <c r="J51" s="9">
         <v>36.200000000000003</v>
       </c>
-      <c r="K51" s="10">
+      <c r="K51" s="9">
         <v>41.099999999999902</v>
       </c>
-      <c r="L51" s="10">
+      <c r="L51" s="9">
         <v>46</v>
       </c>
       <c r="N51" s="1">
@@ -7841,7 +7837,7 @@
         <v>-4.9000000000000981</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -7919,41 +7915,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="10">
+      <c r="B53" s="9">
         <v>12131.9</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="9">
         <v>12154.199999999901</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="9">
         <v>12153.7</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="9">
         <v>12153.7</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="9">
         <v>12153.7</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="9">
         <v>12153.7</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H53" s="9">
         <v>12153.7</v>
       </c>
-      <c r="I53" s="10">
+      <c r="I53" s="9">
         <v>12153.7</v>
       </c>
-      <c r="J53" s="10">
+      <c r="J53" s="9">
         <v>12153.7</v>
       </c>
-      <c r="K53" s="10">
+      <c r="K53" s="9">
         <v>12153.7</v>
       </c>
-      <c r="L53" s="10">
+      <c r="L53" s="9">
         <v>12153.7</v>
       </c>
       <c r="N53" s="1">
@@ -7997,7 +7993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -8075,7 +8071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -8153,7 +8149,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -8231,116 +8227,116 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B58" s="9" t="s">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>74</v>
       </c>
       <c r="B59" s="1">
-        <f>B55/10 - B29</f>
+        <f t="shared" ref="B59:L59" si="13">B55/10 - B29</f>
         <v>2510.9625000000233</v>
       </c>
       <c r="C59" s="1">
-        <f>C55/10 - C29</f>
+        <f t="shared" si="13"/>
         <v>-6.4124999999767169</v>
       </c>
       <c r="D59" s="1">
-        <f>D55/10 - D29</f>
+        <f t="shared" si="13"/>
         <v>-0.21250000002328306</v>
       </c>
       <c r="E59" s="1">
-        <f>E55/10 - E29</f>
+        <f t="shared" si="13"/>
         <v>-1.2499999953433871E-2</v>
       </c>
       <c r="F59" s="1">
-        <f>F55/10 - F29</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G59" s="1">
-        <f>G55/10 - G29</f>
+        <f t="shared" si="13"/>
         <v>-2.5000000023283064E-2</v>
       </c>
       <c r="H59" s="1">
-        <f>H55/10 - H29</f>
+        <f t="shared" si="13"/>
         <v>-1.2499999953433871E-2</v>
       </c>
       <c r="I59" s="1">
-        <f>I55/10 - I29</f>
+        <f t="shared" si="13"/>
         <v>-1.2499999953433871E-2</v>
       </c>
       <c r="J59" s="1">
-        <f>J55/10 - J29</f>
+        <f t="shared" si="13"/>
         <v>-1.2499999953433871E-2</v>
       </c>
       <c r="K59" s="1">
-        <f>K55/10 - K29</f>
+        <f t="shared" si="13"/>
         <v>-1.2499999953433871E-2</v>
       </c>
       <c r="L59" s="1">
-        <f>L55/10 - L29</f>
+        <f t="shared" si="13"/>
         <v>-1.2499999953433871E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>75</v>
       </c>
       <c r="B60" s="1">
-        <f>B56/10 - B30</f>
+        <f t="shared" ref="B60:L60" si="14">B56/10 - B30</f>
         <v>4704.25</v>
       </c>
       <c r="C60" s="1">
-        <f>C56/10 - C30</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="D60" s="1">
-        <f>D56/10 - D30</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="E60" s="1">
-        <f>E56/10 - E30</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="F60" s="1">
-        <f>F56/10 - F30</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="G60" s="1">
-        <f>G56/10 - G30</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="H60" s="1">
-        <f>H56/10 - H30</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="I60" s="1">
-        <f>I56/10 - I30</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="J60" s="1">
-        <f>J56/10 - J30</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="K60" s="1">
-        <f>K56/10 - K30</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="L60" s="1">
-        <f>L56/10 - L30</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
     </row>
@@ -8380,22 +8376,22 @@
       <selection activeCell="AT34" sqref="AS34:AT34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="76" width="3.28515625" customWidth="1"/>
+    <col min="1" max="76" width="3.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="18" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="BJ18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="19" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="BK19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="20" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="BL20">
         <v>1</v>
       </c>
@@ -8403,7 +8399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="21" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="BL21">
         <v>1</v>
       </c>
@@ -8411,22 +8407,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="22" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="BM22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="23" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="BM23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="24" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="BN24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="25" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="AW25">
         <v>4</v>
       </c>
@@ -8434,7 +8430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="26" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="AX26">
         <v>4</v>
       </c>
@@ -8442,7 +8438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="27" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="AY27">
         <v>4</v>
       </c>
@@ -8450,7 +8446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="28" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="AY28">
         <v>4</v>
       </c>
@@ -8458,7 +8454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="29" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="AZ29">
         <v>4</v>
       </c>
@@ -8466,7 +8462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="30" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="AZ30">
         <v>4</v>
       </c>
@@ -8474,7 +8470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="31" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="AZ31">
         <v>4</v>
       </c>
@@ -8482,7 +8478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="40:70" x14ac:dyDescent="0.25">
+    <row r="32" spans="40:70" x14ac:dyDescent="0.55000000000000004">
       <c r="AN32">
         <v>5</v>
       </c>
@@ -8502,7 +8498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="33" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="AM33">
         <v>5</v>
       </c>
@@ -8516,7 +8512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="34" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="AL34">
         <v>5</v>
       </c>
@@ -8539,7 +8535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="35" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="AI35">
         <v>7</v>
       </c>
@@ -8568,7 +8564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="36" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="AC36">
         <v>9</v>
       </c>
@@ -8609,7 +8605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="37" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="Z37">
         <v>9</v>
       </c>
@@ -8647,7 +8643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="38" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="AF38">
         <v>12</v>
       </c>
@@ -8688,7 +8684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="39" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="AE39">
         <v>12</v>
       </c>
@@ -8732,7 +8728,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="40" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="AD40">
         <v>12</v>
       </c>
@@ -8764,7 +8760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="41" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="AC41">
         <v>12</v>
       </c>
@@ -8784,7 +8780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="42" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="X42">
         <v>12</v>
       </c>
@@ -8816,7 +8812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="43" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="W43">
         <v>12</v>
       </c>
@@ -8836,7 +8832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="44" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="V44">
         <v>12</v>
       </c>
@@ -8853,7 +8849,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="45" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="U45">
         <v>12</v>
       </c>
@@ -8870,7 +8866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="46" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="Q46">
         <v>12</v>
       </c>
@@ -8896,7 +8892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="47" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="O47">
         <v>12</v>
       </c>
@@ -8913,7 +8909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="13:76" x14ac:dyDescent="0.25">
+    <row r="48" spans="13:76" x14ac:dyDescent="0.55000000000000004">
       <c r="M48">
         <v>12</v>
       </c>
@@ -8930,7 +8926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="11:73" x14ac:dyDescent="0.25">
+    <row r="49" spans="11:73" x14ac:dyDescent="0.55000000000000004">
       <c r="L49">
         <v>12</v>
       </c>
@@ -8944,7 +8940,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="11:73" x14ac:dyDescent="0.25">
+    <row r="50" spans="11:73" x14ac:dyDescent="0.55000000000000004">
       <c r="L50">
         <v>12</v>
       </c>
@@ -8958,7 +8954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="11:73" x14ac:dyDescent="0.25">
+    <row r="51" spans="11:73" x14ac:dyDescent="0.55000000000000004">
       <c r="K51">
         <v>12</v>
       </c>
@@ -8972,7 +8968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="11:73" x14ac:dyDescent="0.25">
+    <row r="52" spans="11:73" x14ac:dyDescent="0.55000000000000004">
       <c r="AL52">
         <v>10</v>
       </c>
@@ -8983,7 +8979,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="11:73" x14ac:dyDescent="0.25">
+    <row r="53" spans="11:73" x14ac:dyDescent="0.55000000000000004">
       <c r="AL53">
         <v>10</v>
       </c>
@@ -8991,7 +8987,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="11:73" x14ac:dyDescent="0.25">
+    <row r="54" spans="11:73" x14ac:dyDescent="0.55000000000000004">
       <c r="AL54">
         <v>10</v>
       </c>
@@ -8999,7 +8995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="11:73" x14ac:dyDescent="0.25">
+    <row r="55" spans="11:73" x14ac:dyDescent="0.55000000000000004">
       <c r="AL55">
         <v>10</v>
       </c>
@@ -9007,17 +9003,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="11:73" x14ac:dyDescent="0.25">
+    <row r="56" spans="11:73" x14ac:dyDescent="0.55000000000000004">
       <c r="AL56">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="11:73" x14ac:dyDescent="0.25">
+    <row r="57" spans="11:73" x14ac:dyDescent="0.55000000000000004">
       <c r="AK57">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="11:73" x14ac:dyDescent="0.25">
+    <row r="58" spans="11:73" x14ac:dyDescent="0.55000000000000004">
       <c r="AK58">
         <v>10</v>
       </c>
@@ -9035,30 +9031,30 @@
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
-    <col min="12" max="13" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.15625" customWidth="1"/>
+    <col min="3" max="10" width="12.26171875" customWidth="1"/>
+    <col min="11" max="11" width="11.15625" customWidth="1"/>
+    <col min="12" max="13" width="12.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
@@ -9129,7 +9125,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -9170,7 +9166,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -9255,7 +9251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -9340,7 +9336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -9425,7 +9421,7 @@
         <v>7.1716308590197286E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -9510,7 +9506,7 @@
         <v>-3.9672851499972239E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -9595,7 +9591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -9680,7 +9676,7 @@
         <v>7.8125E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -9765,7 +9761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -9850,7 +9846,7 @@
         <v>-5.8746337889203915E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -9935,7 +9931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -10020,7 +10016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -10105,7 +10101,7 @@
         <v>1.3671875E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -10190,7 +10186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -10275,7 +10271,7 @@
         <v>0.185546875</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -10360,7 +10356,7 @@
         <v>-3.6621093698840923E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -10445,7 +10441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -10530,7 +10526,7 @@
         <v>-1.953125E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -10615,7 +10611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -10700,7 +10696,7 @@
         <v>-1.171875E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -10785,7 +10781,7 @@
         <v>1.2207031306843419E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -10870,7 +10866,7 @@
         <v>3.0517578011313162E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -10955,7 +10951,7 @@
         <v>1.3671875E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -11040,7 +11036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -11125,7 +11121,7 @@
         <v>1.3671875E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -11159,7 +11155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -11244,7 +11240,7 @@
         <v>-3.90625E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -11329,7 +11325,7 @@
         <v>-3.0517578011313162E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -11414,7 +11410,7 @@
         <v>0.4921875</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -11499,7 +11495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -11533,7 +11529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -11618,7 +11614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -11703,7 +11699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -11788,7 +11784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -11873,7 +11869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -11958,7 +11954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -12043,7 +12039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -12128,7 +12124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -12213,7 +12209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -12298,7 +12294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -12383,7 +12379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -12468,7 +12464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -12553,7 +12549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -12638,7 +12634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -12723,7 +12719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -12808,7 +12804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -12893,7 +12889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -12978,7 +12974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -13063,7 +13059,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -13148,7 +13144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -13233,7 +13229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -13318,7 +13314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -13403,7 +13399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -13513,29 +13509,29 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.68359375" customWidth="1"/>
+    <col min="2" max="11" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.15625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="12.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
@@ -13567,7 +13563,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -13629,7 +13625,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -13700,7 +13696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -13771,7 +13767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -13842,7 +13838,7 @@
         <v>-1.5258789098027137E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -13913,7 +13909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -13984,7 +13980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -14055,7 +14051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -14126,7 +14122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -14197,7 +14193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -14268,7 +14264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -14339,7 +14335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -14410,7 +14406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -14481,7 +14477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -14552,7 +14548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -14623,7 +14619,7 @@
         <v>-1.5258789005656581E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -14694,7 +14690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -14765,7 +14761,7 @@
         <v>9.765625E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -14836,7 +14832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -14907,7 +14903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -14978,7 +14974,7 @@
         <v>1.3427734369315658E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -15049,7 +15045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -15120,7 +15116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -15191,7 +15187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -15262,7 +15258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -15306,7 +15302,7 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -15377,7 +15373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -15448,7 +15444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7" t="s">
         <v>21</v>
       </c>
@@ -15519,7 +15515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -15590,7 +15586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -15634,7 +15630,7 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -15705,7 +15701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -15776,7 +15772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -15847,7 +15843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -15918,7 +15914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -15989,7 +15985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -16060,7 +16056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -16131,7 +16127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -16202,7 +16198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -16273,7 +16269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -16344,7 +16340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -16415,7 +16411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -16486,7 +16482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -16557,7 +16553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -16628,7 +16624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -16699,7 +16695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -16770,7 +16766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -16841,7 +16837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -16912,7 +16908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -16983,7 +16979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -17054,7 +17050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -17125,7 +17121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -17196,7 +17192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -17267,7 +17263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7" t="s">
         <v>65</v>
       </c>
@@ -17338,7 +17334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -17409,7 +17405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="M58" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17447,7 +17443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="F59" s="1"/>
@@ -17482,15 +17478,15 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26171875" customWidth="1"/>
+    <col min="5" max="7" width="12.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17516,7 +17512,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -17542,7 +17538,7 @@
         <v>245.21145629882801</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -17568,7 +17564,7 @@
         <v>56.372676849365199</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -17594,7 +17590,7 @@
         <v>-61.454116821288999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -17620,7 +17616,7 @@
         <v>382.21212768554602</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -17646,7 +17642,7 @@
         <v>6.6650390625E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -17672,7 +17668,7 @@
         <v>920.87890625</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -17698,7 +17694,7 @@
         <v>163.16015625</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -17724,7 +17720,7 @@
         <v>49.088699340820298</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -17750,7 +17746,7 @@
         <v>633.57806396484295</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -17776,7 +17772,7 @@
         <v>2008.47985839843</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -17802,7 +17798,7 @@
         <v>585.962890625</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -17828,7 +17824,7 @@
         <v>52.073040008544901</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -17854,7 +17850,7 @@
         <v>-34.966796875</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -17880,7 +17876,7 @@
         <v>226.872146606445</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -17906,7 +17902,7 @@
         <v>7.296875</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -17932,7 +17928,7 @@
         <v>45.6572265625</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -17958,7 +17954,7 @@
         <v>247.27569580078099</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -17984,7 +17980,7 @@
         <v>272.822265625</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -18010,7 +18006,7 @@
         <v>702.01940917968705</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -18036,7 +18032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -18062,7 +18058,7 @@
         <v>505.205078125</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -18088,7 +18084,7 @@
         <v>-217.869140625</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -18114,7 +18110,7 @@
         <v>816.697265625</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -18137,7 +18133,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -18163,7 +18159,7 @@
         <v>1351.956745103</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -18189,7 +18185,7 @@
         <v>-299.588572502136</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -18215,7 +18211,7 @@
         <v>126999.8828125</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -18241,7 +18237,7 @@
         <v>3517626.25</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -18264,7 +18260,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -18290,7 +18286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -18316,7 +18312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -18342,7 +18338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -18368,7 +18364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -18394,7 +18390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -18420,7 +18416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -18446,7 +18442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -18472,7 +18468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -18498,7 +18494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -18524,7 +18520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -18550,7 +18546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -18576,7 +18572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -18602,7 +18598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -18628,7 +18624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -18654,7 +18650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -18680,7 +18676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -18706,7 +18702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -18732,7 +18728,7 @@
         <v>18222.3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -18758,7 +18754,7 @@
         <v>1321.3999999999901</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -18784,7 +18780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -18810,7 +18806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -18836,7 +18832,7 @@
         <v>12217.9</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -18862,7 +18858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -18888,7 +18884,7 @@
         <v>1270000</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -18928,13 +18924,13 @@
       <selection activeCell="L2" sqref="L2:S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="11.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>24</v>
       </c>
@@ -18963,7 +18959,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -19019,7 +19015,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -19083,7 +19079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -19147,7 +19143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -19211,7 +19207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -19275,7 +19271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -19339,7 +19335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -19403,7 +19399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -19467,7 +19463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -19531,7 +19527,7 @@
         <v>-1.9073486008380769E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -19595,7 +19591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -19659,7 +19655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -19723,7 +19719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -19787,7 +19783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -19851,7 +19847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -19915,7 +19911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -19979,7 +19975,7 @@
         <v>9.765625E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -20043,7 +20039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -20107,7 +20103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -20171,7 +20167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -20235,7 +20231,7 @@
         <v>-9.765625E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -20299,7 +20295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -20363,7 +20359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -20427,7 +20423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -20491,7 +20487,7 @@
         <v>9.765625E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -20513,7 +20509,7 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -20577,7 +20573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -20641,7 +20637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -20705,7 +20701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -20769,7 +20765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -20791,7 +20787,7 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -20855,7 +20851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -20919,7 +20915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -20983,7 +20979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -21047,7 +21043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -21111,7 +21107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -21175,7 +21171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -21239,7 +21235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -21303,7 +21299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -21367,7 +21363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -21431,7 +21427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -21495,7 +21491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -21559,7 +21555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -21623,7 +21619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -21687,7 +21683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -21751,7 +21747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -21815,7 +21811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -21879,7 +21875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -21943,7 +21939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>68</v>
       </c>
@@ -22007,7 +22003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -22071,7 +22067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -22135,7 +22131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>71</v>
       </c>
@@ -22199,7 +22195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -22263,7 +22259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -22327,7 +22323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -22391,7 +22387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="1">
         <f>B55/10-B29</f>
         <v>48.765625</v>
@@ -22429,7 +22425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="1">
         <f>B56/10-B30</f>
         <v>10.25390625</v>
@@ -22513,13 +22509,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="12.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>24</v>
       </c>
@@ -22548,7 +22544,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -22580,7 +22576,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -22612,7 +22608,7 @@
         <v>313.05072021484301</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -22644,7 +22640,7 @@
         <v>331.752685546875</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -22676,7 +22672,7 @@
         <v>210.08770751953099</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -22708,7 +22704,7 @@
         <v>752.80828857421795</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -22740,7 +22736,7 @@
         <v>5.015625</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -22772,7 +22768,7 @@
         <v>1362.90087890625</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -22804,7 +22800,7 @@
         <v>195.51892089843699</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -22836,7 +22832,7 @@
         <v>22.930574417114201</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -22868,7 +22864,7 @@
         <v>1093.45263671875</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -22900,7 +22896,7 @@
         <v>2828.19140625</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -22932,7 +22928,7 @@
         <v>1027.05322265625</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -22964,7 +22960,7 @@
         <v>372.56805419921801</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -22996,7 +22992,7 @@
         <v>92.18359375</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -23028,7 +23024,7 @@
         <v>248.56263732910099</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -23060,7 +23056,7 @@
         <v>2.18359375</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -23092,7 +23088,7 @@
         <v>44.69140625</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -23124,7 +23120,7 @@
         <v>59.005050659179602</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -23156,7 +23152,7 @@
         <v>194.84423828125</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -23188,7 +23184,7 @@
         <v>213.70654296875</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -23220,7 +23216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -23252,7 +23248,7 @@
         <v>337.673828125</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -23284,7 +23280,7 @@
         <v>29.30712890625</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -23316,7 +23312,7 @@
         <v>650.58349609375</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -23330,7 +23326,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -23362,7 +23358,7 @@
         <v>510.958234980702</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -23394,7 +23390,7 @@
         <v>1358.53461743146</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -23426,7 +23422,7 @@
         <v>127000</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -23458,7 +23454,7 @@
         <v>42663.19921875</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -23472,7 +23468,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -23504,7 +23500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -23536,7 +23532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -23568,7 +23564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -23600,7 +23596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -23632,7 +23628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -23664,7 +23660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -23696,7 +23692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -23728,7 +23724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -23760,7 +23756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -23792,7 +23788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -23824,7 +23820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -23856,7 +23852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -23888,7 +23884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -23920,7 +23916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -23952,7 +23948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -23984,7 +23980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>17</v>
       </c>
@@ -24016,7 +24012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -24048,7 +24044,7 @@
         <v>5005.7</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -24080,7 +24076,7 @@
         <v>5204.5</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -24112,7 +24108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -24144,7 +24140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -24176,7 +24172,7 @@
         <v>3970.7</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -24208,7 +24204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -24240,7 +24236,7 @@
         <v>1270000</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -24272,12 +24268,12 @@
         <v>426599</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M57" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="1">
         <f>B55/10-B29</f>
         <v>48.765625</v>
@@ -24315,7 +24311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="1">
         <f>B56/10-B30</f>
         <v>10.25390625</v>
@@ -24353,7 +24349,7 @@
         <v>-3.2992187499985448</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -24385,13 +24381,13 @@
       <selection activeCell="H1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="12.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -24417,7 +24413,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -24443,7 +24439,7 @@
         <v>313.05072021484301</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -24469,7 +24465,7 @@
         <v>331.752685546875</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -24495,7 +24491,7 @@
         <v>210.10186767578099</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -24521,7 +24517,7 @@
         <v>752.80749511718705</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -24547,7 +24543,7 @@
         <v>5.015625</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -24573,7 +24569,7 @@
         <v>1362.87939453125</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -24599,7 +24595,7 @@
         <v>195.51892089843699</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -24625,7 +24621,7 @@
         <v>22.930461883544901</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -24651,7 +24647,7 @@
         <v>1093.45263671875</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -24677,7 +24673,7 @@
         <v>2828.19140625</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -24703,7 +24699,7 @@
         <v>1027.03515625</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -24729,7 +24725,7 @@
         <v>372.56805419921801</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -24755,7 +24751,7 @@
         <v>91.962890625</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -24781,7 +24777,7 @@
         <v>248.53993225097599</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -24807,7 +24803,7 @@
         <v>2.1953125</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -24833,7 +24829,7 @@
         <v>44.56640625</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -24859,7 +24855,7 @@
         <v>59.005081176757798</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -24885,7 +24881,7 @@
         <v>194.84130859375</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -24911,7 +24907,7 @@
         <v>215.966796875</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -24937,7 +24933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -24963,7 +24959,7 @@
         <v>337.6806640625</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -24989,7 +24985,7 @@
         <v>33.025146484375</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -25015,7 +25011,7 @@
         <v>648.5966796875</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -25041,7 +25037,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -25067,7 +25063,7 @@
         <v>510.958234980702</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -25093,7 +25089,7 @@
         <v>1357.89545727521</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -25119,7 +25115,7 @@
         <v>127000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -25145,7 +25141,7 @@
         <v>43001.9296875</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -25171,7 +25167,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -25197,7 +25193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -25223,7 +25219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -25249,7 +25245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -25275,7 +25271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -25301,7 +25297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -25327,7 +25323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -25353,7 +25349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -25379,7 +25375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -25405,7 +25401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -25431,7 +25427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -25457,7 +25453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -25483,7 +25479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -25509,7 +25505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -25535,7 +25531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -25561,7 +25557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -25587,7 +25583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -25613,7 +25609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -25639,7 +25635,7 @@
         <v>5005.7</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -25665,7 +25661,7 @@
         <v>4863.8</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -25691,7 +25687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -25717,7 +25713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -25743,7 +25739,7 @@
         <v>3629.9</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -25769,7 +25765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -25795,7 +25791,7 @@
         <v>1270000</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -25834,13 +25830,13 @@
       <selection activeCell="J1" activeCellId="1" sqref="F1:H1048576 J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="12.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -25860,7 +25856,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -25880,7 +25876,7 @@
         <v>313.05072021484301</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -25900,7 +25896,7 @@
         <v>331.752685546875</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -25920,7 +25916,7 @@
         <v>210.23376464843699</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -25940,7 +25936,7 @@
         <v>752.80749511718705</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -25960,7 +25956,7 @@
         <v>5.015625</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -25980,7 +25976,7 @@
         <v>1362.87939453125</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -26000,7 +25996,7 @@
         <v>195.51892089843699</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -26020,7 +26016,7 @@
         <v>22.930458068847599</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -26040,7 +26036,7 @@
         <v>1093.45263671875</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -26060,7 +26056,7 @@
         <v>2828.19140625</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -26080,7 +26076,7 @@
         <v>1027.03515625</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -26100,7 +26096,7 @@
         <v>372.56805419921801</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -26120,7 +26116,7 @@
         <v>91.96875</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -26140,7 +26136,7 @@
         <v>248.53996276855401</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -26160,7 +26156,7 @@
         <v>2.2890625</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -26180,7 +26176,7 @@
         <v>42.2490234375</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -26200,7 +26196,7 @@
         <v>59.005477905273402</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -26220,7 +26216,7 @@
         <v>194.84130859375</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -26240,7 +26236,7 @@
         <v>242.84924316406199</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -26260,7 +26256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -26280,7 +26276,7 @@
         <v>337.7802734375</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -26300,7 +26296,7 @@
         <v>96.066101074218693</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -26320,7 +26316,7 @@
         <v>628.6611328125</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -26340,7 +26336,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -26360,7 +26356,7 @@
         <v>510.958234980702</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -26380,7 +26376,7 @@
         <v>1350.03242398053</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -26400,7 +26396,7 @@
         <v>127000</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -26420,7 +26416,7 @@
         <v>47000.08203125</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -26440,7 +26436,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -26460,7 +26456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -26480,7 +26476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -26500,7 +26496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -26520,7 +26516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -26540,7 +26536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -26560,7 +26556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -26580,7 +26576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -26600,7 +26596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -26620,7 +26616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -26640,7 +26636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -26660,7 +26656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -26680,7 +26676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -26700,7 +26696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -26720,7 +26716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -26740,7 +26736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -26760,7 +26756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -26780,7 +26776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -26800,7 +26796,7 @@
         <v>5005.7</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -26820,7 +26816,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -26840,7 +26836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -26860,7 +26856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -26880,7 +26876,7 @@
         <v>182.5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -26900,7 +26896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -26920,7 +26916,7 @@
         <v>1270000</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>66</v>
       </c>
